--- a/Broker_Analysis.xlsx
+++ b/Broker_Analysis.xlsx
@@ -419,13 +419,1874 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Net Holding Brokers (1 M)</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Top 1</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Top 2</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Top 3</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Top 4</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Top 5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>B1</v>
+      </c>
+      <c r="B2" t="str">
+        <v>CHDC/17572/2,616.52</v>
+      </c>
+      <c r="C2" t="str">
+        <v>RADHI/42893/823.85</v>
+      </c>
+      <c r="D2" t="str">
+        <v>NIFRA/83853/281.93</v>
+      </c>
+      <c r="E2" t="str">
+        <v>EBL/26041/649.36</v>
+      </c>
+      <c r="F2" t="str">
+        <v>NRN/6869/2,023.81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>B3</v>
+      </c>
+      <c r="B3" t="str">
+        <v>HIDCLP/41056/216.22</v>
+      </c>
+      <c r="C3" t="str">
+        <v>UPCL/17824/448.11</v>
+      </c>
+      <c r="D3" t="str">
+        <v>NGPL/18285/400.21</v>
+      </c>
+      <c r="E3" t="str">
+        <v>PRVU/32386/206.87</v>
+      </c>
+      <c r="F3" t="str">
+        <v>NIMB/28441/211.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>B4</v>
+      </c>
+      <c r="B4" t="str">
+        <v>SARBTM/79288/837.03</v>
+      </c>
+      <c r="C4" t="str">
+        <v>GMFIL/90081/487.60</v>
+      </c>
+      <c r="D4" t="str">
+        <v>SBL/100949/307.66</v>
+      </c>
+      <c r="E4" t="str">
+        <v>UMRH/45617/609.96</v>
+      </c>
+      <c r="F4" t="str">
+        <v>HRL/22088/912.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>B5</v>
+      </c>
+      <c r="B5" t="str">
+        <v>CHDC/6020/2,605.87</v>
+      </c>
+      <c r="C5" t="str">
+        <v>HURJA/39185/264.68</v>
+      </c>
+      <c r="D5" t="str">
+        <v>OMPL/3687/1,653.46</v>
+      </c>
+      <c r="E5" t="str">
+        <v>UPCL/13147/448.66</v>
+      </c>
+      <c r="F5" t="str">
+        <v>LBBL/10897/442.82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>B6</v>
+      </c>
+      <c r="B6" t="str">
+        <v>NRIC/191537/1,288.04</v>
+      </c>
+      <c r="C6" t="str">
+        <v>UPCL/151687/454.66</v>
+      </c>
+      <c r="D6" t="str">
+        <v>RIDI/158846/278.59</v>
+      </c>
+      <c r="E6" t="str">
+        <v>SHPC/66808/626.51</v>
+      </c>
+      <c r="F6" t="str">
+        <v>BPCL/25726/770.86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>B7</v>
+      </c>
+      <c r="B7" t="str">
+        <v>SHPC/39255/624.84</v>
+      </c>
+      <c r="C7" t="str">
+        <v>NABIL/33486/490.28</v>
+      </c>
+      <c r="D7" t="str">
+        <v>RADHI/16562/827.86</v>
+      </c>
+      <c r="E7" t="str">
+        <v>SIFC/18173/572.13</v>
+      </c>
+      <c r="F7" t="str">
+        <v>NRN/5231/2,025.02</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>B8</v>
+      </c>
+      <c r="B8" t="str">
+        <v>NGPL/443515/410.34</v>
+      </c>
+      <c r="C8" t="str">
+        <v>NABBC/19091/1,600.95</v>
+      </c>
+      <c r="D8" t="str">
+        <v>CHDC/6103/2,550.01</v>
+      </c>
+      <c r="E8" t="str">
+        <v>KSBBL/30197/453.41</v>
+      </c>
+      <c r="F8" t="str">
+        <v>SSHL/47208/243.86</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>B10</v>
+      </c>
+      <c r="B9" t="str">
+        <v>SHPC/28551/639.60</v>
+      </c>
+      <c r="C9" t="str">
+        <v>HRL/16745/904.11</v>
+      </c>
+      <c r="D9" t="str">
+        <v>HIDCLP/53150/215.83</v>
+      </c>
+      <c r="E9" t="str">
+        <v>HDL/6425/1,189.80</v>
+      </c>
+      <c r="F9" t="str">
+        <v>AHPC/18539/303.51</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>B11</v>
+      </c>
+      <c r="B10" t="str">
+        <v>ILI/18104/439.15</v>
+      </c>
+      <c r="C10" t="str">
+        <v>SONA/14740/456.95</v>
+      </c>
+      <c r="D10" t="str">
+        <v>RHPL/16113/404.69</v>
+      </c>
+      <c r="E10" t="str">
+        <v>SINDU/7277/799.44</v>
+      </c>
+      <c r="F10" t="str">
+        <v>UPCL/12148/443.66</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>B13</v>
+      </c>
+      <c r="B11" t="str">
+        <v>BARUN/32320/383.98</v>
+      </c>
+      <c r="C11" t="str">
+        <v>UMHL/16039/529.76</v>
+      </c>
+      <c r="D11" t="str">
+        <v>BHL/33933/211.26</v>
+      </c>
+      <c r="E11" t="str">
+        <v>GHL/26821/254.50</v>
+      </c>
+      <c r="F11" t="str">
+        <v>NMIC/4130/1,641.50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>B14</v>
+      </c>
+      <c r="B12" t="str">
+        <v>CGH/71779/958.76</v>
+      </c>
+      <c r="C12" t="str">
+        <v>CHCL/64926/569.70</v>
+      </c>
+      <c r="D12" t="str">
+        <v>HRL/36094/919.76</v>
+      </c>
+      <c r="E12" t="str">
+        <v>SHEL/68348/301.86</v>
+      </c>
+      <c r="F12" t="str">
+        <v>NIMBPO/130183/159.44</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>B16</v>
+      </c>
+      <c r="B13" t="str">
+        <v>CHDC/56619/2,641.23</v>
+      </c>
+      <c r="C13" t="str">
+        <v>RADHI/121942/828.16</v>
+      </c>
+      <c r="D13" t="str">
+        <v>SHL/93281/570.93</v>
+      </c>
+      <c r="E13" t="str">
+        <v>NGPL/78167/406.21</v>
+      </c>
+      <c r="F13" t="str">
+        <v>SMJC/49744/538.78</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>B17</v>
+      </c>
+      <c r="B14" t="str">
+        <v>NGPL/685460/406.83</v>
+      </c>
+      <c r="C14" t="str">
+        <v>HIDCLP/768907/215.95</v>
+      </c>
+      <c r="D14" t="str">
+        <v>HIDCL/219444/310.44</v>
+      </c>
+      <c r="E14" t="str">
+        <v>CHDC/21955/2,607.60</v>
+      </c>
+      <c r="F14" t="str">
+        <v>SANIMA/144100/315.67</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>B18</v>
+      </c>
+      <c r="B15" t="str">
+        <v>LICN/26436/908.90</v>
+      </c>
+      <c r="C15" t="str">
+        <v>SPIL/23499/814.90</v>
+      </c>
+      <c r="D15" t="str">
+        <v>NGPL/49429/398.30</v>
+      </c>
+      <c r="E15" t="str">
+        <v>NLICL/19292/608.11</v>
+      </c>
+      <c r="F15" t="str">
+        <v>NRN/4481/2,038.37</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>B19</v>
+      </c>
+      <c r="B16" t="str">
+        <v>SPDL/134214/424.88</v>
+      </c>
+      <c r="C16" t="str">
+        <v>CHDC/14063/2,644.49</v>
+      </c>
+      <c r="D16" t="str">
+        <v>SAPDBL/13555/1,002.24</v>
+      </c>
+      <c r="E16" t="str">
+        <v>OMPL/6541/1,643.74</v>
+      </c>
+      <c r="F16" t="str">
+        <v>NLG/12656/772.87</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>B20</v>
+      </c>
+      <c r="B17" t="str">
+        <v>HRL/24895/920.92</v>
+      </c>
+      <c r="C17" t="str">
+        <v>SHIVM/36857/519.23</v>
+      </c>
+      <c r="D17" t="str">
+        <v>NRIC/14515/1,266.16</v>
+      </c>
+      <c r="E17" t="str">
+        <v>SHPC/30237/618.20</v>
+      </c>
+      <c r="F17" t="str">
+        <v>RADHI/20112/820.33</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>B21</v>
+      </c>
+      <c r="B18" t="str">
+        <v>SHPC/49330/621.81</v>
+      </c>
+      <c r="C18" t="str">
+        <v>UPCL/65550/454.40</v>
+      </c>
+      <c r="D18" t="str">
+        <v>HIDCL/87441/302.83</v>
+      </c>
+      <c r="E18" t="str">
+        <v>SHIVM/50228/517.41</v>
+      </c>
+      <c r="F18" t="str">
+        <v>SMHL/22447/1,034.10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>B22</v>
+      </c>
+      <c r="B19" t="str">
+        <v>UPCL/91650/464.49</v>
+      </c>
+      <c r="C19" t="str">
+        <v>KPCL/44212/558.41</v>
+      </c>
+      <c r="D19" t="str">
+        <v>GHL/70314/260.70</v>
+      </c>
+      <c r="E19" t="str">
+        <v>RHPL/33126/394.94</v>
+      </c>
+      <c r="F19" t="str">
+        <v>LBBL/18132/444.90</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>B25</v>
+      </c>
+      <c r="B20" t="str">
+        <v>NGPL/63650/410.90</v>
+      </c>
+      <c r="C20" t="str">
+        <v>SHEL/73190/303.99</v>
+      </c>
+      <c r="D20" t="str">
+        <v>NRN/9292/2,045.66</v>
+      </c>
+      <c r="E20" t="str">
+        <v>HIDCL/52983/309.12</v>
+      </c>
+      <c r="F20" t="str">
+        <v>OMPL/6774/1,588.75</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>B26</v>
+      </c>
+      <c r="B21" t="str">
+        <v>RADHI/108513/817.94</v>
+      </c>
+      <c r="C21" t="str">
+        <v>GHL/83044/256.88</v>
+      </c>
+      <c r="D21" t="str">
+        <v>NLIC/24851/747.10</v>
+      </c>
+      <c r="E21" t="str">
+        <v>LBBL/38361/449.55</v>
+      </c>
+      <c r="F21" t="str">
+        <v>OMPL/8080/1,644.83</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>B28</v>
+      </c>
+      <c r="B22" t="str">
+        <v>SAHAS/143933/558.75</v>
+      </c>
+      <c r="C22" t="str">
+        <v>BPCL/100281/759.39</v>
+      </c>
+      <c r="D22" t="str">
+        <v>SHPC/92548/634.76</v>
+      </c>
+      <c r="E22" t="str">
+        <v>UPCL/79875/449.98</v>
+      </c>
+      <c r="F22" t="str">
+        <v>MNBBL/92681/359.63</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>B29</v>
+      </c>
+      <c r="B23" t="str">
+        <v>BPCL/38704/783.57</v>
+      </c>
+      <c r="C23" t="str">
+        <v>AKPL/77346/277.33</v>
+      </c>
+      <c r="D23" t="str">
+        <v>GRDBL/13792/1,284.02</v>
+      </c>
+      <c r="E23" t="str">
+        <v>NRIC/8767/1,236.25</v>
+      </c>
+      <c r="F23" t="str">
+        <v>BHDC/22323/473.67</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>B32</v>
+      </c>
+      <c r="B24" t="str">
+        <v>NRN/22235/2,036.94</v>
+      </c>
+      <c r="C24" t="str">
+        <v>NRIC/22272/1,271.53</v>
+      </c>
+      <c r="D24" t="str">
+        <v>CGH/23475/986.36</v>
+      </c>
+      <c r="E24" t="str">
+        <v>AKJCL/100353/212.61</v>
+      </c>
+      <c r="F24" t="str">
+        <v>RIDI/74391/273.91</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>B33</v>
+      </c>
+      <c r="B25" t="str">
+        <v>UPCL/189487/457.91</v>
+      </c>
+      <c r="C25" t="str">
+        <v>SBL/283721/302.49</v>
+      </c>
+      <c r="D25" t="str">
+        <v>SMJC/61037/545.44</v>
+      </c>
+      <c r="E25" t="str">
+        <v>SAHAS/58390/556.81</v>
+      </c>
+      <c r="F25" t="str">
+        <v>SHEL/105614/296.05</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>B34</v>
+      </c>
+      <c r="B26" t="str">
+        <v>SHPC/307591/628.22</v>
+      </c>
+      <c r="C26" t="str">
+        <v>SHL/74634/575.02</v>
+      </c>
+      <c r="D26" t="str">
+        <v>UMHL/64362/552.10</v>
+      </c>
+      <c r="E26" t="str">
+        <v>API/115906/302.38</v>
+      </c>
+      <c r="F26" t="str">
+        <v>RADHI/43190/817.72</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>B35</v>
+      </c>
+      <c r="B27" t="str">
+        <v>CGH/35995/948.77</v>
+      </c>
+      <c r="C27" t="str">
+        <v>AKPL/96945/277.41</v>
+      </c>
+      <c r="D27" t="str">
+        <v>SBL/76644/304.68</v>
+      </c>
+      <c r="E27" t="str">
+        <v>SHIVM/44493/516.20</v>
+      </c>
+      <c r="F27" t="str">
+        <v>BARUN/52169/381.15</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>B36</v>
+      </c>
+      <c r="B28" t="str">
+        <v>SBI/156133/411.16</v>
+      </c>
+      <c r="C28" t="str">
+        <v>SHPC/66452/627.04</v>
+      </c>
+      <c r="D28" t="str">
+        <v>SPDL/69839/427.87</v>
+      </c>
+      <c r="E28" t="str">
+        <v>RADHI/35447/824.75</v>
+      </c>
+      <c r="F28" t="str">
+        <v>GLH/61537/270.72</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>B37</v>
+      </c>
+      <c r="B29" t="str">
+        <v>SHL/14302/589.12</v>
+      </c>
+      <c r="C29" t="str">
+        <v>RIDI/20990/269.78</v>
+      </c>
+      <c r="D29" t="str">
+        <v>SINDU/6531/788.22</v>
+      </c>
+      <c r="E29" t="str">
+        <v>NUBL/6236/681.06</v>
+      </c>
+      <c r="F29" t="str">
+        <v>UPPER/20980/198.40</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>B38</v>
+      </c>
+      <c r="B30" t="str">
+        <v>BPCL/201806/728.79</v>
+      </c>
+      <c r="C30" t="str">
+        <v>UPCL/108152/454.15</v>
+      </c>
+      <c r="D30" t="str">
+        <v>MBJC/111932/338.69</v>
+      </c>
+      <c r="E30" t="str">
+        <v>HIDCL/89757/304.88</v>
+      </c>
+      <c r="F30" t="str">
+        <v>HEI/43051/575.36</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>B39</v>
+      </c>
+      <c r="B31" t="str">
+        <v>RADHI/457426/819.75</v>
+      </c>
+      <c r="C31" t="str">
+        <v>UNHPL/216108/432.12</v>
+      </c>
+      <c r="D31" t="str">
+        <v>UMHL/101136/535.50</v>
+      </c>
+      <c r="E31" t="str">
+        <v>HPPL/82684/559.41</v>
+      </c>
+      <c r="F31" t="str">
+        <v>SPDL/65475/428.06</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>B40</v>
+      </c>
+      <c r="B32" t="str">
+        <v>EBL/23136/642.46</v>
+      </c>
+      <c r="C32" t="str">
+        <v>NGPL/36208/404.73</v>
+      </c>
+      <c r="D32" t="str">
+        <v>SHIVM/26237/515.10</v>
+      </c>
+      <c r="E32" t="str">
+        <v>RADHI/14294/806.90</v>
+      </c>
+      <c r="F32" t="str">
+        <v>CIT/5064/1,895.20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>B41</v>
+      </c>
+      <c r="B33" t="str">
+        <v>SAPDBL/139648/1,055.99</v>
+      </c>
+      <c r="C33" t="str">
+        <v>RADHI/91533/816.00</v>
+      </c>
+      <c r="D33" t="str">
+        <v>DORDI/104310/342.15</v>
+      </c>
+      <c r="E33" t="str">
+        <v>PMHPL/62606/393.88</v>
+      </c>
+      <c r="F33" t="str">
+        <v>SHIVM/41701/513.24</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>B42</v>
+      </c>
+      <c r="B34" t="str">
+        <v>GBIME/423189/240.45</v>
+      </c>
+      <c r="C34" t="str">
+        <v>MERO/131865/739.83</v>
+      </c>
+      <c r="D34" t="str">
+        <v>SHIVM/115647/516.22</v>
+      </c>
+      <c r="E34" t="str">
+        <v>NRN/27125/2,017.73</v>
+      </c>
+      <c r="F34" t="str">
+        <v>HDL/25938/1,195.12</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>B43</v>
+      </c>
+      <c r="B35" t="str">
+        <v>SPDL/66766/432.05</v>
+      </c>
+      <c r="C35" t="str">
+        <v>NGPL/57026/407.46</v>
+      </c>
+      <c r="D35" t="str">
+        <v>KBL/118687/204.28</v>
+      </c>
+      <c r="E35" t="str">
+        <v>UPCL/43428/450.53</v>
+      </c>
+      <c r="F35" t="str">
+        <v>SKBBL/19897/792.50</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>B44</v>
+      </c>
+      <c r="B36" t="str">
+        <v>CHCL/211232/566.28</v>
+      </c>
+      <c r="C36" t="str">
+        <v>NIFRA/362444/281.10</v>
+      </c>
+      <c r="D36" t="str">
+        <v>SPDL/214851/432.18</v>
+      </c>
+      <c r="E36" t="str">
+        <v>UPCL/162182/454.67</v>
+      </c>
+      <c r="F36" t="str">
+        <v>NGPL/89656/403.82</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>B45</v>
+      </c>
+      <c r="B37" t="str">
+        <v>MEN/134407/617.47</v>
+      </c>
+      <c r="C37" t="str">
+        <v>SHL/88781/576.20</v>
+      </c>
+      <c r="D37" t="str">
+        <v>NGPL/104568/405.78</v>
+      </c>
+      <c r="E37" t="str">
+        <v>AHPC/95885/301.44</v>
+      </c>
+      <c r="F37" t="str">
+        <v>TAMOR/51940/533.59</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>B46</v>
+      </c>
+      <c r="B38" t="str">
+        <v>AHPC/57089/300.80</v>
+      </c>
+      <c r="C38" t="str">
+        <v>SHPC/20207/625.77</v>
+      </c>
+      <c r="D38" t="str">
+        <v>HRL/12759/914.69</v>
+      </c>
+      <c r="E38" t="str">
+        <v>NIFRA/39823/280.11</v>
+      </c>
+      <c r="F38" t="str">
+        <v>SHIVM/17098/517.24</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>B47</v>
+      </c>
+      <c r="B39" t="str">
+        <v>AKPL/165197/274.48</v>
+      </c>
+      <c r="C39" t="str">
+        <v>NGPL/79834/405.12</v>
+      </c>
+      <c r="D39" t="str">
+        <v>RIDI/103415/273.90</v>
+      </c>
+      <c r="E39" t="str">
+        <v>CHL/68719/321.54</v>
+      </c>
+      <c r="F39" t="str">
+        <v>CGH/17333/991.93</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>B48</v>
+      </c>
+      <c r="B40" t="str">
+        <v>GHL/352847/262.05</v>
+      </c>
+      <c r="C40" t="str">
+        <v>SHPC/113260/626.21</v>
+      </c>
+      <c r="D40" t="str">
+        <v>HIDCLP/237644/213.56</v>
+      </c>
+      <c r="E40" t="str">
+        <v>MEN/60801/624.09</v>
+      </c>
+      <c r="F40" t="str">
+        <v>HPPL/61537/561.51</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>B49</v>
+      </c>
+      <c r="B41" t="str">
+        <v>NGPL/72108/402.77</v>
+      </c>
+      <c r="C41" t="str">
+        <v>AHPC/92373/300.62</v>
+      </c>
+      <c r="D41" t="str">
+        <v>UPCL/56198/455.19</v>
+      </c>
+      <c r="E41" t="str">
+        <v>RIDI/102805/273.27</v>
+      </c>
+      <c r="F41" t="str">
+        <v>PRVU/121705/207.82</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>B50</v>
+      </c>
+      <c r="B42" t="str">
+        <v>RADHI/227082/819.33</v>
+      </c>
+      <c r="C42" t="str">
+        <v>SHL/47759/580.55</v>
+      </c>
+      <c r="D42" t="str">
+        <v>SHEL/86599/301.83</v>
+      </c>
+      <c r="E42" t="str">
+        <v>SBL/71650/307.37</v>
+      </c>
+      <c r="F42" t="str">
+        <v>MEN/34492/620.46</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>B51</v>
+      </c>
+      <c r="B43" t="str">
+        <v>HIDCLP/76154/216.08</v>
+      </c>
+      <c r="C43" t="str">
+        <v>RURU/21223/732.27</v>
+      </c>
+      <c r="D43" t="str">
+        <v>HDHPC/73854/202.22</v>
+      </c>
+      <c r="E43" t="str">
+        <v>BARUN/30694/373.86</v>
+      </c>
+      <c r="F43" t="str">
+        <v>NIFRA/40746/279.11</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>B52</v>
+      </c>
+      <c r="B44" t="str">
+        <v>SHPC/37459/620.76</v>
+      </c>
+      <c r="C44" t="str">
+        <v>HIDCLP/89873/216.81</v>
+      </c>
+      <c r="D44" t="str">
+        <v>SHIVM/33857/512.82</v>
+      </c>
+      <c r="E44" t="str">
+        <v>LBBL/29344/445.31</v>
+      </c>
+      <c r="F44" t="str">
+        <v>DORDI/39269/332.09</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>B53</v>
+      </c>
+      <c r="B45" t="str">
+        <v>SHPC/34762/623.14</v>
+      </c>
+      <c r="C45" t="str">
+        <v>MLBL/53071/387.37</v>
+      </c>
+      <c r="D45" t="str">
+        <v>KSBBL/30199/445.91</v>
+      </c>
+      <c r="E45" t="str">
+        <v>SHL/23032/573.51</v>
+      </c>
+      <c r="F45" t="str">
+        <v>SHIVM/23133/514.27</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>B54</v>
+      </c>
+      <c r="B46" t="str">
+        <v>UPCL/259443/461.59</v>
+      </c>
+      <c r="C46" t="str">
+        <v>STC/16904/4,993.84</v>
+      </c>
+      <c r="D46" t="str">
+        <v>CHCL/35337/566.00</v>
+      </c>
+      <c r="E46" t="str">
+        <v>SHEL/63532/305.89</v>
+      </c>
+      <c r="F46" t="str">
+        <v>CYCL/7690/1,632.19</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>B55</v>
+      </c>
+      <c r="B47" t="str">
+        <v>NMIC/99875/1,735.63</v>
+      </c>
+      <c r="C47" t="str">
+        <v>GMLI/47739/2,381.93</v>
+      </c>
+      <c r="D47" t="str">
+        <v>NRIC/65929/1,257.55</v>
+      </c>
+      <c r="E47" t="str">
+        <v>HRL/26677/918.25</v>
+      </c>
+      <c r="F47" t="str">
+        <v>SHL/40765/572.20</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>B56</v>
+      </c>
+      <c r="B48" t="str">
+        <v>BPCL/199974/786.76</v>
+      </c>
+      <c r="C48" t="str">
+        <v>CHDC/15107/2,588.55</v>
+      </c>
+      <c r="D48" t="str">
+        <v>SMHL/25850/1,017.39</v>
+      </c>
+      <c r="E48" t="str">
+        <v>SBL/83468/305.50</v>
+      </c>
+      <c r="F48" t="str">
+        <v>NGPL/56683/407.24</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>B57</v>
+      </c>
+      <c r="B49" t="str">
+        <v>UPCL/93295/458.47</v>
+      </c>
+      <c r="C49" t="str">
+        <v>CHCL/64283/568.47</v>
+      </c>
+      <c r="D49" t="str">
+        <v>AHPC/104104/299.31</v>
+      </c>
+      <c r="E49" t="str">
+        <v>NTC/28182/849.41</v>
+      </c>
+      <c r="F49" t="str">
+        <v>API/73280/303.20</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>B58</v>
+      </c>
+      <c r="B50" t="str">
+        <v>NRN/122888/2,034.46</v>
+      </c>
+      <c r="C50" t="str">
+        <v>HPPL/313031/562.01</v>
+      </c>
+      <c r="D50" t="str">
+        <v>HIDCLP/812797/219.26</v>
+      </c>
+      <c r="E50" t="str">
+        <v>SHPC/224064/619.03</v>
+      </c>
+      <c r="F50" t="str">
+        <v>SHL/98013/586.65</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>B59</v>
+      </c>
+      <c r="B51" t="str">
+        <v>SHEL/144757/303.44</v>
+      </c>
+      <c r="C51" t="str">
+        <v>API/122428/303.75</v>
+      </c>
+      <c r="D51" t="str">
+        <v>SAHAS/59370/568.20</v>
+      </c>
+      <c r="E51" t="str">
+        <v>RADHI/32099/813.48</v>
+      </c>
+      <c r="F51" t="str">
+        <v>SHIVM/43128/516.52</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>B60</v>
+      </c>
+      <c r="B52" t="str">
+        <v>BPCL/141079/782.89</v>
+      </c>
+      <c r="C52" t="str">
+        <v>SHPC/78926/640.39</v>
+      </c>
+      <c r="D52" t="str">
+        <v>RADHI/51693/819.50</v>
+      </c>
+      <c r="E52" t="str">
+        <v>HIDCLP/158913/216.26</v>
+      </c>
+      <c r="F52" t="str">
+        <v>RFPL/45847/591.48</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>B61</v>
+      </c>
+      <c r="B53" t="str">
+        <v>BPCL/60154/770.88</v>
+      </c>
+      <c r="C53" t="str">
+        <v>CHDC/8321/2,618.08</v>
+      </c>
+      <c r="D53" t="str">
+        <v>RADHI/7166/841.28</v>
+      </c>
+      <c r="E53" t="str">
+        <v>DORDI/26721/362.30</v>
+      </c>
+      <c r="F53" t="str">
+        <v>HIDCL/24229/309.51</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>B62</v>
+      </c>
+      <c r="B54" t="str">
+        <v>UNHPL/451369/414.21</v>
+      </c>
+      <c r="C54" t="str">
+        <v>UMHL/237812/527.32</v>
+      </c>
+      <c r="D54" t="str">
+        <v>SPDL/88817/429.55</v>
+      </c>
+      <c r="E54" t="str">
+        <v>KBL/84307/213.53</v>
+      </c>
+      <c r="F54" t="str">
+        <v>PPCL/49254/364.64</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>B63</v>
+      </c>
+      <c r="B55" t="str">
+        <v>RADHI/40069/821.95</v>
+      </c>
+      <c r="C55" t="str">
+        <v>UPCL/43582/443.82</v>
+      </c>
+      <c r="D55" t="str">
+        <v>CHCL/33548/559.89</v>
+      </c>
+      <c r="E55" t="str">
+        <v>SHEL/54736/296.32</v>
+      </c>
+      <c r="F55" t="str">
+        <v>OMPL/6650/1,685.16</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>B64</v>
+      </c>
+      <c r="B56" t="str">
+        <v>BPCL/498427/754.02</v>
+      </c>
+      <c r="C56" t="str">
+        <v>MERO/35698/736.48</v>
+      </c>
+      <c r="D56" t="str">
+        <v>AKPL/84144/279.25</v>
+      </c>
+      <c r="E56" t="str">
+        <v>HRL/18276/916.37</v>
+      </c>
+      <c r="F56" t="str">
+        <v>UNHPL/36403/419.74</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>B65</v>
+      </c>
+      <c r="B57" t="str">
+        <v>SPIL/50604/803.94</v>
+      </c>
+      <c r="C57" t="str">
+        <v>SANIMA/103757/320.14</v>
+      </c>
+      <c r="D57" t="str">
+        <v>SMHL/31565/1,016.27</v>
+      </c>
+      <c r="E57" t="str">
+        <v>HPPL/57197/557.89</v>
+      </c>
+      <c r="F57" t="str">
+        <v>RFPL/41767/608.44</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>B66</v>
+      </c>
+      <c r="B58" t="str">
+        <v>SHPC/96032/633.63</v>
+      </c>
+      <c r="C58" t="str">
+        <v>HRL/20647/919.08</v>
+      </c>
+      <c r="D58" t="str">
+        <v>BPCL/23906/751.34</v>
+      </c>
+      <c r="E58" t="str">
+        <v>HIDCL/46731/311.15</v>
+      </c>
+      <c r="F58" t="str">
+        <v>UNHPL/29853/427.20</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>B67</v>
+      </c>
+      <c r="B59" t="str">
+        <v>HIDCL/110837/305.80</v>
+      </c>
+      <c r="C59" t="str">
+        <v>RADHI/43563/806.21</v>
+      </c>
+      <c r="D59" t="str">
+        <v>BPCL/35174/810.00</v>
+      </c>
+      <c r="E59" t="str">
+        <v>UMHL/56434/518.14</v>
+      </c>
+      <c r="F59" t="str">
+        <v>MEN/43676/622.62</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>B68</v>
+      </c>
+      <c r="B60" t="str">
+        <v>UPCL/123868/450.39</v>
+      </c>
+      <c r="C60" t="str">
+        <v>HIDCLP/244948/213.19</v>
+      </c>
+      <c r="D60" t="str">
+        <v>SHPC/22179/627.21</v>
+      </c>
+      <c r="E60" t="str">
+        <v>CGH/13364/1,011.93</v>
+      </c>
+      <c r="F60" t="str">
+        <v>RIDI/42704/272.82</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>B69</v>
+      </c>
+      <c r="B61" t="str">
+        <v>BPCL/201771/778.65</v>
+      </c>
+      <c r="C61" t="str">
+        <v>SHL/99104/582.20</v>
+      </c>
+      <c r="D61" t="str">
+        <v>SPDL/67901/430.40</v>
+      </c>
+      <c r="E61" t="str">
+        <v>PPCL/51217/373.50</v>
+      </c>
+      <c r="F61" t="str">
+        <v>SAHAS/25280/568.66</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>B70</v>
+      </c>
+      <c r="B62" t="str">
+        <v>UNHPL/127476/420.95</v>
+      </c>
+      <c r="C62" t="str">
+        <v>UPCL/52212/449.91</v>
+      </c>
+      <c r="D62" t="str">
+        <v>GLBSL/8994/2,254.06</v>
+      </c>
+      <c r="E62" t="str">
+        <v>HIDCLP/71940/216.81</v>
+      </c>
+      <c r="F62" t="str">
+        <v>KBL/50575/210.93</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>B71</v>
+      </c>
+      <c r="B63" t="str">
+        <v>RADHI/32135/818.30</v>
+      </c>
+      <c r="C63" t="str">
+        <v>UPCL/52077/451.01</v>
+      </c>
+      <c r="D63" t="str">
+        <v>CHDC/7486/2,595.67</v>
+      </c>
+      <c r="E63" t="str">
+        <v>HIDCL/61369/309.26</v>
+      </c>
+      <c r="F63" t="str">
+        <v>DORDI/36359/344.97</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>B72</v>
+      </c>
+      <c r="B64" t="str">
+        <v>RADHI/113840/813.01</v>
+      </c>
+      <c r="C64" t="str">
+        <v>KBL/59183/206.80</v>
+      </c>
+      <c r="D64" t="str">
+        <v>SHPC/18485/620.63</v>
+      </c>
+      <c r="E64" t="str">
+        <v>AHPC/21333/300.04</v>
+      </c>
+      <c r="F64" t="str">
+        <v>DORDI/11365/372.93</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>B73</v>
+      </c>
+      <c r="B65" t="str">
+        <v>NRM/1200/443.65</v>
+      </c>
+      <c r="C65" t="str">
+        <v>BHL/1760/210.74</v>
+      </c>
+      <c r="D65" t="str">
+        <v>NICA/1000/343.00</v>
+      </c>
+      <c r="E65" t="str">
+        <v>NGPL/800/398.21</v>
+      </c>
+      <c r="F65" t="str">
+        <v>CHDC/82/2,712.71</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>B74</v>
+      </c>
+      <c r="B66" t="str">
+        <v>RADHI/54730/832.27</v>
+      </c>
+      <c r="C66" t="str">
+        <v>SAPDBL/23814/1,027.80</v>
+      </c>
+      <c r="D66" t="str">
+        <v>SKBBL/18810/797.19</v>
+      </c>
+      <c r="E66" t="str">
+        <v>UNHPL/33741/413.96</v>
+      </c>
+      <c r="F66" t="str">
+        <v>CHCL/29932/532.69</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>B75</v>
+      </c>
+      <c r="B67" t="str">
+        <v>CGH/33654/996.31</v>
+      </c>
+      <c r="C67" t="str">
+        <v>SAHAS/50956/573.74</v>
+      </c>
+      <c r="D67" t="str">
+        <v>HIDCLP/76126/221.36</v>
+      </c>
+      <c r="E67" t="str">
+        <v>BPCL/22865/765.06</v>
+      </c>
+      <c r="F67" t="str">
+        <v>UPCL/33733/456.99</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>B76</v>
+      </c>
+      <c r="B68" t="str">
+        <v>BPCL/114043/769.97</v>
+      </c>
+      <c r="C68" t="str">
+        <v>SAHAS/29151/593.99</v>
+      </c>
+      <c r="D68" t="str">
+        <v>SHIVM/19712/515.99</v>
+      </c>
+      <c r="E68" t="str">
+        <v>HIDCL/9220/313.87</v>
+      </c>
+      <c r="F68" t="str">
+        <v>AHPC/8481/300.34</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>B77</v>
+      </c>
+      <c r="B69" t="str">
+        <v>BPCL/233610/728.03</v>
+      </c>
+      <c r="C69" t="str">
+        <v>NGPL/327204/411.18</v>
+      </c>
+      <c r="D69" t="str">
+        <v>HIDCLP/104826/218.52</v>
+      </c>
+      <c r="E69" t="str">
+        <v>DORDI/68056/342.47</v>
+      </c>
+      <c r="F69" t="str">
+        <v>NRN/7629/2,040.53</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>B78</v>
+      </c>
+      <c r="B70" t="str">
+        <v>RADHI/11327/795.96</v>
+      </c>
+      <c r="C70" t="str">
+        <v>NGPL/20426/405.87</v>
+      </c>
+      <c r="D70" t="str">
+        <v>CHDC/2159/2,627.86</v>
+      </c>
+      <c r="E70" t="str">
+        <v>HIDCLP/21268/221.14</v>
+      </c>
+      <c r="F70" t="str">
+        <v>SINDU/5620/801.21</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>B79</v>
+      </c>
+      <c r="B71" t="str">
+        <v>SMPDA/1414/927.99</v>
+      </c>
+      <c r="C71" t="str">
+        <v>AKPL/4096/270.06</v>
+      </c>
+      <c r="D71" t="str">
+        <v>SHIVM/1699/519.54</v>
+      </c>
+      <c r="E71" t="str">
+        <v>SSHL/3000/254.50</v>
+      </c>
+      <c r="F71" t="str">
+        <v>NGPL/1760/398.94</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>B80</v>
+      </c>
+      <c r="B72" t="str">
+        <v>RADHI/28327/804.31</v>
+      </c>
+      <c r="C72" t="str">
+        <v>NIFRA/53707/287.82</v>
+      </c>
+      <c r="D72" t="str">
+        <v>MEN/27803/593.97</v>
+      </c>
+      <c r="E72" t="str">
+        <v>CGH/13231/991.59</v>
+      </c>
+      <c r="F72" t="str">
+        <v>BPCL/14145/765.81</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>B81</v>
+      </c>
+      <c r="B73" t="str">
+        <v>CHCL/221224/559.81</v>
+      </c>
+      <c r="C73" t="str">
+        <v>SHPC/64683/618.82</v>
+      </c>
+      <c r="D73" t="str">
+        <v>BPCL/43625/803.71</v>
+      </c>
+      <c r="E73" t="str">
+        <v>HRL/25388/925.86</v>
+      </c>
+      <c r="F73" t="str">
+        <v>SHEL/67368/306.39</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>B82</v>
+      </c>
+      <c r="B74" t="str">
+        <v>RADHI/22577/817.24</v>
+      </c>
+      <c r="C74" t="str">
+        <v>BPCL/19336/734.87</v>
+      </c>
+      <c r="D74" t="str">
+        <v>OHL/12835/902.60</v>
+      </c>
+      <c r="E74" t="str">
+        <v>NGPL/21452/410.78</v>
+      </c>
+      <c r="F74" t="str">
+        <v>CGH/9548/982.98</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>B83</v>
+      </c>
+      <c r="B75" t="str">
+        <v>BPCL/28081/817.56</v>
+      </c>
+      <c r="C75" t="str">
+        <v>HRL/18040/920.82</v>
+      </c>
+      <c r="D75" t="str">
+        <v>NGPL/31582/405.80</v>
+      </c>
+      <c r="E75" t="str">
+        <v>PMHPL/28410/382.11</v>
+      </c>
+      <c r="F75" t="str">
+        <v>TAMOR/13527/533.01</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>B84</v>
+      </c>
+      <c r="B76" t="str">
+        <v>UPCL/154749/442.39</v>
+      </c>
+      <c r="C76" t="str">
+        <v>MKHL/82422/738.08</v>
+      </c>
+      <c r="D76" t="str">
+        <v>BPCL/74690/768.70</v>
+      </c>
+      <c r="E76" t="str">
+        <v>NGPL/140415/403.55</v>
+      </c>
+      <c r="F76" t="str">
+        <v>HIDCL/67087/309.78</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>B85</v>
+      </c>
+      <c r="B77" t="str">
+        <v>AHPC/87982/299.59</v>
+      </c>
+      <c r="C77" t="str">
+        <v>API/82070/302.74</v>
+      </c>
+      <c r="D77" t="str">
+        <v>SPDL/42164/425.66</v>
+      </c>
+      <c r="E77" t="str">
+        <v>SHL/28995/583.96</v>
+      </c>
+      <c r="F77" t="str">
+        <v>SAHAS/24701/545.94</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>B86</v>
+      </c>
+      <c r="B78" t="str">
+        <v>RADHI/20135/823.01</v>
+      </c>
+      <c r="C78" t="str">
+        <v>SHPC/23281/632.06</v>
+      </c>
+      <c r="D78" t="str">
+        <v>PPCL/26529/378.79</v>
+      </c>
+      <c r="E78" t="str">
+        <v>AKPL/27723/274.96</v>
+      </c>
+      <c r="F78" t="str">
+        <v>SAHAS/11609/574.69</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>B87</v>
+      </c>
+      <c r="B79" t="str">
+        <v>BPCL/92237/817.26</v>
+      </c>
+      <c r="C79" t="str">
+        <v>GCIL/27424/509.13</v>
+      </c>
+      <c r="D79" t="str">
+        <v>PMHPL/30900/404.11</v>
+      </c>
+      <c r="E79" t="str">
+        <v>ULBSL/2372/3,241.46</v>
+      </c>
+      <c r="F79" t="str">
+        <v>SHEL/18493/305.60</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>B88</v>
+      </c>
+      <c r="B80" t="str">
+        <v>SAPDBL/56658/1,056.83</v>
+      </c>
+      <c r="C80" t="str">
+        <v>PMHPL/142862/399.59</v>
+      </c>
+      <c r="D80" t="str">
+        <v>RADHI/33231/816.65</v>
+      </c>
+      <c r="E80" t="str">
+        <v>CHCL/42138/560.58</v>
+      </c>
+      <c r="F80" t="str">
+        <v>NHPC/76378/221.73</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>B89</v>
+      </c>
+      <c r="B81" t="str">
+        <v>RADHI/28634/800.80</v>
+      </c>
+      <c r="C81" t="str">
+        <v>UNHPL/35522/430.39</v>
+      </c>
+      <c r="D81" t="str">
+        <v>SHPC/19936/612.30</v>
+      </c>
+      <c r="E81" t="str">
+        <v>BPCL/12401/762.18</v>
+      </c>
+      <c r="F81" t="str">
+        <v>CGH/7331/982.35</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>B90</v>
+      </c>
+      <c r="B82" t="str">
+        <v>API/73996/307.68</v>
+      </c>
+      <c r="C82" t="str">
+        <v>SHPC/13946/625.26</v>
+      </c>
+      <c r="D82" t="str">
+        <v>EBL/11046/649.96</v>
+      </c>
+      <c r="E82" t="str">
+        <v>HBL/19932/222.39</v>
+      </c>
+      <c r="F82" t="str">
+        <v>LEC/18980/225.38</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>B91</v>
+      </c>
+      <c r="B83" t="str">
+        <v>SHPC/58540/615.57</v>
+      </c>
+      <c r="C83" t="str">
+        <v>DORDI/75522/346.06</v>
+      </c>
+      <c r="D83" t="str">
+        <v>RADHI/21993/814.05</v>
+      </c>
+      <c r="E83" t="str">
+        <v>CGH/16106/990.59</v>
+      </c>
+      <c r="F83" t="str">
+        <v>SARBTM/16794/840.50</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>B92</v>
+      </c>
+      <c r="B84" t="str">
+        <v>UPCL/60268/444.27</v>
+      </c>
+      <c r="C84" t="str">
+        <v>HRL/18015/898.96</v>
+      </c>
+      <c r="D84" t="str">
+        <v>HIDCL/50232/302.59</v>
+      </c>
+      <c r="E84" t="str">
+        <v>BPCL/19477/737.79</v>
+      </c>
+      <c r="F84" t="str">
+        <v>NGPL/28043/396.70</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>B93</v>
+      </c>
+      <c r="B85" t="str">
+        <v>AKPL/23400/287.53</v>
+      </c>
+      <c r="C85" t="str">
+        <v>DORDI/10459/353.96</v>
+      </c>
+      <c r="D85" t="str">
+        <v>LEC/14770/224.11</v>
+      </c>
+      <c r="E85" t="str">
+        <v>CHCL/6000/548.52</v>
+      </c>
+      <c r="F85" t="str">
+        <v>MBJC/7820/338.12</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>B94</v>
+      </c>
+      <c r="B86" t="str">
+        <v>BPCL/109482/775.28</v>
+      </c>
+      <c r="C86" t="str">
+        <v>NGPL/81585/399.22</v>
+      </c>
+      <c r="D86" t="str">
+        <v>SHEL/76902/302.04</v>
+      </c>
+      <c r="E86" t="str">
+        <v>PMHPL/54528/416.26</v>
+      </c>
+      <c r="F86" t="str">
+        <v>SAHAS/36868/591.66</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>B95</v>
+      </c>
+      <c r="B87" t="str">
+        <v>RADHI/29553/830.18</v>
+      </c>
+      <c r="C87" t="str">
+        <v>SHPC/27518/620.88</v>
+      </c>
+      <c r="D87" t="str">
+        <v>NGPL/39344/405.07</v>
+      </c>
+      <c r="E87" t="str">
+        <v>HPPL/14433/555.84</v>
+      </c>
+      <c r="F87" t="str">
+        <v>NRN/3754/2,061.14</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>B96</v>
+      </c>
+      <c r="B88" t="str">
+        <v>NRN/55667/2,032.52</v>
+      </c>
+      <c r="C88" t="str">
+        <v>RADHI/79562/820.69</v>
+      </c>
+      <c r="D88" t="str">
+        <v>BPCL/23730/783.99</v>
+      </c>
+      <c r="E88" t="str">
+        <v>SAHAS/28476/595.89</v>
+      </c>
+      <c r="F88" t="str">
+        <v>NGPL/25130/412.36</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>B97</v>
+      </c>
+      <c r="B89" t="str">
+        <v>SPDL/25072/417.70</v>
+      </c>
+      <c r="C89" t="str">
+        <v>GHL/33950/257.40</v>
+      </c>
+      <c r="D89" t="str">
+        <v>UNHPL/19913/426.57</v>
+      </c>
+      <c r="E89" t="str">
+        <v>CHCL/13730/545.32</v>
+      </c>
+      <c r="F89" t="str">
+        <v>SHEL/22220/307.44</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>B98</v>
+      </c>
+      <c r="B90" t="str">
+        <v>OMPL/9465/1,775.01</v>
+      </c>
+      <c r="C90" t="str">
+        <v>UPCL/24356/443.97</v>
+      </c>
+      <c r="D90" t="str">
+        <v>SCB/15312/611.50</v>
+      </c>
+      <c r="E90" t="str">
+        <v>UNHPL/21705/423.08</v>
+      </c>
+      <c r="F90" t="str">
+        <v>SAHAS/12274/593.12</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>B99</v>
+      </c>
+      <c r="B91" t="str">
+        <v>BARUN/69518/390.07</v>
+      </c>
+      <c r="C91" t="str">
+        <v>SHEL/48221/303.48</v>
+      </c>
+      <c r="D91" t="str">
+        <v>BPCL/16745/727.71</v>
+      </c>
+      <c r="E91" t="str">
+        <v>CHDC/2892/2,656.78</v>
+      </c>
+      <c r="F91" t="str">
+        <v>CGH/7127/987.72</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>B100</v>
+      </c>
+      <c r="B92" t="str">
+        <v>MLBL/144707/388.12</v>
+      </c>
+      <c r="C92" t="str">
+        <v>API/125825/297.02</v>
+      </c>
+      <c r="D92" t="str">
+        <v>KSBBL/72012/448.48</v>
+      </c>
+      <c r="E92" t="str">
+        <v>BPCL/27694/787.02</v>
+      </c>
+      <c r="F92" t="str">
+        <v>NGPL/50550/397.18</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>B101</v>
+      </c>
+      <c r="B93" t="str">
+        <v>NGPL/60022/408.38</v>
+      </c>
+      <c r="C93" t="str">
+        <v>RADHI/18296/810.84</v>
+      </c>
+      <c r="D93" t="str">
+        <v>AKPL/36500/276.55</v>
+      </c>
+      <c r="E93" t="str">
+        <v>HIDCLP/35689/218.05</v>
+      </c>
+      <c r="F93" t="str">
+        <v>CHDC/2035/2,645.33</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F93"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/Broker_Analysis.xlsx
+++ b/Broker_Analysis.xlsx
@@ -420,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -444,18 +444,1850 @@
       <c r="F1" t="str">
         <v>Top 5</v>
       </c>
-      <c r="G1" t="str">
-        <v/>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Loading... Please wait</v>
+        <v>B1</v>
+      </c>
+      <c r="B2" t="str">
+        <v>CHDC/17562/2,616.52</v>
+      </c>
+      <c r="C2" t="str">
+        <v>RADHI/44363/823.08</v>
+      </c>
+      <c r="D2" t="str">
+        <v>NIFRA/86351/281.68</v>
+      </c>
+      <c r="E2" t="str">
+        <v>EBL/26309/649.05</v>
+      </c>
+      <c r="F2" t="str">
+        <v>NRN/7099/2,023.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>B3</v>
+      </c>
+      <c r="B3" t="str">
+        <v>HIDCLP/37841/216.21</v>
+      </c>
+      <c r="C3" t="str">
+        <v>UPCL/17784/447.62</v>
+      </c>
+      <c r="D3" t="str">
+        <v>PRVU/31896/206.87</v>
+      </c>
+      <c r="E3" t="str">
+        <v>NGPL/16660/400.16</v>
+      </c>
+      <c r="F3" t="str">
+        <v>BHDC/13275/468.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>B4</v>
+      </c>
+      <c r="B4" t="str">
+        <v>SARBTM/77622/837.04</v>
+      </c>
+      <c r="C4" t="str">
+        <v>GMFIL/85881/487.55</v>
+      </c>
+      <c r="D4" t="str">
+        <v>UMRH/44895/609.96</v>
+      </c>
+      <c r="E4" t="str">
+        <v>SBL/86255/307.96</v>
+      </c>
+      <c r="F4" t="str">
+        <v>HRL/22121/912.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>B5</v>
+      </c>
+      <c r="B5" t="str">
+        <v>CHDC/6265/2,604.94</v>
+      </c>
+      <c r="C5" t="str">
+        <v>HURJA/35231/264.58</v>
+      </c>
+      <c r="D5" t="str">
+        <v>OMPL/3727/1,649.34</v>
+      </c>
+      <c r="E5" t="str">
+        <v>BARUN/17151/377.95</v>
+      </c>
+      <c r="F5" t="str">
+        <v>CGH/5965/924.53</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>B6</v>
+      </c>
+      <c r="B6" t="str">
+        <v>NRIC/194910/1,287.29</v>
+      </c>
+      <c r="C6" t="str">
+        <v>UPCL/157419/452.89</v>
+      </c>
+      <c r="D6" t="str">
+        <v>SHPC/82136/625.29</v>
+      </c>
+      <c r="E6" t="str">
+        <v>RIDI/163346/278.31</v>
+      </c>
+      <c r="F6" t="str">
+        <v>RHPL/49480/398.07</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>B7</v>
+      </c>
+      <c r="B7" t="str">
+        <v>SHPC/39770/624.51</v>
+      </c>
+      <c r="C7" t="str">
+        <v>NABIL/33491/490.28</v>
+      </c>
+      <c r="D7" t="str">
+        <v>RADHI/16125/827.78</v>
+      </c>
+      <c r="E7" t="str">
+        <v>SIFC/16573/572.13</v>
+      </c>
+      <c r="F7" t="str">
+        <v>RHPL/22059/407.79</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>B8</v>
+      </c>
+      <c r="B8" t="str">
+        <v>NGPL/445844/410.19</v>
+      </c>
+      <c r="C8" t="str">
+        <v>NABBC/19091/1,600.95</v>
+      </c>
+      <c r="D8" t="str">
+        <v>SAHAS/32130/564.71</v>
+      </c>
+      <c r="E8" t="str">
+        <v>CHDC/6103/2,550.01</v>
+      </c>
+      <c r="F8" t="str">
+        <v>KSBBL/30197/453.41</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>B10</v>
+      </c>
+      <c r="B9" t="str">
+        <v>HDL/16345/1,193.53</v>
+      </c>
+      <c r="C9" t="str">
+        <v>SHPC/28140/639.60</v>
+      </c>
+      <c r="D9" t="str">
+        <v>HRL/16725/904.11</v>
+      </c>
+      <c r="E9" t="str">
+        <v>HIDCLP/52700/215.74</v>
+      </c>
+      <c r="F9" t="str">
+        <v>NIL/12147/676.38</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>B11</v>
+      </c>
+      <c r="B10" t="str">
+        <v>ILI/18404/439.11</v>
+      </c>
+      <c r="C10" t="str">
+        <v>RHPL/16713/403.93</v>
+      </c>
+      <c r="D10" t="str">
+        <v>SONA/14730/456.95</v>
+      </c>
+      <c r="E10" t="str">
+        <v>UPCL/15462/441.26</v>
+      </c>
+      <c r="F10" t="str">
+        <v>SINDU/6969/799.44</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>B13</v>
+      </c>
+      <c r="B11" t="str">
+        <v>BARUN/29630/385.21</v>
+      </c>
+      <c r="C11" t="str">
+        <v>UMHL/15005/530.26</v>
+      </c>
+      <c r="D11" t="str">
+        <v>SPDL/18655/416.67</v>
+      </c>
+      <c r="E11" t="str">
+        <v>BHL/35580/211.33</v>
+      </c>
+      <c r="F11" t="str">
+        <v>GHL/26415/254.47</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>B14</v>
+      </c>
+      <c r="B12" t="str">
+        <v>CGH/71779/958.80</v>
+      </c>
+      <c r="C12" t="str">
+        <v>CHCL/65731/569.55</v>
+      </c>
+      <c r="D12" t="str">
+        <v>HRL/35684/919.62</v>
+      </c>
+      <c r="E12" t="str">
+        <v>SHEL/79778/301.25</v>
+      </c>
+      <c r="F12" t="str">
+        <v>NIMBPO/135183/159.46</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>B16</v>
+      </c>
+      <c r="B13" t="str">
+        <v>CHDC/57425/2,640.19</v>
+      </c>
+      <c r="C13" t="str">
+        <v>RADHI/121939/827.73</v>
+      </c>
+      <c r="D13" t="str">
+        <v>SHL/108535/569.17</v>
+      </c>
+      <c r="E13" t="str">
+        <v>NGPL/76312/406.07</v>
+      </c>
+      <c r="F13" t="str">
+        <v>SMJC/49744/538.78</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>B17</v>
+      </c>
+      <c r="B14" t="str">
+        <v>NGPL/688556/406.72</v>
+      </c>
+      <c r="C14" t="str">
+        <v>HIDCLP/770032/215.94</v>
+      </c>
+      <c r="D14" t="str">
+        <v>HIDCL/221805/310.22</v>
+      </c>
+      <c r="E14" t="str">
+        <v>CHDC/21877/2,607.59</v>
+      </c>
+      <c r="F14" t="str">
+        <v>SANIMA/158641/316.02</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>B18</v>
+      </c>
+      <c r="B15" t="str">
+        <v>NGPL/78715/397.96</v>
+      </c>
+      <c r="C15" t="str">
+        <v>LICN/27416/906.65</v>
+      </c>
+      <c r="D15" t="str">
+        <v>SPIL/23499/814.90</v>
+      </c>
+      <c r="E15" t="str">
+        <v>NLICL/19312/608.09</v>
+      </c>
+      <c r="F15" t="str">
+        <v>NRN/4481/2,038.37</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>B19</v>
+      </c>
+      <c r="B16" t="str">
+        <v>SPDL/120879/424.84</v>
+      </c>
+      <c r="C16" t="str">
+        <v>CHDC/14589/2,642.82</v>
+      </c>
+      <c r="D16" t="str">
+        <v>SAPDBL/16890/1,010.37</v>
+      </c>
+      <c r="E16" t="str">
+        <v>OMPL/6392/1,642.80</v>
+      </c>
+      <c r="F16" t="str">
+        <v>NLG/12656/772.87</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>B20</v>
+      </c>
+      <c r="B17" t="str">
+        <v>HRL/25879/919.83</v>
+      </c>
+      <c r="C17" t="str">
+        <v>SHIVM/36857/519.23</v>
+      </c>
+      <c r="D17" t="str">
+        <v>RADHI/23102/817.59</v>
+      </c>
+      <c r="E17" t="str">
+        <v>NRIC/14515/1,266.16</v>
+      </c>
+      <c r="F17" t="str">
+        <v>SHPC/30297/618.18</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>B21</v>
+      </c>
+      <c r="B18" t="str">
+        <v>SHPC/50427/621.40</v>
+      </c>
+      <c r="C18" t="str">
+        <v>UPCL/61558/453.56</v>
+      </c>
+      <c r="D18" t="str">
+        <v>SHIVM/50671/517.18</v>
+      </c>
+      <c r="E18" t="str">
+        <v>HIDCL/84837/302.69</v>
+      </c>
+      <c r="F18" t="str">
+        <v>SMHL/22487/1,034.01</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>B22</v>
+      </c>
+      <c r="B19" t="str">
+        <v>UPCL/93285/463.78</v>
+      </c>
+      <c r="C19" t="str">
+        <v>KPCL/42076/558.37</v>
+      </c>
+      <c r="D19" t="str">
+        <v>GHL/70254/260.68</v>
+      </c>
+      <c r="E19" t="str">
+        <v>RHPL/32676/394.94</v>
+      </c>
+      <c r="F19" t="str">
+        <v>LBBL/20122/444.17</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>B25</v>
+      </c>
+      <c r="B20" t="str">
+        <v>NGPL/63553/410.73</v>
+      </c>
+      <c r="C20" t="str">
+        <v>NRN/10075/2,044.51</v>
+      </c>
+      <c r="D20" t="str">
+        <v>HIDCL/53284/309.08</v>
+      </c>
+      <c r="E20" t="str">
+        <v>SAHAS/16694/574.48</v>
+      </c>
+      <c r="F20" t="str">
+        <v>OMPL/6669/1,588.32</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>B26</v>
+      </c>
+      <c r="B21" t="str">
+        <v>RADHI/113826/817.21</v>
+      </c>
+      <c r="C21" t="str">
+        <v>GHL/82444/256.86</v>
+      </c>
+      <c r="D21" t="str">
+        <v>NLIC/25215/746.76</v>
+      </c>
+      <c r="E21" t="str">
+        <v>LBBL/38861/449.32</v>
+      </c>
+      <c r="F21" t="str">
+        <v>UPCL/34722/451.38</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>B28</v>
+      </c>
+      <c r="B22" t="str">
+        <v>SAHAS/137646/565.21</v>
+      </c>
+      <c r="C22" t="str">
+        <v>BPCL/95710/760.01</v>
+      </c>
+      <c r="D22" t="str">
+        <v>SHEL/204741/295.29</v>
+      </c>
+      <c r="E22" t="str">
+        <v>SHPC/92407/634.72</v>
+      </c>
+      <c r="F22" t="str">
+        <v>GBIME/159600/238.31</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>B29</v>
+      </c>
+      <c r="B23" t="str">
+        <v>GRDBL/19036/1,286.59</v>
+      </c>
+      <c r="C23" t="str">
+        <v>AKPL/86481/276.73</v>
+      </c>
+      <c r="D23" t="str">
+        <v>NRIC/11360/1,236.27</v>
+      </c>
+      <c r="E23" t="str">
+        <v>BHDC/24040/474.16</v>
+      </c>
+      <c r="F23" t="str">
+        <v>SINDU/10839/817.34</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>B32</v>
+      </c>
+      <c r="B24" t="str">
+        <v>NRN/37353/2,039.15</v>
+      </c>
+      <c r="C24" t="str">
+        <v>CGH/22885/986.34</v>
+      </c>
+      <c r="D24" t="str">
+        <v>AKJCL/102980/212.59</v>
+      </c>
+      <c r="E24" t="str">
+        <v>PRIN/24076/839.26</v>
+      </c>
+      <c r="F24" t="str">
+        <v>RIDI/73505/273.76</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>B33</v>
+      </c>
+      <c r="B25" t="str">
+        <v>SBL/292371/302.75</v>
+      </c>
+      <c r="C25" t="str">
+        <v>UPCL/179593/457.63</v>
+      </c>
+      <c r="D25" t="str">
+        <v>SMJC/60187/545.40</v>
+      </c>
+      <c r="E25" t="str">
+        <v>SHEL/111874/295.90</v>
+      </c>
+      <c r="F25" t="str">
+        <v>CHCL/25298/569.54</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>B34</v>
+      </c>
+      <c r="B26" t="str">
+        <v>SHPC/333126/627.25</v>
+      </c>
+      <c r="C26" t="str">
+        <v>SHL/80493/574.43</v>
+      </c>
+      <c r="D26" t="str">
+        <v>API/120912/302.12</v>
+      </c>
+      <c r="E26" t="str">
+        <v>UMHL/63942/552.10</v>
+      </c>
+      <c r="F26" t="str">
+        <v>RADHI/43909/817.40</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>B35</v>
+      </c>
+      <c r="B27" t="str">
+        <v>CGH/36017/948.79</v>
+      </c>
+      <c r="C27" t="str">
+        <v>BARUN/75666/384.46</v>
+      </c>
+      <c r="D27" t="str">
+        <v>AKPL/81896/277.15</v>
+      </c>
+      <c r="E27" t="str">
+        <v>SHIVM/45572/515.82</v>
+      </c>
+      <c r="F27" t="str">
+        <v>SBL/75707/305.51</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>B36</v>
+      </c>
+      <c r="B28" t="str">
+        <v>SBI/156818/411.10</v>
+      </c>
+      <c r="C28" t="str">
+        <v>SHPC/67882/626.77</v>
+      </c>
+      <c r="D28" t="str">
+        <v>SPDL/70689/427.80</v>
+      </c>
+      <c r="E28" t="str">
+        <v>RADHI/32847/824.70</v>
+      </c>
+      <c r="F28" t="str">
+        <v>BARUN/46809/384.55</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>B37</v>
+      </c>
+      <c r="B29" t="str">
+        <v>SHL/14202/589.12</v>
+      </c>
+      <c r="C29" t="str">
+        <v>RIDI/23990/268.92</v>
+      </c>
+      <c r="D29" t="str">
+        <v>SINDU/6575/788.90</v>
+      </c>
+      <c r="E29" t="str">
+        <v>UPPER/20980/198.40</v>
+      </c>
+      <c r="F29" t="str">
+        <v>EBL/6257/649.42</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>B38</v>
+      </c>
+      <c r="B30" t="str">
+        <v>BPCL/217702/732.05</v>
+      </c>
+      <c r="C30" t="str">
+        <v>UPCL/107913/453.95</v>
+      </c>
+      <c r="D30" t="str">
+        <v>MBJC/100672/338.61</v>
+      </c>
+      <c r="E30" t="str">
+        <v>HIDCL/81824/304.68</v>
+      </c>
+      <c r="F30" t="str">
+        <v>HEI/43071/575.35</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>B39</v>
+      </c>
+      <c r="B31" t="str">
+        <v>RADHI/490379/818.23</v>
+      </c>
+      <c r="C31" t="str">
+        <v>UNHPL/208970/432.78</v>
+      </c>
+      <c r="D31" t="str">
+        <v>UMHL/100537/535.69</v>
+      </c>
+      <c r="E31" t="str">
+        <v>HPPL/81534/559.17</v>
+      </c>
+      <c r="F31" t="str">
+        <v>SPDL/64998/427.27</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>B40</v>
+      </c>
+      <c r="B32" t="str">
+        <v>EBL/23136/642.46</v>
+      </c>
+      <c r="C32" t="str">
+        <v>NGPL/36188/404.67</v>
+      </c>
+      <c r="D32" t="str">
+        <v>SHIVM/27783/514.66</v>
+      </c>
+      <c r="E32" t="str">
+        <v>RADHI/14680/806.39</v>
+      </c>
+      <c r="F32" t="str">
+        <v>CIT/5064/1,895.20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>B41</v>
+      </c>
+      <c r="B33" t="str">
+        <v>SAPDBL/167237/1,062.02</v>
+      </c>
+      <c r="C33" t="str">
+        <v>RADHI/91709/815.95</v>
+      </c>
+      <c r="D33" t="str">
+        <v>DORDI/105675/341.49</v>
+      </c>
+      <c r="E33" t="str">
+        <v>SHIVM/48676/512.66</v>
+      </c>
+      <c r="F33" t="str">
+        <v>PMHPL/47534/394.06</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>B42</v>
+      </c>
+      <c r="B34" t="str">
+        <v>MERO/140311/740.77</v>
+      </c>
+      <c r="C34" t="str">
+        <v>GBIME/422226/240.43</v>
+      </c>
+      <c r="D34" t="str">
+        <v>SHIVM/107909/516.11</v>
+      </c>
+      <c r="E34" t="str">
+        <v>NRN/23286/2,017.84</v>
+      </c>
+      <c r="F34" t="str">
+        <v>HDL/25551/1,195.02</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>B43</v>
+      </c>
+      <c r="B35" t="str">
+        <v>SPDL/67791/431.91</v>
+      </c>
+      <c r="C35" t="str">
+        <v>NGPL/56116/407.27</v>
+      </c>
+      <c r="D35" t="str">
+        <v>KBL/117761/204.30</v>
+      </c>
+      <c r="E35" t="str">
+        <v>UPCL/37740/449.78</v>
+      </c>
+      <c r="F35" t="str">
+        <v>SKBBL/19897/792.50</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>B44</v>
+      </c>
+      <c r="B36" t="str">
+        <v>CHCL/218289/566.08</v>
+      </c>
+      <c r="C36" t="str">
+        <v>NIFRA/380454/280.63</v>
+      </c>
+      <c r="D36" t="str">
+        <v>SPDL/228661/431.31</v>
+      </c>
+      <c r="E36" t="str">
+        <v>UPCL/148141/454.21</v>
+      </c>
+      <c r="F36" t="str">
+        <v>SHIVM/90683/510.84</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>B45</v>
+      </c>
+      <c r="B37" t="str">
+        <v>MEN/135092/617.45</v>
+      </c>
+      <c r="C37" t="str">
+        <v>SHL/90267/576.07</v>
+      </c>
+      <c r="D37" t="str">
+        <v>AHPC/99189/300.97</v>
+      </c>
+      <c r="E37" t="str">
+        <v>NRN/11635/2,031.77</v>
+      </c>
+      <c r="F37" t="str">
+        <v>TAMOR/42386/533.49</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>B46</v>
+      </c>
+      <c r="B38" t="str">
+        <v>AHPC/57109/300.80</v>
+      </c>
+      <c r="C38" t="str">
+        <v>SHPC/20537/625.64</v>
+      </c>
+      <c r="D38" t="str">
+        <v>HRL/12728/914.63</v>
+      </c>
+      <c r="E38" t="str">
+        <v>NIFRA/39387/280.09</v>
+      </c>
+      <c r="F38" t="str">
+        <v>SAPDBL/9765/1,057.59</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>B47</v>
+      </c>
+      <c r="B39" t="str">
+        <v>AKPL/172082/274.15</v>
+      </c>
+      <c r="C39" t="str">
+        <v>CHL/108410/330.24</v>
+      </c>
+      <c r="D39" t="str">
+        <v>NGPL/83232/404.86</v>
+      </c>
+      <c r="E39" t="str">
+        <v>RIDI/105475/273.77</v>
+      </c>
+      <c r="F39" t="str">
+        <v>CGH/22533/987.12</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>B48</v>
+      </c>
+      <c r="B40" t="str">
+        <v>GHL/344312/262.00</v>
+      </c>
+      <c r="C40" t="str">
+        <v>SHPC/117734/625.71</v>
+      </c>
+      <c r="D40" t="str">
+        <v>HIDCLP/237338/213.50</v>
+      </c>
+      <c r="E40" t="str">
+        <v>MEN/59409/624.02</v>
+      </c>
+      <c r="F40" t="str">
+        <v>SAHAS/62185/565.81</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>B49</v>
+      </c>
+      <c r="B41" t="str">
+        <v>NGPL/80701/402.59</v>
+      </c>
+      <c r="C41" t="str">
+        <v>AHPC/89835/300.42</v>
+      </c>
+      <c r="D41" t="str">
+        <v>UPCL/55610/454.78</v>
+      </c>
+      <c r="E41" t="str">
+        <v>RIDI/99259/273.10</v>
+      </c>
+      <c r="F41" t="str">
+        <v>SHIVM/49222/516.12</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>B50</v>
+      </c>
+      <c r="B42" t="str">
+        <v>RADHI/231327/818.89</v>
+      </c>
+      <c r="C42" t="str">
+        <v>SHL/36040/580.36</v>
+      </c>
+      <c r="D42" t="str">
+        <v>MEN/34125/620.25</v>
+      </c>
+      <c r="E42" t="str">
+        <v>SBL/69158/307.71</v>
+      </c>
+      <c r="F42" t="str">
+        <v>UMHL/34239/540.98</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>B51</v>
+      </c>
+      <c r="B43" t="str">
+        <v>HIDCLP/78154/215.87</v>
+      </c>
+      <c r="C43" t="str">
+        <v>RURU/18734/732.26</v>
+      </c>
+      <c r="D43" t="str">
+        <v>HDHPC/67514/202.22</v>
+      </c>
+      <c r="E43" t="str">
+        <v>SHIVM/24282/513.99</v>
+      </c>
+      <c r="F43" t="str">
+        <v>NIFRA/38804/279.07</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>B52</v>
+      </c>
+      <c r="B44" t="str">
+        <v>HIDCLP/89873/216.81</v>
+      </c>
+      <c r="C44" t="str">
+        <v>SHPC/31301/620.60</v>
+      </c>
+      <c r="D44" t="str">
+        <v>SHIVM/33192/512.79</v>
+      </c>
+      <c r="E44" t="str">
+        <v>DORDI/44269/329.45</v>
+      </c>
+      <c r="F44" t="str">
+        <v>LBBL/29449/445.23</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>B53</v>
+      </c>
+      <c r="B45" t="str">
+        <v>MLBL/50071/387.37</v>
+      </c>
+      <c r="C45" t="str">
+        <v>SHPC/30769/622.98</v>
+      </c>
+      <c r="D45" t="str">
+        <v>SHL/28458/571.37</v>
+      </c>
+      <c r="E45" t="str">
+        <v>KSBBL/30009/445.92</v>
+      </c>
+      <c r="F45" t="str">
+        <v>SHIVM/23193/514.17</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>B54</v>
+      </c>
+      <c r="B46" t="str">
+        <v>UPCL/259333/461.30</v>
+      </c>
+      <c r="C46" t="str">
+        <v>STC/17936/4,996.59</v>
+      </c>
+      <c r="D46" t="str">
+        <v>SHEL/66222/305.48</v>
+      </c>
+      <c r="E46" t="str">
+        <v>CHCL/35377/565.99</v>
+      </c>
+      <c r="F46" t="str">
+        <v>CYCL/7690/1,632.19</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>B55</v>
+      </c>
+      <c r="B47" t="str">
+        <v>NMIC/118530/1,719.34</v>
+      </c>
+      <c r="C47" t="str">
+        <v>GMLI/53653/2,364.59</v>
+      </c>
+      <c r="D47" t="str">
+        <v>NRIC/67030/1,257.35</v>
+      </c>
+      <c r="E47" t="str">
+        <v>HRL/27518/917.23</v>
+      </c>
+      <c r="F47" t="str">
+        <v>SHL/40565/572.18</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>B56</v>
+      </c>
+      <c r="B48" t="str">
+        <v>BPCL/209792/789.73</v>
+      </c>
+      <c r="C48" t="str">
+        <v>CHDC/12406/2,588.43</v>
+      </c>
+      <c r="D48" t="str">
+        <v>SBL/98228/307.27</v>
+      </c>
+      <c r="E48" t="str">
+        <v>NGPL/65069/406.69</v>
+      </c>
+      <c r="F48" t="str">
+        <v>BHDC/53918/470.64</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>B57</v>
+      </c>
+      <c r="B49" t="str">
+        <v>UPCL/102397/455.99</v>
+      </c>
+      <c r="C49" t="str">
+        <v>CHCL/63474/568.31</v>
+      </c>
+      <c r="D49" t="str">
+        <v>AHPC/104786/299.20</v>
+      </c>
+      <c r="E49" t="str">
+        <v>NTC/28128/849.32</v>
+      </c>
+      <c r="F49" t="str">
+        <v>API/72870/303.00</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>B58</v>
+      </c>
+      <c r="B50" t="str">
+        <v>NRN/152802/2,034.25</v>
+      </c>
+      <c r="C50" t="str">
+        <v>HPPL/311188/561.99</v>
+      </c>
+      <c r="D50" t="str">
+        <v>HIDCLP/812847/219.23</v>
+      </c>
+      <c r="E50" t="str">
+        <v>SHPC/243469/618.66</v>
+      </c>
+      <c r="F50" t="str">
+        <v>SHL/96453/586.54</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>B59</v>
+      </c>
+      <c r="B51" t="str">
+        <v>SHEL/136348/302.88</v>
+      </c>
+      <c r="C51" t="str">
+        <v>API/123428/303.69</v>
+      </c>
+      <c r="D51" t="str">
+        <v>SAHAS/55561/570.83</v>
+      </c>
+      <c r="E51" t="str">
+        <v>RADHI/29474/813.13</v>
+      </c>
+      <c r="F51" t="str">
+        <v>SHIVM/44030/516.18</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>B60</v>
+      </c>
+      <c r="B52" t="str">
+        <v>BPCL/144229/784.38</v>
+      </c>
+      <c r="C52" t="str">
+        <v>SHPC/80058/639.74</v>
+      </c>
+      <c r="D52" t="str">
+        <v>RADHI/49650/818.84</v>
+      </c>
+      <c r="E52" t="str">
+        <v>HIDCLP/156853/216.21</v>
+      </c>
+      <c r="F52" t="str">
+        <v>RFPL/44220/591.52</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>B61</v>
+      </c>
+      <c r="B53" t="str">
+        <v>BPCL/59659/770.89</v>
+      </c>
+      <c r="C53" t="str">
+        <v>CHDC/8321/2,618.08</v>
+      </c>
+      <c r="D53" t="str">
+        <v>RADHI/9420/840.51</v>
+      </c>
+      <c r="E53" t="str">
+        <v>DORDI/26700/362.30</v>
+      </c>
+      <c r="F53" t="str">
+        <v>HIDCL/24229/309.51</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>B62</v>
+      </c>
+      <c r="B54" t="str">
+        <v>UNHPL/497003/416.72</v>
+      </c>
+      <c r="C54" t="str">
+        <v>UMHL/233951/527.77</v>
+      </c>
+      <c r="D54" t="str">
+        <v>SPDL/74096/429.55</v>
+      </c>
+      <c r="E54" t="str">
+        <v>SAHAS/52849/577.37</v>
+      </c>
+      <c r="F54" t="str">
+        <v>KBL/84297/213.51</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>B63</v>
+      </c>
+      <c r="B55" t="str">
+        <v>RADHI/42405/819.03</v>
+      </c>
+      <c r="C55" t="str">
+        <v>UPCL/39927/443.26</v>
+      </c>
+      <c r="D55" t="str">
+        <v>USLB/7884/1,849.81</v>
+      </c>
+      <c r="E55" t="str">
+        <v>CHCL/24486/559.81</v>
+      </c>
+      <c r="F55" t="str">
+        <v>SHEL/46601/295.84</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>B64</v>
+      </c>
+      <c r="B56" t="str">
+        <v>BPCL/510542/755.38</v>
+      </c>
+      <c r="C56" t="str">
+        <v>MERO/36398/736.86</v>
+      </c>
+      <c r="D56" t="str">
+        <v>AKPL/89033/278.79</v>
+      </c>
+      <c r="E56" t="str">
+        <v>HRL/17796/916.34</v>
+      </c>
+      <c r="F56" t="str">
+        <v>CHDC/4661/2,596.76</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>B65</v>
+      </c>
+      <c r="B57" t="str">
+        <v>SPIL/50604/803.94</v>
+      </c>
+      <c r="C57" t="str">
+        <v>SANIMA/121237/320.33</v>
+      </c>
+      <c r="D57" t="str">
+        <v>HPPL/58797/557.32</v>
+      </c>
+      <c r="E57" t="str">
+        <v>SMHL/31345/1,014.35</v>
+      </c>
+      <c r="F57" t="str">
+        <v>SHPC/40343/622.02</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>B66</v>
+      </c>
+      <c r="B58" t="str">
+        <v>SHPC/99982/633.03</v>
+      </c>
+      <c r="C58" t="str">
+        <v>HRL/20568/919.08</v>
+      </c>
+      <c r="D58" t="str">
+        <v>HIDCL/46731/311.15</v>
+      </c>
+      <c r="E58" t="str">
+        <v>BPCL/21196/751.47</v>
+      </c>
+      <c r="F58" t="str">
+        <v>UNHPL/29783/427.64</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>B67</v>
+      </c>
+      <c r="B59" t="str">
+        <v>BPCL/37417/810.58</v>
+      </c>
+      <c r="C59" t="str">
+        <v>HIDCL/110962/305.79</v>
+      </c>
+      <c r="D59" t="str">
+        <v>RADHI/41623/806.21</v>
+      </c>
+      <c r="E59" t="str">
+        <v>UMHL/56064/518.63</v>
+      </c>
+      <c r="F59" t="str">
+        <v>MEN/43676/622.62</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>B68</v>
+      </c>
+      <c r="B60" t="str">
+        <v>UPCL/125474/449.62</v>
+      </c>
+      <c r="C60" t="str">
+        <v>HIDCLP/246001/213.14</v>
+      </c>
+      <c r="D60" t="str">
+        <v>SHPC/22579/627.01</v>
+      </c>
+      <c r="E60" t="str">
+        <v>CGH/13364/1,011.93</v>
+      </c>
+      <c r="F60" t="str">
+        <v>RIDI/42704/272.82</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>B69</v>
+      </c>
+      <c r="B61" t="str">
+        <v>BPCL/192771/779.13</v>
+      </c>
+      <c r="C61" t="str">
+        <v>SHL/99054/582.18</v>
+      </c>
+      <c r="D61" t="str">
+        <v>SAHAS/51760/577.79</v>
+      </c>
+      <c r="E61" t="str">
+        <v>SPDL/57901/430.40</v>
+      </c>
+      <c r="F61" t="str">
+        <v>PPCL/51217/373.50</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>B70</v>
+      </c>
+      <c r="B62" t="str">
+        <v>UNHPL/88288/421.16</v>
+      </c>
+      <c r="C62" t="str">
+        <v>UPCL/49076/449.85</v>
+      </c>
+      <c r="D62" t="str">
+        <v>GLBSL/7874/2,254.06</v>
+      </c>
+      <c r="E62" t="str">
+        <v>HIDCLP/62740/216.81</v>
+      </c>
+      <c r="F62" t="str">
+        <v>KBL/56490/210.63</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>B71</v>
+      </c>
+      <c r="B63" t="str">
+        <v>UPCL/54472/450.21</v>
+      </c>
+      <c r="C63" t="str">
+        <v>RADHI/27639/817.30</v>
+      </c>
+      <c r="D63" t="str">
+        <v>HIDCL/62974/308.90</v>
+      </c>
+      <c r="E63" t="str">
+        <v>CHDC/7496/2,595.53</v>
+      </c>
+      <c r="F63" t="str">
+        <v>UNHPL/28795/419.18</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>B72</v>
+      </c>
+      <c r="B64" t="str">
+        <v>RADHI/113901/812.93</v>
+      </c>
+      <c r="C64" t="str">
+        <v>KBL/61001/206.83</v>
+      </c>
+      <c r="D64" t="str">
+        <v>SHPC/17685/620.57</v>
+      </c>
+      <c r="E64" t="str">
+        <v>AHPC/21333/300.04</v>
+      </c>
+      <c r="F64" t="str">
+        <v>SHL/8203/576.76</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>B73</v>
+      </c>
+      <c r="B65" t="str">
+        <v>NRM/1200/443.65</v>
+      </c>
+      <c r="C65" t="str">
+        <v>BHL/1730/210.74</v>
+      </c>
+      <c r="D65" t="str">
+        <v>NICA/1000/343.00</v>
+      </c>
+      <c r="E65" t="str">
+        <v>NGPL/800/398.21</v>
+      </c>
+      <c r="F65" t="str">
+        <v>CHDC/82/2,712.71</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>B74</v>
+      </c>
+      <c r="B66" t="str">
+        <v>RADHI/54177/832.20</v>
+      </c>
+      <c r="C66" t="str">
+        <v>SAPDBL/20110/1,029.77</v>
+      </c>
+      <c r="D66" t="str">
+        <v>NIMB/71224/211.82</v>
+      </c>
+      <c r="E66" t="str">
+        <v>SKBBL/18810/797.19</v>
+      </c>
+      <c r="F66" t="str">
+        <v>UNHPL/32661/415.40</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>B75</v>
+      </c>
+      <c r="B67" t="str">
+        <v>CGH/33604/996.31</v>
+      </c>
+      <c r="C67" t="str">
+        <v>SAHAS/49018/574.31</v>
+      </c>
+      <c r="D67" t="str">
+        <v>HIDCLP/71126/221.36</v>
+      </c>
+      <c r="E67" t="str">
+        <v>UPCL/35510/456.13</v>
+      </c>
+      <c r="F67" t="str">
+        <v>BPCL/20245/767.14</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>B76</v>
+      </c>
+      <c r="B68" t="str">
+        <v>BPCL/114053/769.98</v>
+      </c>
+      <c r="C68" t="str">
+        <v>SAHAS/29166/593.98</v>
+      </c>
+      <c r="D68" t="str">
+        <v>SHIVM/19812/515.94</v>
+      </c>
+      <c r="E68" t="str">
+        <v>HIDCL/9220/313.87</v>
+      </c>
+      <c r="F68" t="str">
+        <v>AHPC/8601/300.18</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>B77</v>
+      </c>
+      <c r="B69" t="str">
+        <v>BPCL/238730/729.51</v>
+      </c>
+      <c r="C69" t="str">
+        <v>NGPL/326224/411.18</v>
+      </c>
+      <c r="D69" t="str">
+        <v>HIDCLP/102826/218.52</v>
+      </c>
+      <c r="E69" t="str">
+        <v>DORDI/68150/342.42</v>
+      </c>
+      <c r="F69" t="str">
+        <v>NRN/8369/2,040.12</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>B78</v>
+      </c>
+      <c r="B70" t="str">
+        <v>RADHI/11327/795.96</v>
+      </c>
+      <c r="C70" t="str">
+        <v>NGPL/20426/405.87</v>
+      </c>
+      <c r="D70" t="str">
+        <v>CHDC/2159/2,627.86</v>
+      </c>
+      <c r="E70" t="str">
+        <v>HIDCLP/21268/221.14</v>
+      </c>
+      <c r="F70" t="str">
+        <v>CHCL/7520/554.18</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>B79</v>
+      </c>
+      <c r="B71" t="str">
+        <v>SMPDA/1414/927.99</v>
+      </c>
+      <c r="C71" t="str">
+        <v>AKPL/4096/270.06</v>
+      </c>
+      <c r="D71" t="str">
+        <v>SHIVM/1699/519.54</v>
+      </c>
+      <c r="E71" t="str">
+        <v>SSHL/3084/254.13</v>
+      </c>
+      <c r="F71" t="str">
+        <v>NGPL/1760/398.94</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>B80</v>
+      </c>
+      <c r="B72" t="str">
+        <v>RADHI/29727/803.84</v>
+      </c>
+      <c r="C72" t="str">
+        <v>NIFRA/50007/287.82</v>
+      </c>
+      <c r="D72" t="str">
+        <v>MEN/28111/594.36</v>
+      </c>
+      <c r="E72" t="str">
+        <v>CGH/12431/991.35</v>
+      </c>
+      <c r="F72" t="str">
+        <v>BPCL/13645/765.81</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>B81</v>
+      </c>
+      <c r="B73" t="str">
+        <v>CHCL/232073/559.38</v>
+      </c>
+      <c r="C73" t="str">
+        <v>SHPC/65633/618.71</v>
+      </c>
+      <c r="D73" t="str">
+        <v>BPCL/40725/803.71</v>
+      </c>
+      <c r="E73" t="str">
+        <v>HRL/24878/925.86</v>
+      </c>
+      <c r="F73" t="str">
+        <v>SHEL/68368/306.28</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>B82</v>
+      </c>
+      <c r="B74" t="str">
+        <v>RADHI/20867/816.49</v>
+      </c>
+      <c r="C74" t="str">
+        <v>BPCL/19286/734.87</v>
+      </c>
+      <c r="D74" t="str">
+        <v>OHL/12835/902.60</v>
+      </c>
+      <c r="E74" t="str">
+        <v>TPC/24654/411.83</v>
+      </c>
+      <c r="F74" t="str">
+        <v>UNHPL/22191/434.85</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>B83</v>
+      </c>
+      <c r="B75" t="str">
+        <v>BPCL/28061/817.56</v>
+      </c>
+      <c r="C75" t="str">
+        <v>HRL/18050/920.81</v>
+      </c>
+      <c r="D75" t="str">
+        <v>NGPL/31982/405.74</v>
+      </c>
+      <c r="E75" t="str">
+        <v>PMHPL/29910/382.92</v>
+      </c>
+      <c r="F75" t="str">
+        <v>TAMOR/13517/532.63</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>B84</v>
+      </c>
+      <c r="B76" t="str">
+        <v>UPCL/155099/442.21</v>
+      </c>
+      <c r="C76" t="str">
+        <v>NGPL/161340/402.97</v>
+      </c>
+      <c r="D76" t="str">
+        <v>MKHL/85174/738.20</v>
+      </c>
+      <c r="E76" t="str">
+        <v>BPCL/73505/768.86</v>
+      </c>
+      <c r="F76" t="str">
+        <v>HIDCL/66947/309.78</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>B85</v>
+      </c>
+      <c r="B77" t="str">
+        <v>AHPC/87982/299.59</v>
+      </c>
+      <c r="C77" t="str">
+        <v>API/82070/302.74</v>
+      </c>
+      <c r="D77" t="str">
+        <v>SPDL/42634/425.60</v>
+      </c>
+      <c r="E77" t="str">
+        <v>SHL/28995/583.96</v>
+      </c>
+      <c r="F77" t="str">
+        <v>AKPL/46062/278.12</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>B86</v>
+      </c>
+      <c r="B78" t="str">
+        <v>RADHI/21135/822.28</v>
+      </c>
+      <c r="C78" t="str">
+        <v>SHPC/23097/632.06</v>
+      </c>
+      <c r="D78" t="str">
+        <v>PPCL/26029/378.79</v>
+      </c>
+      <c r="E78" t="str">
+        <v>AKPL/32009/274.30</v>
+      </c>
+      <c r="F78" t="str">
+        <v>SAHAS/11589/574.69</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>B87</v>
+      </c>
+      <c r="B79" t="str">
+        <v>BPCL/92271/817.27</v>
+      </c>
+      <c r="C79" t="str">
+        <v>PMHPL/38921/405.05</v>
+      </c>
+      <c r="D79" t="str">
+        <v>GCIL/27413/509.13</v>
+      </c>
+      <c r="E79" t="str">
+        <v>ULBSL/2472/3,244.10</v>
+      </c>
+      <c r="F79" t="str">
+        <v>SHEL/18583/305.58</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>B88</v>
+      </c>
+      <c r="B80" t="str">
+        <v>SAPDBL/63881/1,079.79</v>
+      </c>
+      <c r="C80" t="str">
+        <v>PMHPL/163524/400.05</v>
+      </c>
+      <c r="D80" t="str">
+        <v>RADHI/33231/816.65</v>
+      </c>
+      <c r="E80" t="str">
+        <v>CHCL/42138/560.58</v>
+      </c>
+      <c r="F80" t="str">
+        <v>NHPC/76478/221.71</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>B89</v>
+      </c>
+      <c r="B81" t="str">
+        <v>RADHI/28734/800.78</v>
+      </c>
+      <c r="C81" t="str">
+        <v>SHPC/26636/612.09</v>
+      </c>
+      <c r="D81" t="str">
+        <v>UNHPL/35072/430.41</v>
+      </c>
+      <c r="E81" t="str">
+        <v>CGH/7341/982.34</v>
+      </c>
+      <c r="F81" t="str">
+        <v>BPCL/9503/763.31</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>B90</v>
+      </c>
+      <c r="B82" t="str">
+        <v>API/74496/307.60</v>
+      </c>
+      <c r="C82" t="str">
+        <v>SHPC/13956/624.12</v>
+      </c>
+      <c r="D82" t="str">
+        <v>EBL/11046/649.96</v>
+      </c>
+      <c r="E82" t="str">
+        <v>LEC/19680/225.00</v>
+      </c>
+      <c r="F82" t="str">
+        <v>HBL/19532/222.35</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>B91</v>
+      </c>
+      <c r="B83" t="str">
+        <v>SHPC/54088/615.50</v>
+      </c>
+      <c r="C83" t="str">
+        <v>RADHI/38344/810.77</v>
+      </c>
+      <c r="D83" t="str">
+        <v>DORDI/60142/344.82</v>
+      </c>
+      <c r="E83" t="str">
+        <v>CGH/15007/990.59</v>
+      </c>
+      <c r="F83" t="str">
+        <v>BPCL/19637/771.48</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>B92</v>
+      </c>
+      <c r="B84" t="str">
+        <v>UPCL/56136/444.13</v>
+      </c>
+      <c r="C84" t="str">
+        <v>HIDCL/79416/301.17</v>
+      </c>
+      <c r="D84" t="str">
+        <v>HRL/17515/898.96</v>
+      </c>
+      <c r="E84" t="str">
+        <v>BPCL/19807/741.26</v>
+      </c>
+      <c r="F84" t="str">
+        <v>NGPL/27843/396.69</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>B93</v>
+      </c>
+      <c r="B85" t="str">
+        <v>AKPL/24300/286.58</v>
+      </c>
+      <c r="C85" t="str">
+        <v>DORDI/10459/353.96</v>
+      </c>
+      <c r="D85" t="str">
+        <v>LEC/14770/224.11</v>
+      </c>
+      <c r="E85" t="str">
+        <v>CHCL/5503/548.52</v>
+      </c>
+      <c r="F85" t="str">
+        <v>MBJC/7820/338.12</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>B94</v>
+      </c>
+      <c r="B86" t="str">
+        <v>BPCL/117842/777.14</v>
+      </c>
+      <c r="C86" t="str">
+        <v>SHEL/97852/300.59</v>
+      </c>
+      <c r="D86" t="str">
+        <v>PMHPL/68173/414.72</v>
+      </c>
+      <c r="E86" t="str">
+        <v>NGPL/83085/399.17</v>
+      </c>
+      <c r="F86" t="str">
+        <v>SAHAS/39759/591.48</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>B95</v>
+      </c>
+      <c r="B87" t="str">
+        <v>RADHI/34001/827.25</v>
+      </c>
+      <c r="C87" t="str">
+        <v>NGPL/48468/404.43</v>
+      </c>
+      <c r="D87" t="str">
+        <v>SHPC/27308/620.42</v>
+      </c>
+      <c r="E87" t="str">
+        <v>HPPL/14433/555.84</v>
+      </c>
+      <c r="F87" t="str">
+        <v>NRN/3754/2,061.14</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>B96</v>
+      </c>
+      <c r="B88" t="str">
+        <v>BPCL/103230/804.15</v>
+      </c>
+      <c r="C88" t="str">
+        <v>RADHI/78062/820.35</v>
+      </c>
+      <c r="D88" t="str">
+        <v>NRN/28756/2,032.51</v>
+      </c>
+      <c r="E88" t="str">
+        <v>SAHAS/24549/596.37</v>
+      </c>
+      <c r="F88" t="str">
+        <v>NGPL/25130/412.36</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>B97</v>
+      </c>
+      <c r="B89" t="str">
+        <v>TPC/25025/410.75</v>
+      </c>
+      <c r="C89" t="str">
+        <v>SPDL/25078/416.96</v>
+      </c>
+      <c r="D89" t="str">
+        <v>GHL/33950/257.40</v>
+      </c>
+      <c r="E89" t="str">
+        <v>UNHPL/20563/427.08</v>
+      </c>
+      <c r="F89" t="str">
+        <v>CHCL/13730/545.64</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>B98</v>
+      </c>
+      <c r="B90" t="str">
+        <v>OMPL/9365/1,775.01</v>
+      </c>
+      <c r="C90" t="str">
+        <v>UPCL/30556/440.43</v>
+      </c>
+      <c r="D90" t="str">
+        <v>SCB/15312/611.50</v>
+      </c>
+      <c r="E90" t="str">
+        <v>UNHPL/19405/423.08</v>
+      </c>
+      <c r="F90" t="str">
+        <v>MBJC/20750/351.43</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>B99</v>
+      </c>
+      <c r="B91" t="str">
+        <v>BARUN/87907/394.71</v>
+      </c>
+      <c r="C91" t="str">
+        <v>SHEL/47741/303.39</v>
+      </c>
+      <c r="D91" t="str">
+        <v>CHDC/2892/2,653.17</v>
+      </c>
+      <c r="E91" t="str">
+        <v>CGH/6435/987.72</v>
+      </c>
+      <c r="F91" t="str">
+        <v>RADHI/7340/817.26</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>B100</v>
+      </c>
+      <c r="B92" t="str">
+        <v>MLBL/144707/388.12</v>
+      </c>
+      <c r="C92" t="str">
+        <v>API/131964/296.70</v>
+      </c>
+      <c r="D92" t="str">
+        <v>KSBBL/72012/448.48</v>
+      </c>
+      <c r="E92" t="str">
+        <v>NGPL/54700/396.49</v>
+      </c>
+      <c r="F92" t="str">
+        <v>HURJA/72568/265.32</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>B101</v>
+      </c>
+      <c r="B93" t="str">
+        <v>NGPL/60022/408.38</v>
+      </c>
+      <c r="C93" t="str">
+        <v>RADHI/15064/810.68</v>
+      </c>
+      <c r="D93" t="str">
+        <v>AKPL/36500/276.55</v>
+      </c>
+      <c r="E93" t="str">
+        <v>HIDCLP/34689/218.05</v>
+      </c>
+      <c r="F93" t="str">
+        <v>BPCL/8922/726.10</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F93"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/Broker_Analysis.xlsx
+++ b/Broker_Analysis.xlsx
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -457,19 +457,19 @@
         <v>B1</v>
       </c>
       <c r="B2" t="str">
-        <v>ADBL/-2722/288.00</v>
+        <v>CHDC/15440/2,657.29</v>
       </c>
       <c r="C2" t="str">
-        <v>BHDC/-102345/471.20</v>
+        <v>RADHI/37906/815.54</v>
       </c>
       <c r="D2" t="str">
-        <v>-</v>
+        <v>NRN/10707/2,124.65</v>
       </c>
       <c r="E2" t="str">
-        <v>-</v>
+        <v>EBL/25334/643.88</v>
       </c>
       <c r="F2" t="str">
-        <v>-</v>
+        <v>MERO/21093/771.48</v>
       </c>
     </row>
     <row r="3">
@@ -477,19 +477,19 @@
         <v>B3</v>
       </c>
       <c r="B3" t="str">
+        <v>SHPC/16066/615.90</v>
+      </c>
+      <c r="C3" t="str">
+        <v>BARUN/23640/414.13</v>
+      </c>
+      <c r="D3" t="str">
+        <v>UPCL/18692/431.56</v>
+      </c>
+      <c r="E3" t="str">
+        <v>NBL/30515/252.96</v>
+      </c>
+      <c r="F3" t="str">
         <v>BHDC/15036/476.37</v>
-      </c>
-      <c r="C3" t="str">
-        <v>ADBL/-2333/294.99</v>
-      </c>
-      <c r="D3" t="str">
-        <v>-</v>
-      </c>
-      <c r="E3" t="str">
-        <v>-</v>
-      </c>
-      <c r="F3" t="str">
-        <v>-</v>
       </c>
     </row>
     <row r="4">
@@ -497,19 +497,19 @@
         <v>B4</v>
       </c>
       <c r="B4" t="str">
-        <v>BHDC/11020/473.36</v>
+        <v>SBL/171938/323.99</v>
       </c>
       <c r="C4" t="str">
-        <v>ADBL/-1164/292.83</v>
+        <v>EBL/73482/655.49</v>
       </c>
       <c r="D4" t="str">
-        <v>-</v>
+        <v>GMFIL/80952/488.41</v>
       </c>
       <c r="E4" t="str">
-        <v>-</v>
+        <v>SARBTM/46329/836.91</v>
       </c>
       <c r="F4" t="str">
-        <v>-</v>
+        <v>UMRH/50735/612.24</v>
       </c>
     </row>
     <row r="5">
@@ -517,19 +517,19 @@
         <v>B5</v>
       </c>
       <c r="B5" t="str">
-        <v>ADBL/2023/286.67</v>
+        <v>CHDC/8989/2,619.93</v>
       </c>
       <c r="C5" t="str">
-        <v>BHDC/-9949/483.65</v>
+        <v>HURJA/30317/263.62</v>
       </c>
       <c r="D5" t="str">
-        <v>-</v>
+        <v>GRDBL/4690/1,421.14</v>
       </c>
       <c r="E5" t="str">
-        <v>-</v>
+        <v>NRN/2676/2,106.58</v>
       </c>
       <c r="F5" t="str">
-        <v>-</v>
+        <v>MEN/7664/606.60</v>
       </c>
     </row>
     <row r="6">
@@ -537,19 +537,19 @@
         <v>B6</v>
       </c>
       <c r="B6" t="str">
-        <v>BHDC/1478/472.13</v>
+        <v>NRIC/135134/1,288.10</v>
       </c>
       <c r="C6" t="str">
-        <v>ADBL/-30509/287.08</v>
+        <v>UPCL/163699/438.54</v>
       </c>
       <c r="D6" t="str">
-        <v>-</v>
+        <v>SHPC/86015/628.64</v>
       </c>
       <c r="E6" t="str">
-        <v>-</v>
+        <v>RIDI/170859/277.45</v>
       </c>
       <c r="F6" t="str">
-        <v>-</v>
+        <v>RADHI/54356/815.87</v>
       </c>
     </row>
     <row r="7">
@@ -557,19 +557,19 @@
         <v>B7</v>
       </c>
       <c r="B7" t="str">
-        <v>BHDC/4127/502.77</v>
+        <v>BARUN/37647/417.41</v>
       </c>
       <c r="C7" t="str">
-        <v>ADBL/3474/285.46</v>
+        <v>NABIL/30465/489.76</v>
       </c>
       <c r="D7" t="str">
-        <v>-</v>
+        <v>SHPC/20465/629.80</v>
       </c>
       <c r="E7" t="str">
-        <v>-</v>
+        <v>RADHI/15976/819.48</v>
       </c>
       <c r="F7" t="str">
-        <v>-</v>
+        <v>NBL/48965/256.73</v>
       </c>
     </row>
     <row r="8">
@@ -577,19 +577,19 @@
         <v>B8</v>
       </c>
       <c r="B8" t="str">
-        <v>BHDC/9581/463.12</v>
+        <v>NGPL/434741/410.36</v>
       </c>
       <c r="C8" t="str">
-        <v>ADBL/728/288.09</v>
+        <v>NABBC/18563/1,601.42</v>
       </c>
       <c r="D8" t="str">
-        <v>-</v>
+        <v>KSBBL/40990/457.58</v>
       </c>
       <c r="E8" t="str">
-        <v>-</v>
+        <v>SHEL/45700/300.86</v>
       </c>
       <c r="F8" t="str">
-        <v>-</v>
+        <v>SSHL/40053/246.78</v>
       </c>
     </row>
     <row r="9">
@@ -597,19 +597,19 @@
         <v>B10</v>
       </c>
       <c r="B9" t="str">
-        <v>BHDC/-160/502.27</v>
+        <v>HRL/23210/910.81</v>
       </c>
       <c r="C9" t="str">
-        <v>ADBL/-2035/292.18</v>
+        <v>HDL/15718/1,192.65</v>
       </c>
       <c r="D9" t="str">
-        <v>-</v>
+        <v>RFPL/24064/596.23</v>
       </c>
       <c r="E9" t="str">
-        <v>-</v>
+        <v>SHPC/18507/643.85</v>
       </c>
       <c r="F9" t="str">
-        <v>-</v>
+        <v>HIDCLP/42447/216.58</v>
       </c>
     </row>
     <row r="10">
@@ -617,19 +617,19 @@
         <v>B11</v>
       </c>
       <c r="B10" t="str">
-        <v>BHDC/1418/488.29</v>
+        <v>UPCL/28173/433.69</v>
       </c>
       <c r="C10" t="str">
-        <v>ADBL/-11794/290.57</v>
+        <v>SAPDBL/10106/1,057.47</v>
       </c>
       <c r="D10" t="str">
-        <v>-</v>
+        <v>HURJA/41866/256.19</v>
       </c>
       <c r="E10" t="str">
-        <v>-</v>
+        <v>SONA/14710/457.22</v>
       </c>
       <c r="F10" t="str">
-        <v>-</v>
+        <v>HIDCL/17527/296.60</v>
       </c>
     </row>
     <row r="11">
@@ -637,19 +637,19 @@
         <v>B13</v>
       </c>
       <c r="B11" t="str">
-        <v>BHDC/2339/480.49</v>
+        <v>SHIVM/18135/511.47</v>
       </c>
       <c r="C11" t="str">
-        <v>ADBL/-10406/289.78</v>
+        <v>PRIN/7739/895.58</v>
       </c>
       <c r="D11" t="str">
-        <v>-</v>
+        <v>BHL/30644/212.50</v>
       </c>
       <c r="E11" t="str">
-        <v>-</v>
+        <v>KKHC/13560/423.70</v>
       </c>
       <c r="F11" t="str">
-        <v>-</v>
+        <v>SAPDBL/5205/1,062.89</v>
       </c>
     </row>
     <row r="12">
@@ -657,19 +657,19 @@
         <v>B14</v>
       </c>
       <c r="B12" t="str">
-        <v>ADBL/-57271/295.54</v>
+        <v>CGH/83714/960.14</v>
       </c>
       <c r="C12" t="str">
-        <v>BHDC/-38724/486.59</v>
+        <v>SHEL/126229/299.77</v>
       </c>
       <c r="D12" t="str">
-        <v>-</v>
+        <v>CHCL/55690/569.39</v>
       </c>
       <c r="E12" t="str">
-        <v>-</v>
+        <v>SANIMA/94515/329.99</v>
       </c>
       <c r="F12" t="str">
-        <v>-</v>
+        <v>HRL/29360/919.33</v>
       </c>
     </row>
     <row r="13">
@@ -677,19 +677,19 @@
         <v>B16</v>
       </c>
       <c r="B13" t="str">
-        <v>BHDC/8980/486.84</v>
+        <v>CHDC/63209/2,641.71</v>
       </c>
       <c r="C13" t="str">
-        <v>ADBL/3881/289.48</v>
+        <v>SHL/202429/566.28</v>
       </c>
       <c r="D13" t="str">
-        <v>-</v>
+        <v>RADHI/84186/823.07</v>
       </c>
       <c r="E13" t="str">
-        <v>-</v>
+        <v>SHPC/52637/630.07</v>
       </c>
       <c r="F13" t="str">
-        <v>-</v>
+        <v>SMJC/53463/538.59</v>
       </c>
     </row>
     <row r="14">
@@ -697,19 +697,19 @@
         <v>B17</v>
       </c>
       <c r="B14" t="str">
-        <v>ADBL/15560/295.88</v>
+        <v>NGPL/690127/407.13</v>
       </c>
       <c r="C14" t="str">
-        <v>BHDC/-6785/484.96</v>
+        <v>HIDCLP/673894/215.59</v>
       </c>
       <c r="D14" t="str">
-        <v>-</v>
+        <v>SANIMA/259660/326.51</v>
       </c>
       <c r="E14" t="str">
-        <v>-</v>
+        <v>EBL/112532/652.77</v>
       </c>
       <c r="F14" t="str">
-        <v>-</v>
+        <v>PCBL/248511/257.14</v>
       </c>
     </row>
     <row r="15">
@@ -717,19 +717,19 @@
         <v>B18</v>
       </c>
       <c r="B15" t="str">
-        <v>ADBL/-4862/286.94</v>
+        <v>NGPL/108603/397.64</v>
       </c>
       <c r="C15" t="str">
-        <v>BHDC/-31899/487.02</v>
+        <v>LICN/29188/904.91</v>
       </c>
       <c r="D15" t="str">
-        <v>-</v>
+        <v>AKPL/76705/267.04</v>
       </c>
       <c r="E15" t="str">
-        <v>-</v>
+        <v>NRN/6467/2,116.26</v>
       </c>
       <c r="F15" t="str">
-        <v>-</v>
+        <v>SHIVM/26801/509.72</v>
       </c>
     </row>
     <row r="16">
@@ -737,19 +737,19 @@
         <v>B19</v>
       </c>
       <c r="B16" t="str">
-        <v>ADBL/4511/291.69</v>
+        <v>SPDL/76352/426.86</v>
       </c>
       <c r="C16" t="str">
-        <v>BHDC/648/491.84</v>
+        <v>SAPDBL/26199/1,052.97</v>
       </c>
       <c r="D16" t="str">
-        <v>-</v>
+        <v>CHDC/5851/2,660.18</v>
       </c>
       <c r="E16" t="str">
-        <v>-</v>
+        <v>HRL/13694/911.63</v>
       </c>
       <c r="F16" t="str">
-        <v>-</v>
+        <v>UNHPL/12401/443.67</v>
       </c>
     </row>
     <row r="17">
@@ -757,19 +757,19 @@
         <v>B20</v>
       </c>
       <c r="B17" t="str">
-        <v>BHDC/580/509.86</v>
+        <v>SPIL/36747/814.99</v>
       </c>
       <c r="C17" t="str">
-        <v>ADBL/-816/286.62</v>
+        <v>RADHI/33527/813.93</v>
       </c>
       <c r="D17" t="str">
-        <v>-</v>
+        <v>HRL/23645/910.74</v>
       </c>
       <c r="E17" t="str">
-        <v>-</v>
+        <v>SHIVM/33457/518.26</v>
       </c>
       <c r="F17" t="str">
-        <v>-</v>
+        <v>PCBL/69277/246.63</v>
       </c>
     </row>
     <row r="18">
@@ -777,19 +777,19 @@
         <v>B21</v>
       </c>
       <c r="B18" t="str">
-        <v>BHDC/12023/473.99</v>
+        <v>SHPC/54445/623.69</v>
       </c>
       <c r="C18" t="str">
-        <v>ADBL/-3401/293.89</v>
+        <v>SHIVM/41182/514.28</v>
       </c>
       <c r="D18" t="str">
-        <v>-</v>
+        <v>HIDCL/64321/300.54</v>
       </c>
       <c r="E18" t="str">
-        <v>-</v>
+        <v>SMHL/17616/1,025.94</v>
       </c>
       <c r="F18" t="str">
-        <v>-</v>
+        <v>UPCL/20526/446.40</v>
       </c>
     </row>
     <row r="19">
@@ -797,19 +797,19 @@
         <v>B22</v>
       </c>
       <c r="B19" t="str">
-        <v>BHDC/7905/484.05</v>
+        <v>UPCL/122800/453.25</v>
       </c>
       <c r="C19" t="str">
-        <v>ADBL/-4317/285.40</v>
+        <v>KPCL/40194/559.60</v>
       </c>
       <c r="D19" t="str">
-        <v>-</v>
+        <v>GHL/65926/260.72</v>
       </c>
       <c r="E19" t="str">
-        <v>-</v>
+        <v>SAHAS/28113/581.46</v>
       </c>
       <c r="F19" t="str">
-        <v>-</v>
+        <v>HIDCLP/65789/215.65</v>
       </c>
     </row>
     <row r="20">
@@ -817,19 +817,19 @@
         <v>B25</v>
       </c>
       <c r="B20" t="str">
-        <v>ADBL/-6168/291.69</v>
+        <v>NRN/22909/2,163.90</v>
       </c>
       <c r="C20" t="str">
-        <v>BHDC/-8481/478.27</v>
+        <v>NGPL/85685/411.16</v>
       </c>
       <c r="D20" t="str">
-        <v>-</v>
+        <v>MNBBL/97625/371.90</v>
       </c>
       <c r="E20" t="str">
-        <v>-</v>
+        <v>SMATA/17378/820.28</v>
       </c>
       <c r="F20" t="str">
-        <v>-</v>
+        <v>HIDCLP/62327/215.31</v>
       </c>
     </row>
     <row r="21">
@@ -837,19 +837,19 @@
         <v>B26</v>
       </c>
       <c r="B21" t="str">
-        <v>BHDC/860/486.94</v>
+        <v>RADHI/87565/812.39</v>
       </c>
       <c r="C21" t="str">
-        <v>ADBL/-1834/291.67</v>
+        <v>HRL/36223/925.65</v>
       </c>
       <c r="D21" t="str">
-        <v>-</v>
+        <v>GHL/91786/256.62</v>
       </c>
       <c r="E21" t="str">
-        <v>-</v>
+        <v>UPCL/54609/442.71</v>
       </c>
       <c r="F21" t="str">
-        <v>-</v>
+        <v>SHIVM/29733/513.56</v>
       </c>
     </row>
     <row r="22">
@@ -857,19 +857,19 @@
         <v>B28</v>
       </c>
       <c r="B22" t="str">
-        <v>ADBL/-1886/285.43</v>
+        <v>SAHAS/183675/579.09</v>
       </c>
       <c r="C22" t="str">
-        <v>BHDC/-9700/485.15</v>
+        <v>BPCL/91622/812.26</v>
       </c>
       <c r="D22" t="str">
-        <v>-</v>
+        <v>SHEL/258532/294.72</v>
       </c>
       <c r="E22" t="str">
-        <v>-</v>
+        <v>SHPC/95389/635.29</v>
       </c>
       <c r="F22" t="str">
-        <v>-</v>
+        <v>UPCL/98840/439.09</v>
       </c>
     </row>
     <row r="23">
@@ -877,19 +877,19 @@
         <v>B29</v>
       </c>
       <c r="B23" t="str">
-        <v>BHDC/23766/483.17</v>
+        <v>GRDBL/16861/1,376.98</v>
       </c>
       <c r="C23" t="str">
-        <v>ADBL/1197/291.86</v>
+        <v>UMHL/32757/553.19</v>
       </c>
       <c r="D23" t="str">
-        <v>-</v>
+        <v>DORDI/52775/339.09</v>
       </c>
       <c r="E23" t="str">
-        <v>-</v>
+        <v>RNLI/27532/471.24</v>
       </c>
       <c r="F23" t="str">
-        <v>-</v>
+        <v>AKPL/45963/277.05</v>
       </c>
     </row>
     <row r="24">
@@ -897,19 +897,19 @@
         <v>B32</v>
       </c>
       <c r="B24" t="str">
-        <v>ADBL/-3458/290.28</v>
+        <v>NRN/64662/2,097.03</v>
       </c>
       <c r="C24" t="str">
-        <v>BHDC/-24965/471.34</v>
+        <v>CHDC/14897/2,615.51</v>
       </c>
       <c r="D24" t="str">
-        <v>-</v>
+        <v>RADHI/37092/809.39</v>
       </c>
       <c r="E24" t="str">
-        <v>-</v>
+        <v>AKJCL/104767/212.38</v>
       </c>
       <c r="F24" t="str">
-        <v>-</v>
+        <v>AKPL/78788/275.65</v>
       </c>
     </row>
     <row r="25">
@@ -917,19 +917,19 @@
         <v>B33</v>
       </c>
       <c r="B25" t="str">
-        <v>ADBL/21896/292.91</v>
+        <v>SHEL/164269/296.46</v>
       </c>
       <c r="C25" t="str">
-        <v>BHDC/5977/475.11</v>
+        <v>SADBL/102551/408.37</v>
       </c>
       <c r="D25" t="str">
-        <v>-</v>
+        <v>SBI/102483/407.30</v>
       </c>
       <c r="E25" t="str">
-        <v>-</v>
+        <v>CBBL/44737/942.39</v>
       </c>
       <c r="F25" t="str">
-        <v>-</v>
+        <v>KBL/181733/208.52</v>
       </c>
     </row>
     <row r="26">
@@ -937,19 +937,19 @@
         <v>B34</v>
       </c>
       <c r="B26" t="str">
-        <v>BHDC/19474/475.13</v>
+        <v>SHPC/314623/627.83</v>
       </c>
       <c r="C26" t="str">
-        <v>ADBL/24169/295.95</v>
+        <v>BPCL/87992/803.64</v>
       </c>
       <c r="D26" t="str">
-        <v>-</v>
+        <v>MKHL/59491/775.94</v>
       </c>
       <c r="E26" t="str">
-        <v>-</v>
+        <v>BARUN/100942/413.06</v>
       </c>
       <c r="F26" t="str">
-        <v>-</v>
+        <v>SHINE/97566/402.25</v>
       </c>
     </row>
     <row r="27">
@@ -957,19 +957,19 @@
         <v>B35</v>
       </c>
       <c r="B27" t="str">
-        <v>ADBL/2250/295.84</v>
+        <v>SBL/96225/311.80</v>
       </c>
       <c r="C27" t="str">
-        <v>BHDC/-92077/477.69</v>
+        <v>CHDC/9717/2,610.53</v>
       </c>
       <c r="D27" t="str">
-        <v>-</v>
+        <v>CGH/28439/957.21</v>
       </c>
       <c r="E27" t="str">
-        <v>-</v>
+        <v>AKPL/74825/277.98</v>
       </c>
       <c r="F27" t="str">
-        <v>-</v>
+        <v>SHIVM/41423/514.88</v>
       </c>
     </row>
     <row r="28">
@@ -977,19 +977,19 @@
         <v>B36</v>
       </c>
       <c r="B28" t="str">
-        <v>BHDC/-40/479.38</v>
+        <v>SHPC/52062/629.91</v>
       </c>
       <c r="C28" t="str">
-        <v>ADBL/-4555/288.95</v>
+        <v>LSL/117550/219.72</v>
       </c>
       <c r="D28" t="str">
-        <v>-</v>
+        <v>SPDL/60003/428.12</v>
       </c>
       <c r="E28" t="str">
-        <v>-</v>
+        <v>SHIVM/43651/513.69</v>
       </c>
       <c r="F28" t="str">
-        <v>-</v>
+        <v>SAPDBL/19089/1,055.90</v>
       </c>
     </row>
     <row r="29">
@@ -997,19 +997,19 @@
         <v>B37</v>
       </c>
       <c r="B29" t="str">
-        <v>BHDC/908/510.27</v>
+        <v>SHL/13134/587.75</v>
       </c>
       <c r="C29" t="str">
-        <v>ADBL/-3109/291.49</v>
+        <v>AHPC/16169/298.53</v>
       </c>
       <c r="D29" t="str">
-        <v>-</v>
+        <v>UPPER/24179/197.63</v>
       </c>
       <c r="E29" t="str">
-        <v>-</v>
+        <v>RIDI/16212/270.36</v>
       </c>
       <c r="F29" t="str">
-        <v>-</v>
+        <v>LEC/16579/216.78</v>
       </c>
     </row>
     <row r="30">
@@ -1017,19 +1017,19 @@
         <v>B38</v>
       </c>
       <c r="B30" t="str">
-        <v>ADBL/-18025/294.93</v>
+        <v>BPCL/161479/793.11</v>
       </c>
       <c r="C30" t="str">
-        <v>BHDC/-31879/487.13</v>
+        <v>ULBSL/10539/3,329.29</v>
       </c>
       <c r="D30" t="str">
-        <v>-</v>
+        <v>SAPDBL/28795/1,066.61</v>
       </c>
       <c r="E30" t="str">
-        <v>-</v>
+        <v>MBJC/76562/338.58</v>
       </c>
       <c r="F30" t="str">
-        <v>-</v>
+        <v>UNL/526/45,050.04</v>
       </c>
     </row>
     <row r="31">
@@ -1037,19 +1037,19 @@
         <v>B39</v>
       </c>
       <c r="B31" t="str">
-        <v>ADBL/22782/298.98</v>
+        <v>RADHI/494916/817.66</v>
       </c>
       <c r="C31" t="str">
-        <v>BHDC/12016/476.35</v>
+        <v>UNHPL/252494/445.21</v>
       </c>
       <c r="D31" t="str">
-        <v>-</v>
+        <v>UMHL/118466/541.73</v>
       </c>
       <c r="E31" t="str">
-        <v>-</v>
+        <v>HPPL/76331/560.39</v>
       </c>
       <c r="F31" t="str">
-        <v>-</v>
+        <v>NBL/108948/260.39</v>
       </c>
     </row>
     <row r="32">
@@ -1057,19 +1057,19 @@
         <v>B40</v>
       </c>
       <c r="B32" t="str">
-        <v>ADBL/10383/286.22</v>
+        <v>SMATA/23089/822.50</v>
       </c>
       <c r="C32" t="str">
-        <v>BHDC/-4185/489.10</v>
+        <v>NGPL/35909/405.77</v>
       </c>
       <c r="D32" t="str">
-        <v>-</v>
+        <v>SHIVM/20376/512.06</v>
       </c>
       <c r="E32" t="str">
-        <v>-</v>
+        <v>CHCL/18157/556.36</v>
       </c>
       <c r="F32" t="str">
-        <v>-</v>
+        <v>NLICL/15590/613.03</v>
       </c>
     </row>
     <row r="33">
@@ -1077,19 +1077,19 @@
         <v>B41</v>
       </c>
       <c r="B33" t="str">
-        <v>ADBL/-9362/288.60</v>
+        <v>GRDBL/60661/1,471.94</v>
       </c>
       <c r="C33" t="str">
-        <v>BHDC/-17873/478.51</v>
+        <v>RADHI/70543/819.65</v>
       </c>
       <c r="D33" t="str">
-        <v>-</v>
+        <v>DORDI/146331/335.22</v>
       </c>
       <c r="E33" t="str">
-        <v>-</v>
+        <v>SINDU/32705/892.10</v>
       </c>
       <c r="F33" t="str">
-        <v>-</v>
+        <v>SHIVM/45397/511.87</v>
       </c>
     </row>
     <row r="34">
@@ -1097,19 +1097,19 @@
         <v>B42</v>
       </c>
       <c r="B34" t="str">
-        <v>BHDC/27508/488.05</v>
+        <v>MERO/219605/763.80</v>
       </c>
       <c r="C34" t="str">
-        <v>ADBL/-46476/289.57</v>
+        <v>SHIVM/109165/514.92</v>
       </c>
       <c r="D34" t="str">
-        <v>-</v>
+        <v>JOSHI/75917/371.49</v>
       </c>
       <c r="E34" t="str">
-        <v>-</v>
+        <v>HDL/20618/1,195.26</v>
       </c>
       <c r="F34" t="str">
-        <v>-</v>
+        <v>SHEL/75718/298.90</v>
       </c>
     </row>
     <row r="35">
@@ -1117,19 +1117,19 @@
         <v>B43</v>
       </c>
       <c r="B35" t="str">
-        <v>ADBL/15334/287.55</v>
+        <v>HDL/21995/1,212.85</v>
       </c>
       <c r="C35" t="str">
-        <v>BHDC/-2785/483.95</v>
+        <v>NGPL/55752/406.97</v>
       </c>
       <c r="D35" t="str">
-        <v>-</v>
+        <v>KBL/94061/204.11</v>
       </c>
       <c r="E35" t="str">
-        <v>-</v>
+        <v>SPDL/38200/433.60</v>
       </c>
       <c r="F35" t="str">
-        <v>-</v>
+        <v>SARBTM/20088/850.30</v>
       </c>
     </row>
     <row r="36">
@@ -1137,19 +1137,19 @@
         <v>B44</v>
       </c>
       <c r="B36" t="str">
-        <v>BHDC/17561/492.33</v>
+        <v>NIFRA/569301/280.03</v>
       </c>
       <c r="C36" t="str">
-        <v>ADBL/-10534/293.72</v>
+        <v>CHCL/199515/565.55</v>
       </c>
       <c r="D36" t="str">
-        <v>-</v>
+        <v>SPDL/251173/430.55</v>
       </c>
       <c r="E36" t="str">
-        <v>-</v>
+        <v>NGPL/189934/402.27</v>
       </c>
       <c r="F36" t="str">
-        <v>-</v>
+        <v>KSBBL/124779/459.99</v>
       </c>
     </row>
     <row r="37">
@@ -1157,19 +1157,19 @@
         <v>B45</v>
       </c>
       <c r="B37" t="str">
-        <v>BHDC/23097/487.41</v>
+        <v>MEN/108639/618.06</v>
       </c>
       <c r="C37" t="str">
-        <v>ADBL/-11008/290.95</v>
+        <v>BARUN/119110/402.63</v>
       </c>
       <c r="D37" t="str">
-        <v>-</v>
+        <v>RADHI/58064/818.97</v>
       </c>
       <c r="E37" t="str">
-        <v>-</v>
+        <v>NRN/18289/2,107.67</v>
       </c>
       <c r="F37" t="str">
-        <v>-</v>
+        <v>HIDCL/117351/302.46</v>
       </c>
     </row>
     <row r="38">
@@ -1177,19 +1177,19 @@
         <v>B46</v>
       </c>
       <c r="B38" t="str">
-        <v>BHDC/71/494.45</v>
+        <v>SHPC/25896/629.21</v>
       </c>
       <c r="C38" t="str">
-        <v>ADBL/-11248/288.40</v>
+        <v>AHPC/48383/301.26</v>
       </c>
       <c r="D38" t="str">
-        <v>-</v>
+        <v>HRL/10135/913.67</v>
       </c>
       <c r="E38" t="str">
-        <v>-</v>
+        <v>SHIVM/16434/516.99</v>
       </c>
       <c r="F38" t="str">
-        <v>-</v>
+        <v>RADHI/10041/807.62</v>
       </c>
     </row>
     <row r="39">
@@ -1197,19 +1197,19 @@
         <v>B47</v>
       </c>
       <c r="B39" t="str">
-        <v>ADBL/-2318/284.40</v>
+        <v>CHL/84299/334.30</v>
       </c>
       <c r="C39" t="str">
-        <v>BHDC/-52972/477.27</v>
+        <v>RIDI/98495/272.28</v>
       </c>
       <c r="D39" t="str">
-        <v>-</v>
+        <v>NRN/11910/2,115.27</v>
       </c>
       <c r="E39" t="str">
-        <v>-</v>
+        <v>CGH/23413/985.05</v>
       </c>
       <c r="F39" t="str">
-        <v>-</v>
+        <v>AKPL/79169/275.59</v>
       </c>
     </row>
     <row r="40">
@@ -1217,19 +1217,19 @@
         <v>B48</v>
       </c>
       <c r="B40" t="str">
-        <v>ADBL/-4710/285.84</v>
+        <v>GHL/403166/260.43</v>
       </c>
       <c r="C40" t="str">
-        <v>BHDC/-25581/486.66</v>
+        <v>SHPC/137357/628.13</v>
       </c>
       <c r="D40" t="str">
-        <v>-</v>
+        <v>API/198136/305.85</v>
       </c>
       <c r="E40" t="str">
-        <v>-</v>
+        <v>CBBL/53381/957.58</v>
       </c>
       <c r="F40" t="str">
-        <v>-</v>
+        <v>MEN/50687/624.41</v>
       </c>
     </row>
     <row r="41">
@@ -1237,19 +1237,19 @@
         <v>B49</v>
       </c>
       <c r="B41" t="str">
-        <v>ADBL/76168/298.73</v>
+        <v>SHIVM/95785/514.30</v>
       </c>
       <c r="C41" t="str">
-        <v>BHDC/-4315/476.44</v>
+        <v>RHPL/131309/380.75</v>
       </c>
       <c r="D41" t="str">
-        <v>-</v>
+        <v>AHPC/154107/300.02</v>
       </c>
       <c r="E41" t="str">
-        <v>-</v>
+        <v>NLIC/41081/770.51</v>
       </c>
       <c r="F41" t="str">
-        <v>-</v>
+        <v>HDL/26216/1,204.87</v>
       </c>
     </row>
     <row r="42">
@@ -1257,19 +1257,19 @@
         <v>B50</v>
       </c>
       <c r="B42" t="str">
-        <v>ADBL/25986/297.85</v>
+        <v>RADHI/129538/824.60</v>
       </c>
       <c r="C42" t="str">
-        <v>BHDC/593/480.65</v>
+        <v>UMHL/52236/550.85</v>
       </c>
       <c r="D42" t="str">
-        <v>-</v>
+        <v>NLIC/33874/768.44</v>
       </c>
       <c r="E42" t="str">
-        <v>-</v>
+        <v>SBL/78894/326.56</v>
       </c>
       <c r="F42" t="str">
-        <v>-</v>
+        <v>RNLI/45342/468.51</v>
       </c>
     </row>
     <row r="43">
@@ -1277,19 +1277,19 @@
         <v>B51</v>
       </c>
       <c r="B43" t="str">
-        <v>BHDC/4777/480.86</v>
+        <v>HIDCLP/102700/215.03</v>
       </c>
       <c r="C43" t="str">
-        <v>ADBL/-2722/290.67</v>
+        <v>HDHPC/90766/201.45</v>
       </c>
       <c r="D43" t="str">
-        <v>-</v>
+        <v>CHDC/6711/2,631.74</v>
       </c>
       <c r="E43" t="str">
-        <v>-</v>
+        <v>BHL/59205/212.44</v>
       </c>
       <c r="F43" t="str">
-        <v>-</v>
+        <v>HIDCL/41264/300.89</v>
       </c>
     </row>
     <row r="44">
@@ -1297,19 +1297,19 @@
         <v>B52</v>
       </c>
       <c r="B44" t="str">
-        <v>ADBL/34762/296.25</v>
+        <v>SHPC/46699/620.30</v>
       </c>
       <c r="C44" t="str">
-        <v>BHDC/7522/484.44</v>
+        <v>HIDCLP/80698/216.48</v>
       </c>
       <c r="D44" t="str">
-        <v>-</v>
+        <v>DORDI/46140/324.61</v>
       </c>
       <c r="E44" t="str">
-        <v>-</v>
+        <v>SHIVM/27364/512.12</v>
       </c>
       <c r="F44" t="str">
-        <v>-</v>
+        <v>RADHI/17823/802.95</v>
       </c>
     </row>
     <row r="45">
@@ -1317,19 +1317,19 @@
         <v>B53</v>
       </c>
       <c r="B45" t="str">
-        <v>BHDC/3783/477.22</v>
+        <v>MLBL/49893/387.55</v>
       </c>
       <c r="C45" t="str">
-        <v>ADBL/1338/284.99</v>
+        <v>SHPC/28424/619.42</v>
       </c>
       <c r="D45" t="str">
-        <v>-</v>
+        <v>SHL/27778/569.39</v>
       </c>
       <c r="E45" t="str">
-        <v>-</v>
+        <v>AKPL/43598/271.98</v>
       </c>
       <c r="F45" t="str">
-        <v>-</v>
+        <v>AHPC/38152/291.51</v>
       </c>
     </row>
     <row r="46">
@@ -1337,19 +1337,19 @@
         <v>B54</v>
       </c>
       <c r="B46" t="str">
-        <v>BHDC/-661/470.65</v>
+        <v>UPCL/213500/455.11</v>
       </c>
       <c r="C46" t="str">
-        <v>ADBL/-4377/285.26</v>
+        <v>STC/14680/5,011.84</v>
       </c>
       <c r="D46" t="str">
-        <v>-</v>
+        <v>CHCL/39903/565.39</v>
       </c>
       <c r="E46" t="str">
-        <v>-</v>
+        <v>SHEL/70847/305.62</v>
       </c>
       <c r="F46" t="str">
-        <v>-</v>
+        <v>SWBBL/22650/828.12</v>
       </c>
     </row>
     <row r="47">
@@ -1357,19 +1357,19 @@
         <v>B55</v>
       </c>
       <c r="B47" t="str">
-        <v>ADBL/1235/290.98</v>
+        <v>NRIC/595529/1,307.77</v>
       </c>
       <c r="C47" t="str">
-        <v>BHDC/-2384/481.78</v>
+        <v>GMLI/85277/2,344.41</v>
       </c>
       <c r="D47" t="str">
-        <v>-</v>
+        <v>NMIC/84611/1,681.30</v>
       </c>
       <c r="E47" t="str">
-        <v>-</v>
+        <v>CHDC/7706/2,624.98</v>
       </c>
       <c r="F47" t="str">
-        <v>-</v>
+        <v>SHPC/27215/626.62</v>
       </c>
     </row>
     <row r="48">
@@ -1377,19 +1377,19 @@
         <v>B56</v>
       </c>
       <c r="B48" t="str">
-        <v>BHDC/42984/485.65</v>
+        <v>BPCL/222089/801.15</v>
       </c>
       <c r="C48" t="str">
-        <v>ADBL/-4747/295.94</v>
+        <v>SARBTM/114113/852.64</v>
       </c>
       <c r="D48" t="str">
-        <v>-</v>
+        <v>SBL/138071/317.54</v>
       </c>
       <c r="E48" t="str">
-        <v>-</v>
+        <v>SLBSL/20024/1,377.09</v>
       </c>
       <c r="F48" t="str">
-        <v>-</v>
+        <v>NRN/10957/2,123.58</v>
       </c>
     </row>
     <row r="49">
@@ -1397,19 +1397,19 @@
         <v>B57</v>
       </c>
       <c r="B49" t="str">
-        <v>BHDC/5540/476.26</v>
+        <v>UPCL/73416/446.72</v>
       </c>
       <c r="C49" t="str">
-        <v>ADBL/-9667/290.39</v>
+        <v>SAPDBL/31583/1,055.53</v>
       </c>
       <c r="D49" t="str">
-        <v>-</v>
+        <v>RADHI/43207/807.03</v>
       </c>
       <c r="E49" t="str">
-        <v>-</v>
+        <v>CHCL/54660/569.35</v>
       </c>
       <c r="F49" t="str">
-        <v>-</v>
+        <v>HIDCLP/136959/214.43</v>
       </c>
     </row>
     <row r="50">
@@ -1417,19 +1417,19 @@
         <v>B58</v>
       </c>
       <c r="B50" t="str">
-        <v>BHDC/4060/494.00</v>
+        <v>NRN/111674/2,085.08</v>
       </c>
       <c r="C50" t="str">
-        <v>ADBL/-23137/290.94</v>
+        <v>HPPL/297833/559.11</v>
       </c>
       <c r="D50" t="str">
-        <v>-</v>
+        <v>SHPC/261424/619.02</v>
       </c>
       <c r="E50" t="str">
-        <v>-</v>
+        <v>HIDCLP/692131/219.46</v>
       </c>
       <c r="F50" t="str">
-        <v>-</v>
+        <v>PRIN/121741/914.36</v>
       </c>
     </row>
     <row r="51">
@@ -1437,19 +1437,19 @@
         <v>B59</v>
       </c>
       <c r="B51" t="str">
-        <v>BHDC/9145/482.28</v>
+        <v>RADHI/47998/813.60</v>
       </c>
       <c r="C51" t="str">
-        <v>ADBL/264/292.18</v>
+        <v>SHEL/76575/302.87</v>
       </c>
       <c r="D51" t="str">
-        <v>-</v>
+        <v>SHIVM/46079/515.00</v>
       </c>
       <c r="E51" t="str">
-        <v>-</v>
+        <v>AHPC/72998/299.69</v>
       </c>
       <c r="F51" t="str">
-        <v>-</v>
+        <v>SHPC/33049/623.32</v>
       </c>
     </row>
     <row r="52">
@@ -1457,19 +1457,19 @@
         <v>B60</v>
       </c>
       <c r="B52" t="str">
-        <v>ADBL/3446/293.47</v>
+        <v>BPCL/65591/807.97</v>
       </c>
       <c r="C52" t="str">
-        <v>BHDC/-1728/481.82</v>
+        <v>GRDBL/26562/1,417.04</v>
       </c>
       <c r="D52" t="str">
-        <v>-</v>
+        <v>SHPC/42142/647.80</v>
       </c>
       <c r="E52" t="str">
-        <v>-</v>
+        <v>PMHPL/43821/409.77</v>
       </c>
       <c r="F52" t="str">
-        <v>-</v>
+        <v>MBJC/48103/342.01</v>
       </c>
     </row>
     <row r="53">
@@ -1477,19 +1477,19 @@
         <v>B61</v>
       </c>
       <c r="B53" t="str">
-        <v>BHDC/2589/491.41</v>
+        <v>CHDC/10874/2,636.66</v>
       </c>
       <c r="C53" t="str">
-        <v>ADBL/230/299.24</v>
+        <v>NRN/7238/2,083.67</v>
       </c>
       <c r="D53" t="str">
-        <v>-</v>
+        <v>SANIMA/32257/337.12</v>
       </c>
       <c r="E53" t="str">
-        <v>-</v>
+        <v>SBL/24770/330.39</v>
       </c>
       <c r="F53" t="str">
-        <v>-</v>
+        <v>PHCL/12709/514.50</v>
       </c>
     </row>
     <row r="54">
@@ -1497,19 +1497,19 @@
         <v>B62</v>
       </c>
       <c r="B54" t="str">
-        <v>BHDC/24095/477.79</v>
+        <v>UNHPL/447834/428.74</v>
       </c>
       <c r="C54" t="str">
-        <v>ADBL/3167/299.90</v>
+        <v>UMHL/200397/539.75</v>
       </c>
       <c r="D54" t="str">
-        <v>-</v>
+        <v>NGPL/101196/407.29</v>
       </c>
       <c r="E54" t="str">
-        <v>-</v>
+        <v>NICA/115167/353.06</v>
       </c>
       <c r="F54" t="str">
-        <v>-</v>
+        <v>SPDL/85085/430.05</v>
       </c>
     </row>
     <row r="55">
@@ -1517,19 +1517,19 @@
         <v>B63</v>
       </c>
       <c r="B55" t="str">
-        <v>ADBL/2714/286.97</v>
+        <v>RADHI/58933/814.84</v>
       </c>
       <c r="C55" t="str">
-        <v>BHDC/1064/476.57</v>
+        <v>GBIME/91320/240.73</v>
       </c>
       <c r="D55" t="str">
-        <v>-</v>
+        <v>UPCL/46206/436.08</v>
       </c>
       <c r="E55" t="str">
-        <v>-</v>
+        <v>CHDC/7480/2,617.37</v>
       </c>
       <c r="F55" t="str">
-        <v>-</v>
+        <v>NBL/50444/255.00</v>
       </c>
     </row>
     <row r="56">
@@ -1537,19 +1537,19 @@
         <v>B64</v>
       </c>
       <c r="B56" t="str">
-        <v>BHDC/6084/482.86</v>
+        <v>BPCL/484298/809.18</v>
       </c>
       <c r="C56" t="str">
-        <v>ADBL/-2124/289.84</v>
+        <v>SANIMA/98574/335.09</v>
       </c>
       <c r="D56" t="str">
-        <v>-</v>
+        <v>SBL/77298/339.24</v>
       </c>
       <c r="E56" t="str">
-        <v>-</v>
+        <v>MERO/34688/741.65</v>
       </c>
       <c r="F56" t="str">
-        <v>-</v>
+        <v>ALICL/43248/531.37</v>
       </c>
     </row>
     <row r="57">
@@ -1557,19 +1557,19 @@
         <v>B65</v>
       </c>
       <c r="B57" t="str">
-        <v>BHDC/11139/482.73</v>
+        <v>SPIL/78463/810.37</v>
       </c>
       <c r="C57" t="str">
-        <v>ADBL/-15944/288.85</v>
+        <v>NBL/154464/262.14</v>
       </c>
       <c r="D57" t="str">
-        <v>-</v>
+        <v>HPPL/71385/551.09</v>
       </c>
       <c r="E57" t="str">
-        <v>-</v>
+        <v>SMHL/30194/1,006.52</v>
       </c>
       <c r="F57" t="str">
-        <v>-</v>
+        <v>PCBL/112943/242.88</v>
       </c>
     </row>
     <row r="58">
@@ -1577,19 +1577,19 @@
         <v>B66</v>
       </c>
       <c r="B58" t="str">
-        <v>BHDC/5752/500.21</v>
+        <v>SHPC/123031/630.85</v>
       </c>
       <c r="C58" t="str">
-        <v>ADBL/-1324/294.43</v>
+        <v>API/162469/294.46</v>
       </c>
       <c r="D58" t="str">
-        <v>-</v>
+        <v>NRN/14547/2,131.92</v>
       </c>
       <c r="E58" t="str">
-        <v>-</v>
+        <v>SAHAS/23040/595.44</v>
       </c>
       <c r="F58" t="str">
-        <v>-</v>
+        <v>AHPC/53537/295.28</v>
       </c>
     </row>
     <row r="59">
@@ -1597,19 +1597,19 @@
         <v>B67</v>
       </c>
       <c r="B59" t="str">
-        <v>ADBL/1031/301.97</v>
+        <v>BPCL/60115/819.03</v>
       </c>
       <c r="C59" t="str">
-        <v>BHDC/459/477.69</v>
+        <v>UMHL/58432/519.31</v>
       </c>
       <c r="D59" t="str">
-        <v>-</v>
+        <v>MEN/41980/622.78</v>
       </c>
       <c r="E59" t="str">
-        <v>-</v>
+        <v>NGPL/62531/408.40</v>
       </c>
       <c r="F59" t="str">
-        <v>-</v>
+        <v>UPCL/41038/444.87</v>
       </c>
     </row>
     <row r="60">
@@ -1617,19 +1617,19 @@
         <v>B68</v>
       </c>
       <c r="B60" t="str">
-        <v>BHDC/4357/492.13</v>
+        <v>UPCL/109126/448.91</v>
       </c>
       <c r="C60" t="str">
-        <v>ADBL/-4141/288.24</v>
+        <v>HIDCLP/170091/212.90</v>
       </c>
       <c r="D60" t="str">
-        <v>-</v>
+        <v>SHPC/32149/623.91</v>
       </c>
       <c r="E60" t="str">
-        <v>-</v>
+        <v>CGH/12604/1,014.33</v>
       </c>
       <c r="F60" t="str">
-        <v>-</v>
+        <v>AHPC/30702/306.05</v>
       </c>
     </row>
     <row r="61">
@@ -1637,19 +1637,19 @@
         <v>B69</v>
       </c>
       <c r="B61" t="str">
-        <v>BHDC/1299/496.04</v>
+        <v>BPCL/100567/813.18</v>
       </c>
       <c r="C61" t="str">
-        <v>ADBL/970/286.00</v>
+        <v>SHL/71149/579.56</v>
       </c>
       <c r="D61" t="str">
-        <v>-</v>
+        <v>SAHAS/57345/581.02</v>
       </c>
       <c r="E61" t="str">
-        <v>-</v>
+        <v>SPDL/68526/429.51</v>
       </c>
       <c r="F61" t="str">
-        <v>-</v>
+        <v>GFCL/32870/641.40</v>
       </c>
     </row>
     <row r="62">
@@ -1657,19 +1657,19 @@
         <v>B70</v>
       </c>
       <c r="B62" t="str">
+        <v>BEDC/69893/698.46</v>
+      </c>
+      <c r="C62" t="str">
+        <v>UNHPL/98601/429.28</v>
+      </c>
+      <c r="D62" t="str">
         <v>BHDC/52528/504.66</v>
       </c>
-      <c r="C62" t="str">
-        <v>ADBL/-1060/296.70</v>
-      </c>
-      <c r="D62" t="str">
-        <v>-</v>
-      </c>
       <c r="E62" t="str">
-        <v>-</v>
+        <v>UPCL/40096/446.28</v>
       </c>
       <c r="F62" t="str">
-        <v>-</v>
+        <v>PMHPL/31742/407.27</v>
       </c>
     </row>
     <row r="63">
@@ -1677,19 +1677,19 @@
         <v>B71</v>
       </c>
       <c r="B63" t="str">
-        <v>BHDC/3613/501.71</v>
+        <v>UNHPL/47335/427.77</v>
       </c>
       <c r="C63" t="str">
-        <v>ADBL/3789/292.42</v>
+        <v>SPIL/24414/820.71</v>
       </c>
       <c r="D63" t="str">
-        <v>-</v>
+        <v>CORBL/7653/2,386.35</v>
       </c>
       <c r="E63" t="str">
-        <v>-</v>
+        <v>CHDC/6706/2,623.59</v>
       </c>
       <c r="F63" t="str">
-        <v>-</v>
+        <v>UPCL/33339/442.46</v>
       </c>
     </row>
     <row r="64">
@@ -1697,584 +1697,604 @@
         <v>B72</v>
       </c>
       <c r="B64" t="str">
-        <v>BHDC/4549/485.84</v>
+        <v>SINDU/80922/895.59</v>
       </c>
       <c r="C64" t="str">
-        <v>ADBL/-155/298.48</v>
+        <v>SAPDBL/43824/1,054.71</v>
       </c>
       <c r="D64" t="str">
-        <v>-</v>
+        <v>RADHI/27660/810.87</v>
       </c>
       <c r="E64" t="str">
-        <v>-</v>
+        <v>KBL/43455/205.83</v>
       </c>
       <c r="F64" t="str">
-        <v>-</v>
+        <v>CORBL/966/2,500.42</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>B74</v>
+        <v>B73</v>
       </c>
       <c r="B65" t="str">
-        <v>ADBL/12131/286.81</v>
+        <v>NRM/1200/443.65</v>
       </c>
       <c r="C65" t="str">
-        <v>BHDC/-3644/475.73</v>
+        <v>NICA/1000/343.00</v>
       </c>
       <c r="D65" t="str">
-        <v>-</v>
+        <v>CHDC/82/2,712.71</v>
       </c>
       <c r="E65" t="str">
-        <v>-</v>
+        <v>BARUN/500/420.50</v>
       </c>
       <c r="F65" t="str">
-        <v>-</v>
+        <v>PMHPL/380/368.00</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>B75</v>
+        <v>B74</v>
       </c>
       <c r="B66" t="str">
-        <v>ADBL/1603/295.04</v>
+        <v>RADHI/59367/829.41</v>
       </c>
       <c r="C66" t="str">
-        <v>BHDC/-164/472.12</v>
+        <v>CZBIL/120340/209.85</v>
       </c>
       <c r="D66" t="str">
-        <v>-</v>
+        <v>PCBL/58662/252.73</v>
       </c>
       <c r="E66" t="str">
-        <v>-</v>
+        <v>UNHPL/34738/423.80</v>
       </c>
       <c r="F66" t="str">
-        <v>-</v>
+        <v>NLIC/18494/756.80</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>B76</v>
+        <v>B75</v>
       </c>
       <c r="B67" t="str">
-        <v>BHDC/2618/479.80</v>
+        <v>SHPC/48950/633.10</v>
       </c>
       <c r="C67" t="str">
-        <v>ADBL/-246/0.00</v>
+        <v>SAHAS/43220/578.59</v>
       </c>
       <c r="D67" t="str">
-        <v>-</v>
+        <v>CGH/21560/993.65</v>
       </c>
       <c r="E67" t="str">
-        <v>-</v>
+        <v>SANIMA/43194/332.08</v>
       </c>
       <c r="F67" t="str">
-        <v>-</v>
+        <v>GBIME/50776/241.36</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>B77</v>
+        <v>B76</v>
       </c>
       <c r="B68" t="str">
-        <v>BHDC/30539/495.24</v>
+        <v>BPCL/83535/814.28</v>
       </c>
       <c r="C68" t="str">
-        <v>ADBL/1186/300.91</v>
+        <v>SHIVM/16051/514.56</v>
       </c>
       <c r="D68" t="str">
-        <v>-</v>
+        <v>SAHAS/5762/596.34</v>
       </c>
       <c r="E68" t="str">
-        <v>-</v>
+        <v>MNBBL/6984/361.06</v>
       </c>
       <c r="F68" t="str">
-        <v>-</v>
+        <v>API/6759/297.82</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>B78</v>
+        <v>B77</v>
       </c>
       <c r="B69" t="str">
-        <v>BHDC/200/471.13</v>
+        <v>NGPL/334862/413.44</v>
       </c>
       <c r="C69" t="str">
-        <v>ADBL/-58/0.00</v>
+        <v>BPCL/83915/812.62</v>
       </c>
       <c r="D69" t="str">
-        <v>-</v>
+        <v>NRN/30546/2,132.79</v>
       </c>
       <c r="E69" t="str">
-        <v>-</v>
+        <v>CHDC/12492/2,631.98</v>
       </c>
       <c r="F69" t="str">
-        <v>-</v>
+        <v>HIDCLP/144975/218.26</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>B79</v>
+        <v>B78</v>
       </c>
       <c r="B70" t="str">
-        <v>BHDC/-10/0.00</v>
+        <v>RFPL/15652/609.21</v>
       </c>
       <c r="C70" t="str">
-        <v>ADBL/-309/284.00</v>
+        <v>GVL/17524/472.35</v>
       </c>
       <c r="D70" t="str">
-        <v>-</v>
+        <v>HIDCLP/33918/216.42</v>
       </c>
       <c r="E70" t="str">
-        <v>-</v>
+        <v>HDL/4578/1,225.81</v>
       </c>
       <c r="F70" t="str">
-        <v>-</v>
+        <v>OMPL/3781/1,403.74</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>B80</v>
+        <v>B79</v>
       </c>
       <c r="B71" t="str">
-        <v>ADBL/21644/297.41</v>
+        <v>SMPDA/1414/927.99</v>
       </c>
       <c r="C71" t="str">
-        <v>BHDC/7197/503.25</v>
+        <v>SHIVM/1949/518.76</v>
       </c>
       <c r="D71" t="str">
-        <v>-</v>
+        <v>SSHL/3084/254.13</v>
       </c>
       <c r="E71" t="str">
-        <v>-</v>
+        <v>NABIL/1230/491.97</v>
       </c>
       <c r="F71" t="str">
-        <v>-</v>
+        <v>PRVU/2363/205.02</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>B81</v>
+        <v>B80</v>
       </c>
       <c r="B72" t="str">
-        <v>BHDC/558/490.19</v>
+        <v>CGH/17722/982.66</v>
       </c>
       <c r="C72" t="str">
-        <v>ADBL/-1134/293.26</v>
+        <v>MEN/30762/598.50</v>
       </c>
       <c r="D72" t="str">
-        <v>-</v>
+        <v>BPCL/19812/825.02</v>
       </c>
       <c r="E72" t="str">
-        <v>-</v>
+        <v>NRN/6262/2,140.63</v>
       </c>
       <c r="F72" t="str">
-        <v>-</v>
+        <v>DORDI/28306/339.73</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>B82</v>
+        <v>B81</v>
       </c>
       <c r="B73" t="str">
-        <v>ADBL/2093/281.92</v>
+        <v>CHCL/217591/560.41</v>
       </c>
       <c r="C73" t="str">
-        <v>BHDC/123/476.26</v>
+        <v>RADHI/60400/818.31</v>
       </c>
       <c r="D73" t="str">
-        <v>-</v>
+        <v>BPCL/51426/810.23</v>
       </c>
       <c r="E73" t="str">
-        <v>-</v>
+        <v>HRL/31466/930.27</v>
       </c>
       <c r="F73" t="str">
-        <v>-</v>
+        <v>UPCL/42649/444.99</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>B83</v>
+        <v>B82</v>
       </c>
       <c r="B74" t="str">
-        <v>BHDC/-1232/0.00</v>
+        <v>RADHI/37245/811.68</v>
       </c>
       <c r="C74" t="str">
-        <v>ADBL/-2680/0.00</v>
+        <v>NGPL/30166/411.53</v>
       </c>
       <c r="D74" t="str">
-        <v>-</v>
+        <v>UNHPL/25519/441.47</v>
       </c>
       <c r="E74" t="str">
-        <v>-</v>
+        <v>TPC/26563/421.77</v>
       </c>
       <c r="F74" t="str">
-        <v>-</v>
+        <v>CGH/8053/981.46</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>B84</v>
+        <v>B83</v>
       </c>
       <c r="B75" t="str">
-        <v>BHDC/7253/520.91</v>
+        <v>BPCL/43679/856.59</v>
       </c>
       <c r="C75" t="str">
-        <v>ADBL/3237/284.72</v>
+        <v>LICN/13991/899.23</v>
       </c>
       <c r="D75" t="str">
-        <v>-</v>
+        <v>GRDBL/8221/1,309.59</v>
       </c>
       <c r="E75" t="str">
-        <v>-</v>
+        <v>HRL/11329/916.16</v>
       </c>
       <c r="F75" t="str">
-        <v>-</v>
+        <v>PMHPL/28060/393.58</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>B85</v>
+        <v>B84</v>
       </c>
       <c r="B76" t="str">
-        <v>ADBL/30/296.20</v>
+        <v>MKHL/148954/759.35</v>
       </c>
       <c r="C76" t="str">
-        <v>BHDC/-1800/486.89</v>
+        <v>NGPL/204944/401.61</v>
       </c>
       <c r="D76" t="str">
-        <v>-</v>
+        <v>UPCL/165245/435.72</v>
       </c>
       <c r="E76" t="str">
-        <v>-</v>
+        <v>BPCL/43809/799.61</v>
       </c>
       <c r="F76" t="str">
-        <v>-</v>
+        <v>HIDCL/62786/306.39</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>B86</v>
+        <v>B85</v>
       </c>
       <c r="B77" t="str">
-        <v>ADBL/-100/0.00</v>
+        <v>SAHAS/49745/583.60</v>
       </c>
       <c r="C77" t="str">
-        <v>BHDC/-1133/491.83</v>
+        <v>AHPC/44988/302.05</v>
       </c>
       <c r="D77" t="str">
-        <v>-</v>
+        <v>SHPC/20797/624.42</v>
       </c>
       <c r="E77" t="str">
-        <v>-</v>
+        <v>AKPL/46230/277.21</v>
       </c>
       <c r="F77" t="str">
-        <v>-</v>
+        <v>API/41578/306.13</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>B87</v>
+        <v>B86</v>
       </c>
       <c r="B78" t="str">
-        <v>BHDC/670/494.83</v>
+        <v>SHPC/17685/639.55</v>
       </c>
       <c r="C78" t="str">
-        <v>ADBL/-19/286.70</v>
+        <v>HURJA/26482/262.09</v>
       </c>
       <c r="D78" t="str">
-        <v>-</v>
+        <v>DORDI/20743/333.20</v>
       </c>
       <c r="E78" t="str">
-        <v>-</v>
+        <v>CHCL/11599/571.42</v>
       </c>
       <c r="F78" t="str">
-        <v>-</v>
+        <v>UPCL/13776/432.94</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>B88</v>
+        <v>B87</v>
       </c>
       <c r="B79" t="str">
-        <v>ADBL/1372/287.26</v>
+        <v>BPCL/79971/819.78</v>
       </c>
       <c r="C79" t="str">
-        <v>BHDC/-110/487.19</v>
+        <v>ANLB/2660/5,439.08</v>
       </c>
       <c r="D79" t="str">
-        <v>-</v>
+        <v>PMHPL/33321/407.34</v>
       </c>
       <c r="E79" t="str">
-        <v>-</v>
+        <v>GCIL/20351/509.53</v>
       </c>
       <c r="F79" t="str">
-        <v>-</v>
+        <v>ULBSL/2332/3,239.09</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>B89</v>
+        <v>B88</v>
       </c>
       <c r="B80" t="str">
-        <v>ADBL/-8/286.70</v>
+        <v>PMHPL/166033/405.45</v>
       </c>
       <c r="C80" t="str">
-        <v>BHDC/-8/473.29</v>
+        <v>RADHI/34859/813.64</v>
       </c>
       <c r="D80" t="str">
-        <v>-</v>
+        <v>CHCL/39987/561.79</v>
       </c>
       <c r="E80" t="str">
-        <v>-</v>
+        <v>NHPC/82825/221.09</v>
       </c>
       <c r="F80" t="str">
-        <v>-</v>
+        <v>GRDBL/10904/1,369.71</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>B90</v>
+        <v>B89</v>
       </c>
       <c r="B81" t="str">
-        <v>BHDC/300/449.02</v>
+        <v>SHPC/23794/613.88</v>
       </c>
       <c r="C81" t="str">
-        <v>ADBL/-163/285.42</v>
+        <v>DORDI/26748/342.12</v>
       </c>
       <c r="D81" t="str">
-        <v>-</v>
+        <v>UPCL/20851/431.41</v>
       </c>
       <c r="E81" t="str">
-        <v>-</v>
+        <v>UNHPL/19440/430.42</v>
       </c>
       <c r="F81" t="str">
-        <v>-</v>
+        <v>TPC/13868/418.05</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>B91</v>
+        <v>B90</v>
       </c>
       <c r="B82" t="str">
-        <v>ADBL/-2268/292.45</v>
+        <v>API/70960/307.13</v>
       </c>
       <c r="C82" t="str">
-        <v>BHDC/-11075/483.06</v>
+        <v>SHPC/12077/627.42</v>
       </c>
       <c r="D82" t="str">
-        <v>-</v>
+        <v>EBL/10936/649.96</v>
       </c>
       <c r="E82" t="str">
-        <v>-</v>
+        <v>HRL/7508/935.26</v>
       </c>
       <c r="F82" t="str">
-        <v>-</v>
+        <v>HBL/22382/222.22</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>B92</v>
+        <v>B91</v>
       </c>
       <c r="B83" t="str">
-        <v>BHDC/324/464.04</v>
+        <v>RADHI/40366/804.75</v>
       </c>
       <c r="C83" t="str">
-        <v>ADBL/-500/0.00</v>
+        <v>SHPC/45244/615.41</v>
       </c>
       <c r="D83" t="str">
-        <v>-</v>
+        <v>BPCL/15420/807.90</v>
       </c>
       <c r="E83" t="str">
-        <v>-</v>
+        <v>DORDI/24269/344.22</v>
       </c>
       <c r="F83" t="str">
-        <v>-</v>
+        <v>MEN/12417/617.62</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>B93</v>
+        <v>B92</v>
       </c>
       <c r="B84" t="str">
-        <v>ADBL/0/300.00</v>
+        <v>UPCL/55542/430.96</v>
       </c>
       <c r="C84" t="str">
-        <v>BHDC/-224/0.00</v>
+        <v>HIDCL/69616/296.17</v>
       </c>
       <c r="D84" t="str">
-        <v>-</v>
+        <v>HRL/15070/899.04</v>
       </c>
       <c r="E84" t="str">
-        <v>-</v>
+        <v>HPPL/22536/539.95</v>
       </c>
       <c r="F84" t="str">
-        <v>-</v>
+        <v>MEN/10311/624.62</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>B94</v>
+        <v>B93</v>
       </c>
       <c r="B85" t="str">
-        <v>ADBL/636/293.53</v>
+        <v>HIDCL/25950/294.00</v>
       </c>
       <c r="C85" t="str">
-        <v>BHDC/-4918/466.63</v>
+        <v>CHCL/6501/552.31</v>
       </c>
       <c r="D85" t="str">
-        <v>-</v>
+        <v>AKPL/10300/286.58</v>
       </c>
       <c r="E85" t="str">
-        <v>-</v>
+        <v>LEC/13270/224.11</v>
       </c>
       <c r="F85" t="str">
-        <v>-</v>
+        <v>BPCL/3420/839.29</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>B95</v>
+        <v>B94</v>
       </c>
       <c r="B86" t="str">
-        <v>BHDC/18067/497.89</v>
+        <v>BPCL/96574/813.68</v>
       </c>
       <c r="C86" t="str">
-        <v>ADBL/-203/299.43</v>
+        <v>SHEL/178723/297.38</v>
       </c>
       <c r="D86" t="str">
-        <v>-</v>
+        <v>NGPL/120369/400.80</v>
       </c>
       <c r="E86" t="str">
-        <v>-</v>
+        <v>SBL/116510/327.43</v>
       </c>
       <c r="F86" t="str">
-        <v>-</v>
+        <v>HIDCLP/164170/216.63</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>B96</v>
+        <v>B95</v>
       </c>
       <c r="B87" t="str">
-        <v>BHDC/9810/481.22</v>
+        <v>RADHI/24277/822.13</v>
       </c>
       <c r="C87" t="str">
-        <v>ADBL/14276/303.67</v>
+        <v>NRIC/14709/1,283.19</v>
       </c>
       <c r="D87" t="str">
-        <v>-</v>
+        <v>SHPC/19823/624.92</v>
       </c>
       <c r="E87" t="str">
-        <v>-</v>
+        <v>NGPL/29916/406.11</v>
       </c>
       <c r="F87" t="str">
-        <v>-</v>
+        <v>HPPL/18245/552.76</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>B97</v>
+        <v>B96</v>
       </c>
       <c r="B88" t="str">
-        <v>BHDC/13963/510.29</v>
+        <v>BPCL/134216/815.41</v>
       </c>
       <c r="C88" t="str">
-        <v>-</v>
+        <v>NRN/24595/2,045.74</v>
       </c>
       <c r="D88" t="str">
-        <v>-</v>
+        <v>RADHI/16916/817.21</v>
       </c>
       <c r="E88" t="str">
-        <v>-</v>
+        <v>UNHPL/29682/435.82</v>
       </c>
       <c r="F88" t="str">
-        <v>-</v>
+        <v>NLIC/14969/798.26</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>B98</v>
+        <v>B97</v>
       </c>
       <c r="B89" t="str">
-        <v>BHDC/700/476.30</v>
+        <v>GHL/45340/255.72</v>
       </c>
       <c r="C89" t="str">
-        <v>-</v>
+        <v>NRIC/8690/1,311.86</v>
       </c>
       <c r="D89" t="str">
-        <v>-</v>
+        <v>PRIN/9460/915.82</v>
       </c>
       <c r="E89" t="str">
-        <v>-</v>
+        <v>BHDC/13963/510.29</v>
       </c>
       <c r="F89" t="str">
-        <v>-</v>
+        <v>SAHAS/11212/596.52</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>B99</v>
+        <v>B98</v>
       </c>
       <c r="B90" t="str">
-        <v>BHDC/-10/0.00</v>
+        <v>BPCL/37740/791.77</v>
       </c>
       <c r="C90" t="str">
-        <v>ADBL/-63/0.00</v>
+        <v>SCB/15312/611.50</v>
       </c>
       <c r="D90" t="str">
-        <v>-</v>
+        <v>CHDC/3557/2,619.98</v>
       </c>
       <c r="E90" t="str">
-        <v>-</v>
+        <v>RIDI/27650/284.81</v>
       </c>
       <c r="F90" t="str">
-        <v>-</v>
+        <v>EBL/11291/643.08</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>B100</v>
+        <v>B99</v>
       </c>
       <c r="B91" t="str">
-        <v>ADBL/2022/282.00</v>
+        <v>BARUN/132464/425.51</v>
       </c>
       <c r="C91" t="str">
-        <v>BHDC/-11/455.07</v>
+        <v>SAHAS/14587/587.42</v>
       </c>
       <c r="D91" t="str">
-        <v>-</v>
+        <v>CGH/7135/984.91</v>
       </c>
       <c r="E91" t="str">
-        <v>-</v>
+        <v>HRL/7745/924.21</v>
       </c>
       <c r="F91" t="str">
-        <v>-</v>
+        <v>NGPL/11991/402.74</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
+        <v>B100</v>
+      </c>
+      <c r="B92" t="str">
+        <v>API/165046/295.75</v>
+      </c>
+      <c r="C92" t="str">
+        <v>MLBL/120760/388.51</v>
+      </c>
+      <c r="D92" t="str">
+        <v>NGPL/74958/393.64</v>
+      </c>
+      <c r="E92" t="str">
+        <v>CHDC/10322/2,690.93</v>
+      </c>
+      <c r="F92" t="str">
+        <v>HURJA/97938/262.26</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
         <v>B101</v>
       </c>
-      <c r="B92" t="str">
-        <v>ADBL/-48/0.00</v>
-      </c>
-      <c r="C92" t="str">
-        <v>BHDC/-800/0.00</v>
-      </c>
-      <c r="D92" t="str">
-        <v>-</v>
-      </c>
-      <c r="E92" t="str">
-        <v>-</v>
-      </c>
-      <c r="F92" t="str">
-        <v>-</v>
+      <c r="B93" t="str">
+        <v>NGPL/51687/406.37</v>
+      </c>
+      <c r="C93" t="str">
+        <v>RADHI/15498/804.00</v>
+      </c>
+      <c r="D93" t="str">
+        <v>SHPC/12511/609.69</v>
+      </c>
+      <c r="E93" t="str">
+        <v>CREST/4976/1,390.68</v>
+      </c>
+      <c r="F93" t="str">
+        <v>BPCL/7422/815.28</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F92"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F93"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/Broker_Analysis.xlsx
+++ b/Broker_Analysis.xlsx
@@ -435,13 +435,1874 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Net Holding Brokers (1 M)</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Top 1</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Top 2</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Top 3</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Top 4</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Top 5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>B1</v>
+      </c>
+      <c r="B2" t="str">
+        <v>SHPC/46511/614.32</v>
+      </c>
+      <c r="C2" t="str">
+        <v>CHDC/10685/2,684.69</v>
+      </c>
+      <c r="D2" t="str">
+        <v>SLBBL/27006/999.21</v>
+      </c>
+      <c r="E2" t="str">
+        <v>RADHI/30183/801.82</v>
+      </c>
+      <c r="F2" t="str">
+        <v>SAPDBL/15027/1,057.64</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>B3</v>
+      </c>
+      <c r="B3" t="str">
+        <v>NBL/31596/257.69</v>
+      </c>
+      <c r="C3" t="str">
+        <v>KKHC/17810/357.24</v>
+      </c>
+      <c r="D3" t="str">
+        <v>KSBBL/11012/520.52</v>
+      </c>
+      <c r="E3" t="str">
+        <v>HRL/4787/960.83</v>
+      </c>
+      <c r="F3" t="str">
+        <v>SHPC/8148/603.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>B4</v>
+      </c>
+      <c r="B4" t="str">
+        <v>SBL/261082/347.07</v>
+      </c>
+      <c r="C4" t="str">
+        <v>SHL/130761/570.64</v>
+      </c>
+      <c r="D4" t="str">
+        <v>SPDL/64631/423.90</v>
+      </c>
+      <c r="E4" t="str">
+        <v>CHDC/8648/2,628.31</v>
+      </c>
+      <c r="F4" t="str">
+        <v>SCB/27161/645.69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>B5</v>
+      </c>
+      <c r="B5" t="str">
+        <v>GFCL/22450/709.38</v>
+      </c>
+      <c r="C5" t="str">
+        <v>SHPC/26774/604.44</v>
+      </c>
+      <c r="D5" t="str">
+        <v>UPCL/35123/411.92</v>
+      </c>
+      <c r="E5" t="str">
+        <v>CHDC/4695/2,654.22</v>
+      </c>
+      <c r="F5" t="str">
+        <v>MLBBL/5421/1,594.21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>B6</v>
+      </c>
+      <c r="B6" t="str">
+        <v>BPCL/45053/869.95</v>
+      </c>
+      <c r="C6" t="str">
+        <v>UPCL/100244/409.04</v>
+      </c>
+      <c r="D6" t="str">
+        <v>NGPL/83797/395.38</v>
+      </c>
+      <c r="E6" t="str">
+        <v>SPIL/39267/804.60</v>
+      </c>
+      <c r="F6" t="str">
+        <v>NICA/72679/397.72</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>B7</v>
+      </c>
+      <c r="B7" t="str">
+        <v>HIDCLP/184078/208.29</v>
+      </c>
+      <c r="C7" t="str">
+        <v>HRL/18041/993.73</v>
+      </c>
+      <c r="D7" t="str">
+        <v>SAPDBL/15024/1,058.92</v>
+      </c>
+      <c r="E7" t="str">
+        <v>HDL/11225/1,236.58</v>
+      </c>
+      <c r="F7" t="str">
+        <v>NLIC/15322/802.42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>B8</v>
+      </c>
+      <c r="B8" t="str">
+        <v>RADHI/60501/801.28</v>
+      </c>
+      <c r="C8" t="str">
+        <v>NGPL/96907/400.61</v>
+      </c>
+      <c r="D8" t="str">
+        <v>BARUN/41941/423.67</v>
+      </c>
+      <c r="E8" t="str">
+        <v>NABBC/10388/1,609.20</v>
+      </c>
+      <c r="F8" t="str">
+        <v>SHEL/40286/298.05</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>B10</v>
+      </c>
+      <c r="B9" t="str">
+        <v>RFPL/91580/610.95</v>
+      </c>
+      <c r="C9" t="str">
+        <v>HDL/17321/1,204.43</v>
+      </c>
+      <c r="D9" t="str">
+        <v>HRL/17205/927.60</v>
+      </c>
+      <c r="E9" t="str">
+        <v>SAHAS/18560/601.06</v>
+      </c>
+      <c r="F9" t="str">
+        <v>LEC/46229/213.98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>B11</v>
+      </c>
+      <c r="B10" t="str">
+        <v>EBL/105823/700.87</v>
+      </c>
+      <c r="C10" t="str">
+        <v>NMB/71925/263.76</v>
+      </c>
+      <c r="D10" t="str">
+        <v>SAPDBL/11939/1,062.07</v>
+      </c>
+      <c r="E10" t="str">
+        <v>SINDU/9829/833.32</v>
+      </c>
+      <c r="F10" t="str">
+        <v>HIDCL/23951/293.61</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>B13</v>
+      </c>
+      <c r="B11" t="str">
+        <v>UNHPL/36014/426.41</v>
+      </c>
+      <c r="C11" t="str">
+        <v>SHPC/18115/609.62</v>
+      </c>
+      <c r="D11" t="str">
+        <v>SAPDBL/8517/1,082.23</v>
+      </c>
+      <c r="E11" t="str">
+        <v>RHPL/24241/352.73</v>
+      </c>
+      <c r="F11" t="str">
+        <v>PRIN/8023/911.61</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>B14</v>
+      </c>
+      <c r="B12" t="str">
+        <v>HBL/346606/238.00</v>
+      </c>
+      <c r="C12" t="str">
+        <v>SANIMA/186696/346.46</v>
+      </c>
+      <c r="D12" t="str">
+        <v>SKBBL/55195/902.11</v>
+      </c>
+      <c r="E12" t="str">
+        <v>CGH/48032/987.10</v>
+      </c>
+      <c r="F12" t="str">
+        <v>GBIME/164913/247.31</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>B16</v>
+      </c>
+      <c r="B13" t="str">
+        <v>MEN/164441/620.40</v>
+      </c>
+      <c r="C13" t="str">
+        <v>CHDC/30786/2,615.51</v>
+      </c>
+      <c r="D13" t="str">
+        <v>SHL/100966/563.48</v>
+      </c>
+      <c r="E13" t="str">
+        <v>RADHI/60298/799.25</v>
+      </c>
+      <c r="F13" t="str">
+        <v>HIDCLP/180157/210.32</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>B17</v>
+      </c>
+      <c r="B14" t="str">
+        <v>SANIMA/274117/343.19</v>
+      </c>
+      <c r="C14" t="str">
+        <v>UPCL/224629/415.44</v>
+      </c>
+      <c r="D14" t="str">
+        <v>HRL/89837/952.94</v>
+      </c>
+      <c r="E14" t="str">
+        <v>KBL/373216/217.53</v>
+      </c>
+      <c r="F14" t="str">
+        <v>EBL/110829/669.76</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>B18</v>
+      </c>
+      <c r="B15" t="str">
+        <v>NGPL/113777/395.09</v>
+      </c>
+      <c r="C15" t="str">
+        <v>AKPL/156388/265.31</v>
+      </c>
+      <c r="D15" t="str">
+        <v>SANIMA/52623/370.85</v>
+      </c>
+      <c r="E15" t="str">
+        <v>LICN/20570/904.79</v>
+      </c>
+      <c r="F15" t="str">
+        <v>BARUN/30194/434.01</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>B19</v>
+      </c>
+      <c r="B16" t="str">
+        <v>JBBL/101843/370.96</v>
+      </c>
+      <c r="C16" t="str">
+        <v>UNHPL/44883/443.35</v>
+      </c>
+      <c r="D16" t="str">
+        <v>SHEL/57036/296.28</v>
+      </c>
+      <c r="E16" t="str">
+        <v>UMHL/24006/571.51</v>
+      </c>
+      <c r="F16" t="str">
+        <v>HLI/29970/411.68</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>B20</v>
+      </c>
+      <c r="B17" t="str">
+        <v>SPIL/33838/815.81</v>
+      </c>
+      <c r="C17" t="str">
+        <v>PCBL/92942/257.74</v>
+      </c>
+      <c r="D17" t="str">
+        <v>RADHI/28419/799.84</v>
+      </c>
+      <c r="E17" t="str">
+        <v>CHCL/25806/545.74</v>
+      </c>
+      <c r="F17" t="str">
+        <v>SHPC/17763/617.47</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>B21</v>
+      </c>
+      <c r="B18" t="str">
+        <v>SAPDBL/12987/1,049.47</v>
+      </c>
+      <c r="C18" t="str">
+        <v>BPCL/10915/872.39</v>
+      </c>
+      <c r="D18" t="str">
+        <v>SPDL/31790/412.92</v>
+      </c>
+      <c r="E18" t="str">
+        <v>SHPC/19319/609.42</v>
+      </c>
+      <c r="F18" t="str">
+        <v>MBJC/30385/325.83</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>B22</v>
+      </c>
+      <c r="B19" t="str">
+        <v>HIDCLP/88277/210.29</v>
+      </c>
+      <c r="C19" t="str">
+        <v>LSL/78050/228.17</v>
+      </c>
+      <c r="D19" t="str">
+        <v>NMB/58437/254.71</v>
+      </c>
+      <c r="E19" t="str">
+        <v>SHEL/50415/294.28</v>
+      </c>
+      <c r="F19" t="str">
+        <v>SHPC/23383/608.88</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>B25</v>
+      </c>
+      <c r="B20" t="str">
+        <v>MNBBL/114591/383.24</v>
+      </c>
+      <c r="C20" t="str">
+        <v>KBL/91188/216.03</v>
+      </c>
+      <c r="D20" t="str">
+        <v>AKPL/62824/264.65</v>
+      </c>
+      <c r="E20" t="str">
+        <v>HIDCLP/70126/210.41</v>
+      </c>
+      <c r="F20" t="str">
+        <v>SAHAS/23032/609.68</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>B26</v>
+      </c>
+      <c r="B21" t="str">
+        <v>NICA/114020/406.00</v>
+      </c>
+      <c r="C21" t="str">
+        <v>RADHI/29286/803.54</v>
+      </c>
+      <c r="D21" t="str">
+        <v>CHCL/46183/538.39</v>
+      </c>
+      <c r="E21" t="str">
+        <v>SAHAS/33228/608.86</v>
+      </c>
+      <c r="F21" t="str">
+        <v>MBL/80706/239.97</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>B28</v>
+      </c>
+      <c r="B22" t="str">
+        <v>SAHAS/173161/598.29</v>
+      </c>
+      <c r="C22" t="str">
+        <v>SHEL/323657/291.20</v>
+      </c>
+      <c r="D22" t="str">
+        <v>GBIME/294952/253.03</v>
+      </c>
+      <c r="E22" t="str">
+        <v>MEN/68048/648.57</v>
+      </c>
+      <c r="F22" t="str">
+        <v>BPCL/56218/850.51</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>B29</v>
+      </c>
+      <c r="B23" t="str">
+        <v>UMHL/93578/564.62</v>
+      </c>
+      <c r="C23" t="str">
+        <v>NRN/19123/2,269.02</v>
+      </c>
+      <c r="D23" t="str">
+        <v>JBBL/51894/371.03</v>
+      </c>
+      <c r="E23" t="str">
+        <v>HRL/19844/966.33</v>
+      </c>
+      <c r="F23" t="str">
+        <v>GRDBL/13326/1,391.93</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>B32</v>
+      </c>
+      <c r="B24" t="str">
+        <v>NRN/76826/2,168.70</v>
+      </c>
+      <c r="C24" t="str">
+        <v>BPCL/87230/888.89</v>
+      </c>
+      <c r="D24" t="str">
+        <v>CHDC/22077/2,671.66</v>
+      </c>
+      <c r="E24" t="str">
+        <v>HIDCLP/266898/209.37</v>
+      </c>
+      <c r="F24" t="str">
+        <v>HIDCL/156315/294.97</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>B33</v>
+      </c>
+      <c r="B25" t="str">
+        <v>SANIMA/297111/353.48</v>
+      </c>
+      <c r="C25" t="str">
+        <v>SBI/236302/425.93</v>
+      </c>
+      <c r="D25" t="str">
+        <v>SADBL/220617/433.57</v>
+      </c>
+      <c r="E25" t="str">
+        <v>EBL/102034/718.07</v>
+      </c>
+      <c r="F25" t="str">
+        <v>LSL/300415/232.99</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>B34</v>
+      </c>
+      <c r="B26" t="str">
+        <v>SHPC/124628/611.09</v>
+      </c>
+      <c r="C26" t="str">
+        <v>SBL/181459/368.09</v>
+      </c>
+      <c r="D26" t="str">
+        <v>MKHL/60214/826.42</v>
+      </c>
+      <c r="E26" t="str">
+        <v>NLIC/39805/792.32</v>
+      </c>
+      <c r="F26" t="str">
+        <v>BARUN/76599/423.32</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>B35</v>
+      </c>
+      <c r="B27" t="str">
+        <v>HBL/187809/242.34</v>
+      </c>
+      <c r="C27" t="str">
+        <v>CHDC/13658/2,660.42</v>
+      </c>
+      <c r="D27" t="str">
+        <v>LBBL/64988/495.52</v>
+      </c>
+      <c r="E27" t="str">
+        <v>HIDCL/97383/296.13</v>
+      </c>
+      <c r="F27" t="str">
+        <v>NGPL/57341/399.65</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>B36</v>
+      </c>
+      <c r="B28" t="str">
+        <v>SAPDBL/26232/1,051.85</v>
+      </c>
+      <c r="C28" t="str">
+        <v>LSL/101092/227.88</v>
+      </c>
+      <c r="D28" t="str">
+        <v>SHINE/37949/438.93</v>
+      </c>
+      <c r="E28" t="str">
+        <v>CBBL/15699/1,017.45</v>
+      </c>
+      <c r="F28" t="str">
+        <v>GBIME/56195/251.12</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>B37</v>
+      </c>
+      <c r="B29" t="str">
+        <v>NICA/24870/406.98</v>
+      </c>
+      <c r="C29" t="str">
+        <v>SHPC/16417/613.63</v>
+      </c>
+      <c r="D29" t="str">
+        <v>RFPL/9332/629.89</v>
+      </c>
+      <c r="E29" t="str">
+        <v>LEC/27026/215.25</v>
+      </c>
+      <c r="F29" t="str">
+        <v>SHL/9471/568.70</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>B38</v>
+      </c>
+      <c r="B30" t="str">
+        <v>RSDC/74625/738.81</v>
+      </c>
+      <c r="C30" t="str">
+        <v>RADHI/42508/806.77</v>
+      </c>
+      <c r="D30" t="str">
+        <v>SAPDBL/32624/1,056.79</v>
+      </c>
+      <c r="E30" t="str">
+        <v>CZBIL/119204/229.12</v>
+      </c>
+      <c r="F30" t="str">
+        <v>BPCL/24485/863.21</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>B39</v>
+      </c>
+      <c r="B31" t="str">
+        <v>UNHPL/227396/446.22</v>
+      </c>
+      <c r="C31" t="str">
+        <v>RADHI/117109/796.56</v>
+      </c>
+      <c r="D31" t="str">
+        <v>NBL/214375/268.88</v>
+      </c>
+      <c r="E31" t="str">
+        <v>HIDCL/139354/304.44</v>
+      </c>
+      <c r="F31" t="str">
+        <v>SADBL/63487/432.05</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>B40</v>
+      </c>
+      <c r="B32" t="str">
+        <v>SMATA/19714/828.05</v>
+      </c>
+      <c r="C32" t="str">
+        <v>BPCL/17480/856.01</v>
+      </c>
+      <c r="D32" t="str">
+        <v>RADHI/17595/796.79</v>
+      </c>
+      <c r="E32" t="str">
+        <v>CHCL/23825/539.72</v>
+      </c>
+      <c r="F32" t="str">
+        <v>NLICL/18016/615.13</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>B41</v>
+      </c>
+      <c r="B33" t="str">
+        <v>GRDBL/65177/1,467.40</v>
+      </c>
+      <c r="C33" t="str">
+        <v>BHDC/136914/535.96</v>
+      </c>
+      <c r="D33" t="str">
+        <v>DORDI/140637/329.71</v>
+      </c>
+      <c r="E33" t="str">
+        <v>SINDU/35803/896.74</v>
+      </c>
+      <c r="F33" t="str">
+        <v>PMHPL/48147/407.95</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>B42</v>
+      </c>
+      <c r="B34" t="str">
+        <v>MERO/154814/844.25</v>
+      </c>
+      <c r="C34" t="str">
+        <v>SHEL/275434/296.33</v>
+      </c>
+      <c r="D34" t="str">
+        <v>NGPL/105974/397.27</v>
+      </c>
+      <c r="E34" t="str">
+        <v>PRIN/45350/916.27</v>
+      </c>
+      <c r="F34" t="str">
+        <v>SONA/73793/461.22</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>B43</v>
+      </c>
+      <c r="B35" t="str">
+        <v>KBL/186778/211.65</v>
+      </c>
+      <c r="C35" t="str">
+        <v>SANIMA/75313/368.13</v>
+      </c>
+      <c r="D35" t="str">
+        <v>BPCL/34671/858.97</v>
+      </c>
+      <c r="E35" t="str">
+        <v>HDL/17432/1,226.81</v>
+      </c>
+      <c r="F35" t="str">
+        <v>PRVU/93151/215.91</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>B44</v>
+      </c>
+      <c r="B36" t="str">
+        <v>NGPL/468615/401.65</v>
+      </c>
+      <c r="C36" t="str">
+        <v>EBL/95238/712.38</v>
+      </c>
+      <c r="D36" t="str">
+        <v>ALICL/94671/504.93</v>
+      </c>
+      <c r="E36" t="str">
+        <v>SHIVM/91899/531.91</v>
+      </c>
+      <c r="F36" t="str">
+        <v>EDBL/68482/606.21</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>B45</v>
+      </c>
+      <c r="B37" t="str">
+        <v>NICA/471773/404.61</v>
+      </c>
+      <c r="C37" t="str">
+        <v>BARUN/134883/429.25</v>
+      </c>
+      <c r="D37" t="str">
+        <v>LBBL/70064/495.15</v>
+      </c>
+      <c r="E37" t="str">
+        <v>RADHI/41078/805.06</v>
+      </c>
+      <c r="F37" t="str">
+        <v>MLBL/68311/412.20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>B46</v>
+      </c>
+      <c r="B38" t="str">
+        <v>RADHI/14844/795.92</v>
+      </c>
+      <c r="C38" t="str">
+        <v>TAMOR/21430/519.29</v>
+      </c>
+      <c r="D38" t="str">
+        <v>BHL/41335/216.02</v>
+      </c>
+      <c r="E38" t="str">
+        <v>SAPDBL/8013/1,058.62</v>
+      </c>
+      <c r="F38" t="str">
+        <v>SANIMA/19885/359.93</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>B47</v>
+      </c>
+      <c r="B39" t="str">
+        <v>NRN/19922/2,244.40</v>
+      </c>
+      <c r="C39" t="str">
+        <v>KBL/146390/215.78</v>
+      </c>
+      <c r="D39" t="str">
+        <v>RADHI/27598/800.10</v>
+      </c>
+      <c r="E39" t="str">
+        <v>CGH/19277/1,003.16</v>
+      </c>
+      <c r="F39" t="str">
+        <v>SAPDBL/13379/1,045.93</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>B48</v>
+      </c>
+      <c r="B40" t="str">
+        <v>SMATA/77293/905.68</v>
+      </c>
+      <c r="C40" t="str">
+        <v>NBL/215305/295.07</v>
+      </c>
+      <c r="D40" t="str">
+        <v>GBIME/225977/252.89</v>
+      </c>
+      <c r="E40" t="str">
+        <v>SHPC/73978/611.67</v>
+      </c>
+      <c r="F40" t="str">
+        <v>SBL/91649/361.15</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>B49</v>
+      </c>
+      <c r="B41" t="str">
+        <v>MDB/86441/661.04</v>
+      </c>
+      <c r="C41" t="str">
+        <v>SADBL/79724/445.31</v>
+      </c>
+      <c r="D41" t="str">
+        <v>RHPL/70764/361.65</v>
+      </c>
+      <c r="E41" t="str">
+        <v>KSBBL/50436/498.87</v>
+      </c>
+      <c r="F41" t="str">
+        <v>SALICO/34757/715.32</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>B50</v>
+      </c>
+      <c r="B42" t="str">
+        <v>GBBL/144584/449.05</v>
+      </c>
+      <c r="C42" t="str">
+        <v>KSBBL/112385/522.59</v>
+      </c>
+      <c r="D42" t="str">
+        <v>MNBBL/84961/433.72</v>
+      </c>
+      <c r="E42" t="str">
+        <v>SAHAS/53938/622.30</v>
+      </c>
+      <c r="F42" t="str">
+        <v>TAMOR/68156/516.44</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>B51</v>
+      </c>
+      <c r="B43" t="str">
+        <v>CHDC/6987/2,649.23</v>
+      </c>
+      <c r="C43" t="str">
+        <v>SAPDBL/15975/1,048.18</v>
+      </c>
+      <c r="D43" t="str">
+        <v>NGPL/33452/398.14</v>
+      </c>
+      <c r="E43" t="str">
+        <v>BHL/46035/213.35</v>
+      </c>
+      <c r="F43" t="str">
+        <v>CGH/10184/975.85</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>B52</v>
+      </c>
+      <c r="B44" t="str">
+        <v>NABIL/204539/535.35</v>
+      </c>
+      <c r="C44" t="str">
+        <v>NBL/251698/294.11</v>
+      </c>
+      <c r="D44" t="str">
+        <v>SCB/88375/661.98</v>
+      </c>
+      <c r="E44" t="str">
+        <v>PCBL/168021/280.04</v>
+      </c>
+      <c r="F44" t="str">
+        <v>EBL/54570/701.24</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>B53</v>
+      </c>
+      <c r="B45" t="str">
+        <v>SHPC/23681/607.23</v>
+      </c>
+      <c r="C45" t="str">
+        <v>HRL/13037/967.68</v>
+      </c>
+      <c r="D45" t="str">
+        <v>AHPC/40847/288.74</v>
+      </c>
+      <c r="E45" t="str">
+        <v>HIDCLP/52161/213.53</v>
+      </c>
+      <c r="F45" t="str">
+        <v>SAHAS/16526/615.09</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>B54</v>
+      </c>
+      <c r="B46" t="str">
+        <v>STC/12894/5,136.72</v>
+      </c>
+      <c r="C46" t="str">
+        <v>HRL/31064/988.81</v>
+      </c>
+      <c r="D46" t="str">
+        <v>EDBL/27951/662.30</v>
+      </c>
+      <c r="E46" t="str">
+        <v>CBBL/16980/954.49</v>
+      </c>
+      <c r="F46" t="str">
+        <v>SWBBL/17886/833.79</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>B55</v>
+      </c>
+      <c r="B47" t="str">
+        <v>NRIC/995395/1,342.72</v>
+      </c>
+      <c r="C47" t="str">
+        <v>GMLI/45835/2,341.86</v>
+      </c>
+      <c r="D47" t="str">
+        <v>NMIC/59313/1,648.20</v>
+      </c>
+      <c r="E47" t="str">
+        <v>RADHI/50735/808.13</v>
+      </c>
+      <c r="F47" t="str">
+        <v>CHDC/12778/2,658.70</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>B56</v>
+      </c>
+      <c r="B48" t="str">
+        <v>CHDC/39812/2,749.42</v>
+      </c>
+      <c r="C48" t="str">
+        <v>SARBTM/120236/857.89</v>
+      </c>
+      <c r="D48" t="str">
+        <v>BPCL/93144/852.83</v>
+      </c>
+      <c r="E48" t="str">
+        <v>SBL/144150/349.34</v>
+      </c>
+      <c r="F48" t="str">
+        <v>PCBL/157863/278.68</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>B57</v>
+      </c>
+      <c r="B49" t="str">
+        <v>RADHI/52399/803.71</v>
+      </c>
+      <c r="C49" t="str">
+        <v>SAPDBL/33111/1,052.66</v>
+      </c>
+      <c r="D49" t="str">
+        <v>PRIN/35968/917.49</v>
+      </c>
+      <c r="E49" t="str">
+        <v>SAHAS/38896/609.65</v>
+      </c>
+      <c r="F49" t="str">
+        <v>RIDI/87074/262.95</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>B58</v>
+      </c>
+      <c r="B50" t="str">
+        <v>FMDBL/524631/866.32</v>
+      </c>
+      <c r="C50" t="str">
+        <v>RADHI/143672/801.54</v>
+      </c>
+      <c r="D50" t="str">
+        <v>LBBL/189497/514.96</v>
+      </c>
+      <c r="E50" t="str">
+        <v>KSBBL/200042/502.09</v>
+      </c>
+      <c r="F50" t="str">
+        <v>NGPL/226600/399.85</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>B59</v>
+      </c>
+      <c r="B51" t="str">
+        <v>RADHI/69546/800.72</v>
+      </c>
+      <c r="C51" t="str">
+        <v>DORDI/76745/332.20</v>
+      </c>
+      <c r="D51" t="str">
+        <v>NLIC/31147/793.35</v>
+      </c>
+      <c r="E51" t="str">
+        <v>SHPC/34694/611.01</v>
+      </c>
+      <c r="F51" t="str">
+        <v>NRN/9113/2,210.68</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>B60</v>
+      </c>
+      <c r="B52" t="str">
+        <v>GRDBL/37330/1,428.65</v>
+      </c>
+      <c r="C52" t="str">
+        <v>SHIVM/63831/559.07</v>
+      </c>
+      <c r="D52" t="str">
+        <v>CZBIL/93423/228.37</v>
+      </c>
+      <c r="E52" t="str">
+        <v>OMPL/15044/1,403.73</v>
+      </c>
+      <c r="F52" t="str">
+        <v>GHL/70054/268.37</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>B61</v>
+      </c>
+      <c r="B53" t="str">
+        <v>CHDC/11659/2,683.50</v>
+      </c>
+      <c r="C53" t="str">
+        <v>NRN/13347/2,240.26</v>
+      </c>
+      <c r="D53" t="str">
+        <v>HRL/23462/999.65</v>
+      </c>
+      <c r="E53" t="str">
+        <v>NRIC/9717/1,416.89</v>
+      </c>
+      <c r="F53" t="str">
+        <v>SADBL/25325/459.90</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>B62</v>
+      </c>
+      <c r="B54" t="str">
+        <v>UMHL/315438/557.50</v>
+      </c>
+      <c r="C54" t="str">
+        <v>BPCL/109379/870.13</v>
+      </c>
+      <c r="D54" t="str">
+        <v>UNHPL/111444/441.72</v>
+      </c>
+      <c r="E54" t="str">
+        <v>SARBTM/47228/860.39</v>
+      </c>
+      <c r="F54" t="str">
+        <v>ANLB/6728/5,383.19</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>B63</v>
+      </c>
+      <c r="B55" t="str">
+        <v>MERO/44659/875.55</v>
+      </c>
+      <c r="C55" t="str">
+        <v>USLB/14466/1,902.92</v>
+      </c>
+      <c r="D55" t="str">
+        <v>HBL/115837/239.00</v>
+      </c>
+      <c r="E55" t="str">
+        <v>CHDC/7007/2,634.50</v>
+      </c>
+      <c r="F55" t="str">
+        <v>HRL/17818/988.02</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>B64</v>
+      </c>
+      <c r="B56" t="str">
+        <v>BPCL/222296/866.97</v>
+      </c>
+      <c r="C56" t="str">
+        <v>SPIL/100641/800.47</v>
+      </c>
+      <c r="D56" t="str">
+        <v>MSHL/63539/887.78</v>
+      </c>
+      <c r="E56" t="str">
+        <v>BHDC/85887/537.06</v>
+      </c>
+      <c r="F56" t="str">
+        <v>TSHL/33322/848.88</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>B65</v>
+      </c>
+      <c r="B57" t="str">
+        <v>SBI/353639/434.31</v>
+      </c>
+      <c r="C57" t="str">
+        <v>SMHL/66848/1,039.84</v>
+      </c>
+      <c r="D57" t="str">
+        <v>CHCL/108024/540.53</v>
+      </c>
+      <c r="E57" t="str">
+        <v>SPIL/63635/811.23</v>
+      </c>
+      <c r="F57" t="str">
+        <v>HIDCLP/232316/211.95</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>B66</v>
+      </c>
+      <c r="B58" t="str">
+        <v>SARBTM/87854/888.56</v>
+      </c>
+      <c r="C58" t="str">
+        <v>API/214817/294.84</v>
+      </c>
+      <c r="D58" t="str">
+        <v>SAHAS/93164/607.77</v>
+      </c>
+      <c r="E58" t="str">
+        <v>NRN/14695/2,225.74</v>
+      </c>
+      <c r="F58" t="str">
+        <v>NRIC/11940/1,386.57</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>B67</v>
+      </c>
+      <c r="B59" t="str">
+        <v>BPCL/40496/866.15</v>
+      </c>
+      <c r="C59" t="str">
+        <v>UPPER/120583/211.15</v>
+      </c>
+      <c r="D59" t="str">
+        <v>RADHI/27481/803.14</v>
+      </c>
+      <c r="E59" t="str">
+        <v>SKBBL/13301/935.76</v>
+      </c>
+      <c r="F59" t="str">
+        <v>MBL/45516/258.77</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>B68</v>
+      </c>
+      <c r="B60" t="str">
+        <v>SPC/65080/533.54</v>
+      </c>
+      <c r="C60" t="str">
+        <v>OMPL/17111/1,392.02</v>
+      </c>
+      <c r="D60" t="str">
+        <v>NUBL/13970/791.15</v>
+      </c>
+      <c r="E60" t="str">
+        <v>SHL/18400/580.16</v>
+      </c>
+      <c r="F60" t="str">
+        <v>CZBIL/36034/226.61</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>B69</v>
+      </c>
+      <c r="B61" t="str">
+        <v>NGPL/104308/395.52</v>
+      </c>
+      <c r="C61" t="str">
+        <v>SAHAS/62177/622.27</v>
+      </c>
+      <c r="D61" t="str">
+        <v>SHL/50022/580.80</v>
+      </c>
+      <c r="E61" t="str">
+        <v>SBL/74591/361.45</v>
+      </c>
+      <c r="F61" t="str">
+        <v>SPDL/53284/423.41</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>B70</v>
+      </c>
+      <c r="B62" t="str">
+        <v>BEDC/88015/704.19</v>
+      </c>
+      <c r="C62" t="str">
+        <v>SHPC/56408/618.98</v>
+      </c>
+      <c r="D62" t="str">
+        <v>SANIMA/62450/376.75</v>
+      </c>
+      <c r="E62" t="str">
+        <v>CHDC/7393/2,716.54</v>
+      </c>
+      <c r="F62" t="str">
+        <v>HRL/18293/965.17</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>B71</v>
+      </c>
+      <c r="B63" t="str">
+        <v>NRIC/37593/1,335.48</v>
+      </c>
+      <c r="C63" t="str">
+        <v>SPIL/35708/830.49</v>
+      </c>
+      <c r="D63" t="str">
+        <v>SHIVM/49634/556.17</v>
+      </c>
+      <c r="E63" t="str">
+        <v>CORBL/11005/2,355.65</v>
+      </c>
+      <c r="F63" t="str">
+        <v>SALICO/27286/732.05</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>B72</v>
+      </c>
+      <c r="B64" t="str">
+        <v>SAPDBL/28166/1,068.07</v>
+      </c>
+      <c r="C64" t="str">
+        <v>ULHC/51737/494.37</v>
+      </c>
+      <c r="D64" t="str">
+        <v>PMHPL/35010/410.16</v>
+      </c>
+      <c r="E64" t="str">
+        <v>RADHI/8928/806.84</v>
+      </c>
+      <c r="F64" t="str">
+        <v>MNBBL/20443/401.20</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>B73</v>
+      </c>
+      <c r="B65" t="str">
+        <v>SHEL/1000/299.97</v>
+      </c>
+      <c r="C65" t="str">
+        <v>NRM/500/430.00</v>
+      </c>
+      <c r="D65" t="str">
+        <v>BARUN/500/420.50</v>
+      </c>
+      <c r="E65" t="str">
+        <v>BHL/330/206.00</v>
+      </c>
+      <c r="F65" t="str">
+        <v>VLBS/64/787.00</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>B74</v>
+      </c>
+      <c r="B66" t="str">
+        <v>HRL/43480/983.54</v>
+      </c>
+      <c r="C66" t="str">
+        <v>SKBBL/46501/913.12</v>
+      </c>
+      <c r="D66" t="str">
+        <v>AVYAN/30970/1,094.88</v>
+      </c>
+      <c r="E66" t="str">
+        <v>CZBIL/91901/212.46</v>
+      </c>
+      <c r="F66" t="str">
+        <v>SADBL/34861/444.84</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>B75</v>
+      </c>
+      <c r="B67" t="str">
+        <v>NRN/18005/2,274.84</v>
+      </c>
+      <c r="C67" t="str">
+        <v>SAHAS/45881/589.79</v>
+      </c>
+      <c r="D67" t="str">
+        <v>LBBL/35196/506.74</v>
+      </c>
+      <c r="E67" t="str">
+        <v>SHIVM/31865/561.06</v>
+      </c>
+      <c r="F67" t="str">
+        <v>SKBBL/12762/896.38</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>B76</v>
+      </c>
+      <c r="B68" t="str">
+        <v>SAHAS/45843/628.15</v>
+      </c>
+      <c r="C68" t="str">
+        <v>API/42380/300.25</v>
+      </c>
+      <c r="D68" t="str">
+        <v>NRN/4968/2,360.00</v>
+      </c>
+      <c r="E68" t="str">
+        <v>MBJC/17689/318.22</v>
+      </c>
+      <c r="F68" t="str">
+        <v>UPCL/7970/425.82</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>B77</v>
+      </c>
+      <c r="B69" t="str">
+        <v>NRN/48760/2,249.45</v>
+      </c>
+      <c r="C69" t="str">
+        <v>CHDC/22716/2,695.55</v>
+      </c>
+      <c r="D69" t="str">
+        <v>NLIC/46552/819.03</v>
+      </c>
+      <c r="E69" t="str">
+        <v>BPCL/37753/875.09</v>
+      </c>
+      <c r="F69" t="str">
+        <v>SAHAS/48068/624.64</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>B78</v>
+      </c>
+      <c r="B70" t="str">
+        <v>RADHI/16695/803.57</v>
+      </c>
+      <c r="C70" t="str">
+        <v>HDL/4700/1,228.70</v>
+      </c>
+      <c r="D70" t="str">
+        <v>RFPL/9560/612.42</v>
+      </c>
+      <c r="E70" t="str">
+        <v>NICA/10300/403.80</v>
+      </c>
+      <c r="F70" t="str">
+        <v>GVL/8964/473.99</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>B79</v>
+      </c>
+      <c r="B71" t="str">
+        <v>SHEL/3470/290.71</v>
+      </c>
+      <c r="C71" t="str">
+        <v>JBBL/2501/356.75</v>
+      </c>
+      <c r="D71" t="str">
+        <v>NMIC/482/1,756.93</v>
+      </c>
+      <c r="E71" t="str">
+        <v>PRVU/2567/205.34</v>
+      </c>
+      <c r="F71" t="str">
+        <v>NICA/1063/417.97</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>B80</v>
+      </c>
+      <c r="B72" t="str">
+        <v>BPCL/97676/897.64</v>
+      </c>
+      <c r="C72" t="str">
+        <v>RADHI/30166/803.44</v>
+      </c>
+      <c r="D72" t="str">
+        <v>BHDC/36538/544.98</v>
+      </c>
+      <c r="E72" t="str">
+        <v>TSHL/23006/779.91</v>
+      </c>
+      <c r="F72" t="str">
+        <v>BEDC/25063/685.75</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>B81</v>
+      </c>
+      <c r="B73" t="str">
+        <v>RADHI/222121/812.60</v>
+      </c>
+      <c r="C73" t="str">
+        <v>CHCL/133623/542.85</v>
+      </c>
+      <c r="D73" t="str">
+        <v>LSL/291842/238.23</v>
+      </c>
+      <c r="E73" t="str">
+        <v>NGPL/155420/398.09</v>
+      </c>
+      <c r="F73" t="str">
+        <v>HRL/60580/952.27</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>B82</v>
+      </c>
+      <c r="B74" t="str">
+        <v>RSDC/9900/794.96</v>
+      </c>
+      <c r="C74" t="str">
+        <v>MNBBL/17500/433.26</v>
+      </c>
+      <c r="D74" t="str">
+        <v>SADBL/15180/445.31</v>
+      </c>
+      <c r="E74" t="str">
+        <v>HIDCL/20724/303.99</v>
+      </c>
+      <c r="F74" t="str">
+        <v>HRL/5024/974.76</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>B83</v>
+      </c>
+      <c r="B75" t="str">
+        <v>BPCL/21561/888.46</v>
+      </c>
+      <c r="C75" t="str">
+        <v>LICN/19608/894.91</v>
+      </c>
+      <c r="D75" t="str">
+        <v>SADBL/35346/451.99</v>
+      </c>
+      <c r="E75" t="str">
+        <v>KSBBL/23111/495.20</v>
+      </c>
+      <c r="F75" t="str">
+        <v>HRL/10621/988.24</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>B84</v>
+      </c>
+      <c r="B76" t="str">
+        <v>NGPL/284017/402.78</v>
+      </c>
+      <c r="C76" t="str">
+        <v>MKHL/110878/838.08</v>
+      </c>
+      <c r="D76" t="str">
+        <v>SPL/39368/923.36</v>
+      </c>
+      <c r="E76" t="str">
+        <v>NBL/68958/289.25</v>
+      </c>
+      <c r="F76" t="str">
+        <v>CBBL/17605/953.31</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>B85</v>
+      </c>
+      <c r="B77" t="str">
+        <v>LBBL/54044/499.87</v>
+      </c>
+      <c r="C77" t="str">
+        <v>SHPC/34103/614.59</v>
+      </c>
+      <c r="D77" t="str">
+        <v>MNBBL/28239/434.83</v>
+      </c>
+      <c r="E77" t="str">
+        <v>GBBL/27870/445.19</v>
+      </c>
+      <c r="F77" t="str">
+        <v>NLIC/13393/771.86</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>B86</v>
+      </c>
+      <c r="B78" t="str">
+        <v>NRIC/9107/1,397.39</v>
+      </c>
+      <c r="C78" t="str">
+        <v>NRN/2842/2,264.97</v>
+      </c>
+      <c r="D78" t="str">
+        <v>GLH/20673/285.84</v>
+      </c>
+      <c r="E78" t="str">
+        <v>UNHPL/12112/437.93</v>
+      </c>
+      <c r="F78" t="str">
+        <v>GVL/10598/467.10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>B87</v>
+      </c>
+      <c r="B79" t="str">
+        <v>NRIC/9449/1,423.76</v>
+      </c>
+      <c r="C79" t="str">
+        <v>ULBSL/3176/3,357.84</v>
+      </c>
+      <c r="D79" t="str">
+        <v>ANLB/1850/5,439.08</v>
+      </c>
+      <c r="E79" t="str">
+        <v>BHDC/15881/548.35</v>
+      </c>
+      <c r="F79" t="str">
+        <v>NBL/29986/288.96</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>B88</v>
+      </c>
+      <c r="B80" t="str">
+        <v>PMHPL/177273/410.18</v>
+      </c>
+      <c r="C80" t="str">
+        <v>HIDCLP/166702/208.80</v>
+      </c>
+      <c r="D80" t="str">
+        <v>CHDC/11084/2,688.12</v>
+      </c>
+      <c r="E80" t="str">
+        <v>GBBL/61075/442.97</v>
+      </c>
+      <c r="F80" t="str">
+        <v>RADHI/22348/794.03</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>B89</v>
+      </c>
+      <c r="B81" t="str">
+        <v>SANIMA/37251/371.52</v>
+      </c>
+      <c r="C81" t="str">
+        <v>CGH/13437/1,008.45</v>
+      </c>
+      <c r="D81" t="str">
+        <v>NRN/5058/2,211.44</v>
+      </c>
+      <c r="E81" t="str">
+        <v>MERO/14079/834.25</v>
+      </c>
+      <c r="F81" t="str">
+        <v>SICL/9833/786.62</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>B90</v>
+      </c>
+      <c r="B82" t="str">
+        <v>NBL/77387/298.72</v>
+      </c>
+      <c r="C82" t="str">
+        <v>HHL/16472/380.18</v>
+      </c>
+      <c r="D82" t="str">
+        <v>HRL/4448/952.67</v>
+      </c>
+      <c r="E82" t="str">
+        <v>API/10058/292.72</v>
+      </c>
+      <c r="F82" t="str">
+        <v>SJLIC/3685/458.95</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>B91</v>
+      </c>
+      <c r="B83" t="str">
+        <v>DORDI/32581/337.52</v>
+      </c>
+      <c r="C83" t="str">
+        <v>UMHL/12206/563.19</v>
+      </c>
+      <c r="D83" t="str">
+        <v>SHEL/21634/298.87</v>
+      </c>
+      <c r="E83" t="str">
+        <v>SFCL/8964/521.29</v>
+      </c>
+      <c r="F83" t="str">
+        <v>RFPL/7403/618.87</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>B92</v>
+      </c>
+      <c r="B84" t="str">
+        <v>SHPC/90392/629.58</v>
+      </c>
+      <c r="C84" t="str">
+        <v>SBL/100872/386.52</v>
+      </c>
+      <c r="D84" t="str">
+        <v>USLB/9403/2,014.41</v>
+      </c>
+      <c r="E84" t="str">
+        <v>NABIL/33218/549.08</v>
+      </c>
+      <c r="F84" t="str">
+        <v>EBL/12455/718.00</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>B93</v>
+      </c>
+      <c r="B85" t="str">
+        <v>NFS/10256/742.74</v>
+      </c>
+      <c r="C85" t="str">
+        <v>HIDCL/24049/293.25</v>
+      </c>
+      <c r="D85" t="str">
+        <v>NRM/8984/477.10</v>
+      </c>
+      <c r="E85" t="str">
+        <v>MEN/4800/646.11</v>
+      </c>
+      <c r="F85" t="str">
+        <v>SPDL/6900/426.56</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>B94</v>
+      </c>
+      <c r="B86" t="str">
+        <v>SBL/253195/358.44</v>
+      </c>
+      <c r="C86" t="str">
+        <v>MNBBL/114133/435.78</v>
+      </c>
+      <c r="D86" t="str">
+        <v>BPCL/53123/880.39</v>
+      </c>
+      <c r="E86" t="str">
+        <v>KSBBL/44434/526.42</v>
+      </c>
+      <c r="F86" t="str">
+        <v>SANIMA/56411/360.86</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>B95</v>
+      </c>
+      <c r="B87" t="str">
+        <v>HRL/10288/969.80</v>
+      </c>
+      <c r="C87" t="str">
+        <v>RADHI/10934/803.18</v>
+      </c>
+      <c r="D87" t="str">
+        <v>LBBL/15887/493.70</v>
+      </c>
+      <c r="E87" t="str">
+        <v>DORDI/22960/326.58</v>
+      </c>
+      <c r="F87" t="str">
+        <v>NLG/8546/853.67</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>B96</v>
+      </c>
+      <c r="B88" t="str">
+        <v>NRIC/79700/1,390.00</v>
+      </c>
+      <c r="C88" t="str">
+        <v>HRL/40206/988.90</v>
+      </c>
+      <c r="D88" t="str">
+        <v>USLB/16850/1,849.80</v>
+      </c>
+      <c r="E88" t="str">
+        <v>FMDBL/16805/882.74</v>
+      </c>
+      <c r="F88" t="str">
+        <v>EBL/19971/724.94</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>B97</v>
+      </c>
+      <c r="B89" t="str">
+        <v>BPCL/13321/865.07</v>
+      </c>
+      <c r="C89" t="str">
+        <v>SAPDBL/7084/1,058.70</v>
+      </c>
+      <c r="D89" t="str">
+        <v>NRIC/4289/1,356.36</v>
+      </c>
+      <c r="E89" t="str">
+        <v>UPCL/14330/416.16</v>
+      </c>
+      <c r="F89" t="str">
+        <v>NIFRA/11145/293.48</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>B98</v>
+      </c>
+      <c r="B90" t="str">
+        <v>CHCL/31393/544.96</v>
+      </c>
+      <c r="C90" t="str">
+        <v>SAHAS/25681/641.89</v>
+      </c>
+      <c r="D90" t="str">
+        <v>NRIC/9113/1,418.45</v>
+      </c>
+      <c r="E90" t="str">
+        <v>RSDC/17665/784.02</v>
+      </c>
+      <c r="F90" t="str">
+        <v>MKJC/20672/545.36</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>B99</v>
+      </c>
+      <c r="B91" t="str">
+        <v>LBBL/57725/489.00</v>
+      </c>
+      <c r="C91" t="str">
+        <v>BARUN/30921/427.43</v>
+      </c>
+      <c r="D91" t="str">
+        <v>BPCL/11487/855.06</v>
+      </c>
+      <c r="E91" t="str">
+        <v>SAHAS/11943/624.74</v>
+      </c>
+      <c r="F91" t="str">
+        <v>AHPC/23085/297.41</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>B100</v>
+      </c>
+      <c r="B92" t="str">
+        <v>SHPC/88017/593.06</v>
+      </c>
+      <c r="C92" t="str">
+        <v>API/122967/292.55</v>
+      </c>
+      <c r="D92" t="str">
+        <v>NGPL/82498/391.79</v>
+      </c>
+      <c r="E92" t="str">
+        <v>GBBL/62172/421.41</v>
+      </c>
+      <c r="F92" t="str">
+        <v>HURJA/55020/252.48</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>B101</v>
+      </c>
+      <c r="B93" t="str">
+        <v>RADHI/27201/795.12</v>
+      </c>
+      <c r="C93" t="str">
+        <v>SHPC/26449/602.53</v>
+      </c>
+      <c r="D93" t="str">
+        <v>CHDC/4728/2,692.17</v>
+      </c>
+      <c r="E93" t="str">
+        <v>NRN/5350/2,231.34</v>
+      </c>
+      <c r="F93" t="str">
+        <v>NICA/19597/407.09</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F93"/>
   </ignoredErrors>
 </worksheet>
 </file>
